--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="14" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="17" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -37,6 +37,10 @@
     <sheet name="ERPR018" sheetId="28" r:id="rId23"/>
     <sheet name="ERPR019" sheetId="29" r:id="rId24"/>
     <sheet name="ERPR020" sheetId="30" r:id="rId25"/>
+    <sheet name="ERPR021" sheetId="32" r:id="rId26"/>
+    <sheet name="ERPR022" sheetId="33" r:id="rId27"/>
+    <sheet name="ERPR023" sheetId="35" r:id="rId28"/>
+    <sheet name="ERPR024" sheetId="37" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ERPR001!$1:$4</definedName>
@@ -110,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="399">
   <si>
     <t>ที่</t>
   </si>
@@ -1850,6 +1854,160 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>รายงานผู้เบิกเงินสวัสดิการ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตั้งแต่วันที่ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>01/01/2560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ถึง </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>31/01/2560</t>
+    </r>
+  </si>
+  <si>
+    <t>ชื่อ-ผู้มีสิทธิ</t>
+  </si>
+  <si>
+    <t>ผู้รับสิทธิ</t>
+  </si>
+  <si>
+    <t>ประเภทการเบิก</t>
+  </si>
+  <si>
+    <t>เลขที่ฎีกาคลัง</t>
+  </si>
+  <si>
+    <t>AAAA AAAAA</t>
+  </si>
+  <si>
+    <t>VVVV VVVV</t>
+  </si>
+  <si>
+    <t>เบิกเงินรักษาพยาบาล</t>
+  </si>
+  <si>
+    <t>101/60</t>
+  </si>
+  <si>
+    <t>YYYY YYYY</t>
+  </si>
+  <si>
+    <t>YYYY YYYYY</t>
+  </si>
+  <si>
+    <t>102/60</t>
+  </si>
+  <si>
+    <t>PPPP PPP</t>
+  </si>
+  <si>
+    <t>ZZZZ ZZZZZZZ</t>
+  </si>
+  <si>
+    <t>เบิกเงินค่าเล่าเรียน</t>
+  </si>
+  <si>
+    <t>ทะเบียนคุมเบิกเงินรักษาพยาบาล</t>
+  </si>
+  <si>
+    <t>ทะเบียนคุมเบิกเงินค่าเล่าเรียน</t>
+  </si>
+  <si>
+    <t>ชื่อผู้มีสิทธิ</t>
+  </si>
+  <si>
+    <t>ชื่อผู้รับสิทธิ</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฎีกาคลัง </t>
+  </si>
+  <si>
+    <t>AAAA RRR</t>
+  </si>
+  <si>
+    <t>120/60</t>
+  </si>
+  <si>
+    <t>122/60</t>
+  </si>
+  <si>
+    <t>PPPP OOOOO</t>
+  </si>
+  <si>
+    <t>LLLL OOOOO</t>
+  </si>
+  <si>
+    <t>YYYY UUU</t>
+  </si>
+  <si>
+    <t>AAAA UUUU</t>
+  </si>
+  <si>
+    <t>ปีงบประมาณ 2560</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ปีงบประมาณ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>2560</t>
+    </r>
+  </si>
+  <si>
+    <t>บุตรลำดับที่</t>
+  </si>
+  <si>
+    <t>ภาคเรียนที่/ปีการศึกษา</t>
+  </si>
+  <si>
+    <t>x/xx</t>
+  </si>
+  <si>
+    <t>ทะเบียนคุมเบิกเงินฎีกาคลัง</t>
+  </si>
+  <si>
+    <t>จำนวนรายการเบิก</t>
+  </si>
+  <si>
+    <t>xxx/xx</t>
+  </si>
+  <si>
+    <t>xx/xx/xx</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2499,294 +2657,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2805,6 +2675,319 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2823,20 +3006,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3294,34 +3483,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="179" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -3346,18 +3535,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="156" t="s">
+      <c r="F4" s="174"/>
+      <c r="G4" s="173" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="158" t="s">
+      <c r="H4" s="174"/>
+      <c r="I4" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="158"/>
+      <c r="J4" s="175"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -3665,11 +3854,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="176" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -3731,46 +3920,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -3785,10 +3974,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="99"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -4049,11 +4238,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -4098,47 +4287,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="180" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -4148,18 +4337,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="98" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="98" t="s">
+      <c r="F4" s="116"/>
+      <c r="G4" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="99"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -4270,10 +4459,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="158"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -4324,12 +4513,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -4348,10 +4537,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="164"/>
+      <c r="C5" s="181"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -4370,10 +4559,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="164"/>
+      <c r="C10" s="181"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -4458,18 +4647,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="183" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -4478,48 +4667,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="148"/>
+      <c r="H4" s="165"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="117" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -4620,56 +4809,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="117" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="101"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="118"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -4763,177 +4952,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="178" t="s">
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="178" t="s">
+      <c r="K4" s="195" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="135" t="s">
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="158" t="s">
+      <c r="Q4" s="153"/>
+      <c r="R4" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="158"/>
+      <c r="S4" s="175"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="159"/>
+      <c r="B5" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="142" t="s">
+      <c r="I5" s="159"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="190"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="142" t="s">
+      <c r="T5" s="159" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="142"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="139" t="s">
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="140"/>
-      <c r="N6" s="139" t="s">
+      <c r="M6" s="157"/>
+      <c r="N6" s="156" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="140"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="171">
+      <c r="A7" s="188">
         <v>1</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="188" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="167" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -4949,15 +5138,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -5122,46 +5311,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -5321,46 +5510,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="202" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="202" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185" t="s">
+      <c r="E4" s="202"/>
+      <c r="F4" s="202" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="185"/>
-      <c r="H4" s="183" t="s">
+      <c r="G4" s="202"/>
+      <c r="H4" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="183" t="s">
+      <c r="I4" s="200" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="200" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="184" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="201" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184" t="s">
+      <c r="E5" s="201"/>
+      <c r="F5" s="201" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="184"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="183"/>
+      <c r="A6" s="200"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -5379,8 +5568,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -5404,8 +5593,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -5611,19 +5800,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158" t="s">
+      <c r="E4" s="175"/>
+      <c r="F4" s="175" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="158"/>
-      <c r="H4" s="133" t="s">
+      <c r="G4" s="175"/>
+      <c r="H4" s="150" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5649,7 +5838,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="134"/>
+      <c r="H5" s="151"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -5830,81 +6019,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="115" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="116" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="97"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="98"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="115"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="99"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -6296,18 +6485,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158" t="s">
+      <c r="E4" s="175"/>
+      <c r="F4" s="175" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="158"/>
+      <c r="G4" s="175"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -6316,36 +6505,36 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="206"/>
+      <c r="D5" s="206" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="206" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="189"/>
+      <c r="G5" s="206"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="188">
+      <c r="B6" s="205">
         <v>0</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188">
+      <c r="C6" s="205"/>
+      <c r="D6" s="205">
         <v>0</v>
       </c>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188">
+      <c r="E6" s="205"/>
+      <c r="F6" s="205">
         <v>0</v>
       </c>
-      <c r="G6" s="188"/>
+      <c r="G6" s="205"/>
       <c r="H6" s="89">
         <v>0</v>
       </c>
@@ -6354,18 +6543,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187" t="s">
+      <c r="E7" s="204"/>
+      <c r="F7" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="187"/>
+      <c r="G7" s="204"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -6374,18 +6563,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187" t="s">
+      <c r="C8" s="204"/>
+      <c r="D8" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187" t="s">
+      <c r="E8" s="204"/>
+      <c r="F8" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="187"/>
+      <c r="G8" s="204"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -6394,18 +6583,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187" t="s">
+      <c r="C9" s="204"/>
+      <c r="D9" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187" t="s">
+      <c r="E9" s="204"/>
+      <c r="F9" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="187"/>
+      <c r="G9" s="204"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -6501,18 +6690,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186" t="s">
+      <c r="C14" s="203"/>
+      <c r="D14" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186" t="s">
+      <c r="E14" s="203"/>
+      <c r="F14" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="186"/>
+      <c r="G14" s="203"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -6521,30 +6710,30 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186" t="s">
+      <c r="C16" s="203"/>
+      <c r="D16" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186" t="s">
+      <c r="E16" s="203"/>
+      <c r="F16" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="186"/>
+      <c r="G16" s="203"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
@@ -6604,19 +6793,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="207" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -6676,28 +6865,28 @@
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="192">
+      <c r="B4" s="96">
         <v>9931</v>
       </c>
-      <c r="C4" s="196">
+      <c r="C4" s="100">
         <v>8</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="195">
+      <c r="D4" s="96"/>
+      <c r="E4" s="99">
         <v>23</v>
       </c>
-      <c r="F4" s="195">
+      <c r="F4" s="99">
         <v>34444</v>
       </c>
-      <c r="G4" s="195">
+      <c r="G4" s="99">
         <v>3333</v>
       </c>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192" t="s">
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="195">
+      <c r="K4" s="99">
         <v>1000</v>
       </c>
     </row>
@@ -6705,26 +6894,26 @@
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="192">
+      <c r="B5" s="96">
         <v>9932</v>
       </c>
-      <c r="C5" s="196">
+      <c r="C5" s="100">
         <v>4</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="195">
+      <c r="D5" s="96"/>
+      <c r="E5" s="99">
         <v>22</v>
       </c>
-      <c r="F5" s="195">
+      <c r="F5" s="99">
         <v>5555</v>
       </c>
-      <c r="G5" s="195">
+      <c r="G5" s="99">
         <v>333</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="195">
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="99">
         <v>999</v>
       </c>
     </row>
@@ -6732,44 +6921,44 @@
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="192">
+      <c r="B6" s="96">
         <v>9933</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="100">
         <v>5</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="195">
+      <c r="D6" s="96"/>
+      <c r="E6" s="99">
         <v>22</v>
       </c>
-      <c r="F6" s="195">
+      <c r="F6" s="99">
         <v>6666</v>
       </c>
-      <c r="G6" s="195"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="195"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="208" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="197"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="195">
+      <c r="D7" s="102"/>
+      <c r="E7" s="99">
         <f>SUM(E4:E6)</f>
         <v>67</v>
       </c>
-      <c r="F7" s="195">
+      <c r="F7" s="99">
         <f>SUM(F4:F6)</f>
         <v>46665</v>
       </c>
-      <c r="G7" s="195"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
@@ -6808,20 +6997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="207" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -6882,13 +7071,13 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="203">
+      <c r="A4" s="212">
         <v>1</v>
       </c>
-      <c r="B4" s="200">
+      <c r="B4" s="209">
         <v>9931</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="98" t="s">
         <v>351</v>
       </c>
       <c r="D4" s="39"/>
@@ -6897,20 +7086,20 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="96" t="s">
         <v>350</v>
       </c>
       <c r="K4" s="39">
         <v>1000</v>
       </c>
-      <c r="L4" s="193">
+      <c r="L4" s="97">
         <v>21885</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="204"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="194" t="s">
+      <c r="A5" s="213"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
       <c r="D5" s="39"/>
@@ -6923,14 +7112,14 @@
       <c r="K5" s="39">
         <v>999</v>
       </c>
-      <c r="L5" s="193">
+      <c r="L5" s="97">
         <v>21886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="205"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="194" t="s">
+      <c r="A6" s="214"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
       <c r="D6" s="39"/>
@@ -6941,17 +7130,17 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="193">
+      <c r="L6" s="97">
         <v>21887</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="208" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="199"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -6998,63 +7187,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="159" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="159" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="159" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="191" t="s">
+      <c r="E3" s="159"/>
+      <c r="F3" s="215" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="159" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="159" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -7070,11 +7259,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="175" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -7086,19 +7275,22 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="186" t="s">
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="203" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
@@ -7108,9 +7300,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -7143,40 +7332,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="170" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="153"/>
+      <c r="J3" s="170"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -7290,7 +7479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7306,52 +7495,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="114" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="114" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="114" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -7367,19 +7556,19 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="97"/>
+      <c r="J4" s="114"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="208">
+      <c r="A5" s="216">
         <v>1</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="216" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="208">
+      <c r="C5" s="216">
         <v>9931</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="104" t="s">
         <v>359</v>
       </c>
       <c r="E5" s="7"/>
@@ -7387,13 +7576,13 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="206"/>
+      <c r="J5" s="218"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="210"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="209" t="s">
+      <c r="A6" s="217"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
       <c r="E6" s="7"/>
@@ -7401,7 +7590,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="207"/>
+      <c r="J6" s="219"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -7446,6 +7635,866 @@
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="220" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="220" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+    </row>
+    <row r="3" spans="1:7" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="96">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="111">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="112">
+        <v>241337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="96">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="111">
+        <v>2500</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="112">
+        <v>241337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="96">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="111">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="112">
+        <v>241338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="96"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="96"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="96"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="96"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="96"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="96"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="96"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="96"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="96"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="96"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="96"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="96"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="96"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="179" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="179" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+    </row>
+    <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="60">
+        <v>241062</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="221" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="221" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="221" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="108">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="60">
+        <v>241063</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="221" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="221" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="221" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="108">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="60">
+        <v>241064</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="221" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="221" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="221" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="108">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="108"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="108"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="108"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="108"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="108"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="108"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="106" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="179" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="179" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+    </row>
+    <row r="3" spans="1:7" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="60">
+        <v>241062</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="221" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="221" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="107">
+        <v>1</v>
+      </c>
+      <c r="F5" s="221" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="108">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="60">
+        <v>241063</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="221" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="221" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="107">
+        <v>1</v>
+      </c>
+      <c r="F6" s="221" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="108">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="60">
+        <v>241064</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="221" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="221" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="107">
+        <v>3</v>
+      </c>
+      <c r="F7" s="221" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="108">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="108"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="108"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="108"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="108"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="108"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="108"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="107" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="107">
+        <v>2</v>
+      </c>
+      <c r="E5" s="108">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="107" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="107">
+        <v>5</v>
+      </c>
+      <c r="E6" s="108">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="107" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="107">
+        <v>10</v>
+      </c>
+      <c r="E7" s="108">
+        <v>1660000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="109"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="109"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7479,138 +8528,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="102" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="109" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="102" t="s">
+      <c r="M3" s="124"/>
+      <c r="N3" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="102" t="s">
+      <c r="O3" s="120"/>
+      <c r="P3" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="102" t="s">
+      <c r="Q3" s="120"/>
+      <c r="R3" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="103"/>
-      <c r="T3" s="102" t="s">
+      <c r="S3" s="120"/>
+      <c r="T3" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="103"/>
+      <c r="U3" s="120"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="105"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="104"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="122"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -8155,7 +9204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
@@ -8192,386 +9241,386 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="113"/>
-      <c r="J3" s="119" t="s">
+      <c r="I3" s="130"/>
+      <c r="J3" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="113"/>
-      <c r="M3" s="119" t="s">
+      <c r="L3" s="130"/>
+      <c r="M3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="111" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="111" t="s">
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="119" t="s">
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="111" t="s">
+      <c r="AF3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="111" t="s">
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="112"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="119" t="s">
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="119" t="s">
+      <c r="AX3" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="123" t="s">
+      <c r="AY3" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="119" t="s">
+      <c r="AZ3" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="119" t="s">
+      <c r="BA3" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="119" t="s">
+      <c r="BB3" s="136" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="115"/>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="141"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="140"/>
+      <c r="AZ4" s="141"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="119" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="119" t="s">
+      <c r="N5" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="119" t="s">
+      <c r="Q5" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="111" t="s">
+      <c r="S5" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="113"/>
-      <c r="U5" s="119" t="s">
+      <c r="T5" s="130"/>
+      <c r="U5" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="119" t="s">
+      <c r="V5" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="119" t="s">
+      <c r="W5" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="119" t="s">
+      <c r="X5" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="119" t="s">
+      <c r="Y5" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="119" t="s">
+      <c r="Z5" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="119" t="s">
+      <c r="AA5" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="119" t="s">
+      <c r="AB5" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="111" t="s">
+      <c r="AC5" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="119" t="s">
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="119" t="s">
+      <c r="AG5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="119" t="s">
+      <c r="AH5" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="120" t="s">
+      <c r="AI5" s="137" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="119" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="119" t="s">
+      <c r="AK5" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="119" t="s">
+      <c r="AL5" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="119" t="s">
+      <c r="AM5" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="119" t="s">
+      <c r="AN5" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="111" t="s">
+      <c r="AO5" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="111" t="s">
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="111" t="s">
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="111" t="s">
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
+      <c r="AV5" s="130"/>
+      <c r="AW5" s="141"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="119"/>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="117"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="117"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="117"/>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="124"/>
-      <c r="AX6" s="119"/>
-      <c r="AY6" s="123"/>
-      <c r="AZ6" s="124"/>
-      <c r="BA6" s="119"/>
-      <c r="BB6" s="119"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="136"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="136"/>
+      <c r="AG6" s="136"/>
+      <c r="AH6" s="136"/>
+      <c r="AI6" s="138"/>
+      <c r="AJ6" s="136"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="136"/>
+      <c r="AM6" s="136"/>
+      <c r="AN6" s="136"/>
+      <c r="AO6" s="134"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="134"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="134"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="134"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="141"/>
+      <c r="AX6" s="136"/>
+      <c r="AY6" s="140"/>
+      <c r="AZ6" s="141"/>
+      <c r="BA6" s="136"/>
+      <c r="BB6" s="136"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="116"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="124"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="124"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="136"/>
+      <c r="AM7" s="136"/>
+      <c r="AN7" s="136"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="133"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="133"/>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="133"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="133"/>
+      <c r="AW7" s="141"/>
+      <c r="AX7" s="136"/>
+      <c r="AY7" s="140"/>
+      <c r="AZ7" s="141"/>
+      <c r="BA7" s="136"/>
+      <c r="BB7" s="136"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -9274,19 +10323,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -9543,121 +10592,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="125" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="125" t="s">
+      <c r="J2" s="145"/>
+      <c r="K2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="125" t="s">
+      <c r="L2" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="M2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125" t="s">
+      <c r="N2" s="143"/>
+      <c r="O2" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125" t="s">
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="125" t="s">
+      <c r="U2" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="127" t="s">
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="127" t="s">
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="125" t="s">
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="125" t="s">
+      <c r="AC2" s="143" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -9679,7 +10728,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="125"/>
+      <c r="T3" s="143"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -9689,12 +10738,12 @@
       <c r="W3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -9946,8 +10995,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y3"/>
     <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
@@ -9965,6 +11012,8 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -9989,19 +11038,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -10162,78 +11211,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="150" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="139" t="s">
+      <c r="F4" s="157"/>
+      <c r="G4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="139" t="s">
+      <c r="H4" s="158"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="141"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="135" t="s">
+      <c r="K4" s="158"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="136"/>
+      <c r="N4" s="153"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="134"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="134"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -10243,19 +11292,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="140"/>
+      <c r="I5" s="157"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="138"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="155"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -10386,14 +11435,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="132"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -10446,61 +11495,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="153" t="s">
+      <c r="B2" s="165"/>
+      <c r="C2" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -10552,13 +11601,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="154" t="s">
+      <c r="T3" s="171" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -10610,10 +11659,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="154"/>
+      <c r="T4" s="171"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="155">
+      <c r="A5" s="172">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -10639,7 +11688,7 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="145"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="22" t="s">
         <v>128</v>
       </c>
@@ -10663,7 +11712,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="146"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="23" t="s">
         <v>127</v>
       </c>
@@ -10687,7 +11736,7 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="144">
+      <c r="A8" s="161">
         <v>241001</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -10713,7 +11762,7 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A9" s="145"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="22" t="s">
         <v>128</v>
       </c>
@@ -10737,7 +11786,7 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="24" t="s">
         <v>127</v>
       </c>
@@ -10761,7 +11810,7 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A11" s="144">
+      <c r="A11" s="161">
         <v>241031</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -10787,7 +11836,7 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="145"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="22" t="s">
         <v>128</v>
       </c>
@@ -10811,7 +11860,7 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="146"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="23" t="s">
         <v>127</v>
       </c>
@@ -10835,7 +11884,7 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A14" s="144">
+      <c r="A14" s="161">
         <v>241062</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -10861,7 +11910,7 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="145"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="22" t="s">
         <v>128</v>
       </c>
@@ -10885,7 +11934,7 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="146"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="24" t="s">
         <v>127</v>
       </c>
@@ -10909,7 +11958,7 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A17" s="144">
+      <c r="A17" s="161">
         <v>241093</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -10935,7 +11984,7 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A18" s="145"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="22" t="s">
         <v>128</v>
       </c>
@@ -10959,7 +12008,7 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="146"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="23" t="s">
         <v>127</v>
       </c>
@@ -10983,7 +12032,7 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A20" s="144">
+      <c r="A20" s="161">
         <v>241122</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -11009,7 +12058,7 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A21" s="145"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="22" t="s">
         <v>128</v>
       </c>
@@ -11033,7 +12082,7 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="146"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="24" t="s">
         <v>127</v>
       </c>
@@ -11057,7 +12106,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A23" s="144">
+      <c r="A23" s="161">
         <v>241153</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -11083,7 +12132,7 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A24" s="145"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="22" t="s">
         <v>128</v>
       </c>
@@ -11107,7 +12156,7 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="146"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="23" t="s">
         <v>127</v>
       </c>
@@ -11131,7 +12180,7 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A26" s="144">
+      <c r="A26" s="161">
         <v>241183</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -11157,7 +12206,7 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A27" s="145"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="22" t="s">
         <v>128</v>
       </c>
@@ -11181,7 +12230,7 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A28" s="146"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="23" t="s">
         <v>127</v>
       </c>
@@ -11205,7 +12254,7 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A29" s="144">
+      <c r="A29" s="161">
         <v>241214</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -11231,7 +12280,7 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A30" s="145"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="22" t="s">
         <v>128</v>
       </c>
@@ -11255,7 +12304,7 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="146"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="23" t="s">
         <v>127</v>
       </c>
@@ -11279,7 +12328,7 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A32" s="144">
+      <c r="A32" s="161">
         <v>241244</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -11305,7 +12354,7 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A33" s="145"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="22" t="s">
         <v>128</v>
       </c>
@@ -11329,7 +12378,7 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A34" s="146"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="24" t="s">
         <v>127</v>
       </c>
@@ -11353,7 +12402,7 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A35" s="144">
+      <c r="A35" s="161">
         <v>241275</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -11379,7 +12428,7 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A36" s="145"/>
+      <c r="A36" s="162"/>
       <c r="B36" s="22" t="s">
         <v>128</v>
       </c>
@@ -11403,7 +12452,7 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A37" s="146"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="23" t="s">
         <v>127</v>
       </c>
@@ -11427,7 +12476,7 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A38" s="144">
+      <c r="A38" s="161">
         <v>241306</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -11453,7 +12502,7 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A39" s="145"/>
+      <c r="A39" s="162"/>
       <c r="B39" s="22" t="s">
         <v>128</v>
       </c>
@@ -11477,7 +12526,7 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A40" s="145"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="24" t="s">
         <v>127</v>
       </c>
@@ -11501,10 +12550,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="153" t="s">
+      <c r="A41" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="153"/>
+      <c r="B41" s="170"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>

--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="17" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="25" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -37,10 +37,12 @@
     <sheet name="ERPR018" sheetId="28" r:id="rId23"/>
     <sheet name="ERPR019" sheetId="29" r:id="rId24"/>
     <sheet name="ERPR020" sheetId="30" r:id="rId25"/>
-    <sheet name="ERPR021" sheetId="32" r:id="rId26"/>
-    <sheet name="ERPR022" sheetId="33" r:id="rId27"/>
-    <sheet name="ERPR023" sheetId="35" r:id="rId28"/>
-    <sheet name="ERPR024" sheetId="37" r:id="rId29"/>
+    <sheet name="ERPR021 (2)" sheetId="38" r:id="rId26"/>
+    <sheet name="ERPR021" sheetId="32" r:id="rId27"/>
+    <sheet name="ERPR022" sheetId="33" r:id="rId28"/>
+    <sheet name="ERPR023" sheetId="35" r:id="rId29"/>
+    <sheet name="ERPR024" sheetId="37" r:id="rId30"/>
+    <sheet name="ERPR025" sheetId="39" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ERPR001!$1:$4</definedName>
@@ -114,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="422">
   <si>
     <t>ที่</t>
   </si>
@@ -1856,9 +1858,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>รายงานผู้เบิกเงินสวัสดิการ</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ตั้งแต่วันที่ </t>
     </r>
@@ -1900,9 +1899,6 @@
     <t>ประเภทการเบิก</t>
   </si>
   <si>
-    <t>เลขที่ฎีกาคลัง</t>
-  </si>
-  <si>
     <t>AAAA AAAAA</t>
   </si>
   <si>
@@ -1921,9 +1917,6 @@
     <t>YYYY YYYYY</t>
   </si>
   <si>
-    <t>102/60</t>
-  </si>
-  <si>
     <t>PPPP PPP</t>
   </si>
   <si>
@@ -1946,9 +1939,6 @@
   </si>
   <si>
     <t>รายละเอียด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฎีกาคลัง </t>
   </si>
   <si>
     <t>AAAA RRR</t>
@@ -2009,6 +1999,121 @@
   <si>
     <t>xx/xx/xx</t>
   </si>
+  <si>
+    <t>เลขที่ GFMIS</t>
+  </si>
+  <si>
+    <t>ความสัมพันธ์</t>
+  </si>
+  <si>
+    <t>ตนเอง</t>
+  </si>
+  <si>
+    <t>บิดา</t>
+  </si>
+  <si>
+    <t>บุคคลที่1</t>
+  </si>
+  <si>
+    <t>มารดา</t>
+  </si>
+  <si>
+    <t>GGGG VVVV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รายงานผู้เบิกเงินสวัสดิการ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>เบิกเงินรักษาพยาบาล</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รายงานผู้เบิกเงินสวัสดิการ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>เบิกเงินค่าเล่าเรียน</t>
+    </r>
+  </si>
+  <si>
+    <t>ชั้น</t>
+  </si>
+  <si>
+    <t>ปีการศึกษา</t>
+  </si>
+  <si>
+    <t>อนุบาล</t>
+  </si>
+  <si>
+    <t>1/2560</t>
+  </si>
+  <si>
+    <t>GFIMS</t>
+  </si>
+  <si>
+    <t>DDDD RRRR</t>
+  </si>
+  <si>
+    <t>รวมเงินจำนวนเงิน (บาท)</t>
+  </si>
+  <si>
+    <t>งบประมาณ 2560</t>
+  </si>
+  <si>
+    <t>ผู้มีสิทธิ</t>
+  </si>
+  <si>
+    <t>ครั้ง</t>
+  </si>
+  <si>
+    <t>จำนวนเงินทั้งหมด</t>
+  </si>
+  <si>
+    <t>GFMIS</t>
+  </si>
+  <si>
+    <t>aaaa rrr</t>
+  </si>
+  <si>
+    <t>GIMIS</t>
+  </si>
+  <si>
+    <t>ประเภท</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยใน</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยนอก</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สรุปการเบิกค่ารักษา </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ต้นเอง หรือ ทั้งครอบครัว</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2017,7 +2122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-101041E]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2174,6 +2279,18 @@
       <sz val="14"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2428,7 +2545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2700,6 +2817,24 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2745,33 +2880,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2781,30 +2922,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2841,18 +2976,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2871,9 +3009,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2913,6 +3048,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2931,36 +3096,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2970,18 +3105,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3024,8 +3159,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3483,34 +3715,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -3535,18 +3767,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="173" t="s">
+      <c r="E4" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="174"/>
-      <c r="G4" s="173" t="s">
+      <c r="F4" s="180"/>
+      <c r="G4" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="175" t="s">
+      <c r="H4" s="180"/>
+      <c r="I4" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="175"/>
+      <c r="J4" s="181"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -3854,11 +4086,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="182" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -3920,46 +4152,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -3974,10 +4206,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="116"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -4238,11 +4470,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="157"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -4287,47 +4519,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="186" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -4337,18 +4569,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="115" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="115" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="116"/>
+      <c r="H4" s="122"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -4459,10 +4691,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="175"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -4513,12 +4745,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -4537,10 +4769,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="187" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="187"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -4559,10 +4791,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="181"/>
+      <c r="C10" s="187"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -4647,18 +4879,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -4667,48 +4899,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="165"/>
+      <c r="H4" s="172"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="123" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="169"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="176"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="118"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -4809,56 +5041,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="120" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="123" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="118"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="124"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -4952,177 +5184,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="197" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="195" t="s">
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="195" t="s">
+      <c r="K4" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="152" t="s">
+      <c r="L4" s="158" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="152" t="s">
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="175" t="s">
+      <c r="Q4" s="159"/>
+      <c r="R4" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="175"/>
+      <c r="S4" s="181"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159" t="s">
+      <c r="A5" s="165"/>
+      <c r="B5" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="159" t="s">
+      <c r="H5" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="159"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="159" t="s">
+      <c r="I5" s="165"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="159" t="s">
+      <c r="S5" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="159" t="s">
+      <c r="T5" s="165" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="156" t="s">
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="157"/>
-      <c r="N6" s="156" t="s">
+      <c r="M6" s="163"/>
+      <c r="N6" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="157"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="188">
+      <c r="A7" s="204">
         <v>1</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188" t="s">
+      <c r="B7" s="204"/>
+      <c r="C7" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="184" t="s">
+      <c r="D7" s="204"/>
+      <c r="E7" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -5138,15 +5370,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="189"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -5254,11 +5486,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P4:Q6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -5275,15 +5511,11 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L4:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -5311,46 +5543,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -5510,46 +5742,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202" t="s">
+      <c r="C4" s="208"/>
+      <c r="D4" s="208" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202" t="s">
+      <c r="E4" s="208"/>
+      <c r="F4" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="202"/>
-      <c r="H4" s="200" t="s">
+      <c r="G4" s="208"/>
+      <c r="H4" s="206" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="200" t="s">
+      <c r="I4" s="206" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="201" t="s">
+      <c r="C5" s="208"/>
+      <c r="D5" s="207" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201" t="s">
+      <c r="E5" s="207"/>
+      <c r="F5" s="207" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="201"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="200"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -5568,8 +5800,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -5593,8 +5825,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="206"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -5800,19 +6032,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175" t="s">
+      <c r="C4" s="181"/>
+      <c r="D4" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175" t="s">
+      <c r="E4" s="181"/>
+      <c r="F4" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="H4" s="150" t="s">
+      <c r="G4" s="181"/>
+      <c r="H4" s="156" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5838,7 +6070,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="151"/>
+      <c r="H5" s="157"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -6019,81 +6251,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="121" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="122" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="114"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="115"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="116"/>
+      <c r="J4" s="122"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -6485,18 +6717,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175" t="s">
+      <c r="C4" s="181"/>
+      <c r="D4" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175" t="s">
+      <c r="E4" s="181"/>
+      <c r="F4" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="175"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -6505,36 +6737,36 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206" t="s">
+      <c r="E5" s="209"/>
+      <c r="F5" s="209" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="206"/>
+      <c r="G5" s="209"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="205">
+      <c r="B6" s="210">
         <v>0</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205">
+      <c r="C6" s="210"/>
+      <c r="D6" s="210">
         <v>0</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205">
+      <c r="E6" s="210"/>
+      <c r="F6" s="210">
         <v>0</v>
       </c>
-      <c r="G6" s="205"/>
+      <c r="G6" s="210"/>
       <c r="H6" s="89">
         <v>0</v>
       </c>
@@ -6543,18 +6775,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204" t="s">
+      <c r="C7" s="211"/>
+      <c r="D7" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="204"/>
+      <c r="G7" s="211"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -6563,18 +6795,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="211" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204" t="s">
+      <c r="C8" s="211"/>
+      <c r="D8" s="211" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="204"/>
+      <c r="G8" s="211"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -6583,18 +6815,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="211" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204" t="s">
+      <c r="C9" s="211"/>
+      <c r="D9" s="211" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204" t="s">
+      <c r="E9" s="211"/>
+      <c r="F9" s="211" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="204"/>
+      <c r="G9" s="211"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -6690,18 +6922,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="203" t="s">
+      <c r="B14" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203" t="s">
+      <c r="C14" s="212"/>
+      <c r="D14" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203" t="s">
+      <c r="E14" s="212"/>
+      <c r="F14" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="203"/>
+      <c r="G14" s="212"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -6710,54 +6942,36 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203" t="s">
+      <c r="C16" s="212"/>
+      <c r="D16" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203" t="s">
+      <c r="E16" s="212"/>
+      <c r="F16" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="203"/>
+      <c r="G16" s="212"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -6767,6 +6981,24 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -6793,19 +7025,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -6941,10 +7173,10 @@
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="214" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="208"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
@@ -6997,20 +7229,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -7071,10 +7303,10 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="212">
+      <c r="A4" s="218">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="215">
         <v>9931</v>
       </c>
       <c r="C4" s="98" t="s">
@@ -7097,8 +7329,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="213"/>
-      <c r="B5" s="210"/>
+      <c r="A5" s="219"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
@@ -7117,8 +7349,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="214"/>
-      <c r="B6" s="211"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="217"/>
       <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
@@ -7135,11 +7367,11 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="214" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
       <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -7187,63 +7419,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="165" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="165" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="159"/>
-      <c r="F3" s="215" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="221" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="165" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="165" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -7259,11 +7491,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="181" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -7275,16 +7507,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="181" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="203" t="s">
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="212" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7332,40 +7564,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="169" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170" t="s">
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="170"/>
+      <c r="J3" s="169"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -7495,52 +7727,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="120" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="120" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -7556,16 +7788,16 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="114"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="216">
+      <c r="A5" s="222">
         <v>1</v>
       </c>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="216">
+      <c r="C5" s="222">
         <v>9931</v>
       </c>
       <c r="D5" s="104" t="s">
@@ -7576,12 +7808,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="218"/>
+      <c r="J5" s="224"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="217"/>
-      <c r="B6" s="217"/>
-      <c r="C6" s="217"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
@@ -7590,7 +7822,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="219"/>
+      <c r="J6" s="225"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -7640,213 +7872,254 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="220" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="226" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="226" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="220" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+    </row>
+    <row r="3" spans="1:13" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="117" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-    </row>
-    <row r="3" spans="1:7" ht="5.0999999999999996" customHeight="1"/>
-    <row r="4" spans="1:7">
-      <c r="A4" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="101" t="s">
+      <c r="C4" s="117" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="D4" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="117" t="s">
         <v>364</v>
       </c>
-      <c r="D4" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="101" t="s">
+      <c r="G4" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="117" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="117" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="101" t="s">
-        <v>366</v>
-      </c>
-      <c r="G4" s="101" t="s">
+      <c r="K4" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="117" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="96">
-        <v>1</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="111">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>370</v>
-      </c>
-      <c r="G5" s="112">
-        <v>241337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="96">
+    <row r="5" spans="1:13">
+      <c r="A5" s="236">
+        <v>3</v>
+      </c>
+      <c r="B5" s="237" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="237" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="237"/>
+      <c r="E5" s="236" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="241" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="241" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" s="241">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="111">
-        <v>2500</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" s="112">
-        <v>241337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="96">
-        <v>3</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" s="111">
+      <c r="I5" s="244" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" s="238">
         <v>30000</v>
       </c>
-      <c r="F7" s="98" t="s">
-        <v>370</v>
-      </c>
-      <c r="G7" s="112">
+      <c r="K5" s="238">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="239"/>
+      <c r="M5" s="240">
         <v>241338</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="6" spans="1:13">
+      <c r="A6" s="96"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="96"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="96"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="96"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="96"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="96"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="96"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="96"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="96"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="96"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="96"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="96"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="96"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="96"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="96"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="96"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="96"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="96"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="96"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="96"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="96"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="111">
+        <f>SUM(J5:J11)</f>
+        <v>30000</v>
+      </c>
+      <c r="K12" s="111">
+        <f>SUM(K5:K11)</f>
+        <v>30000</v>
+      </c>
+      <c r="L12" s="98"/>
+      <c r="M12" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7855,422 +8128,560 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="226" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="226" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+    </row>
+    <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="227">
+        <v>1</v>
+      </c>
+      <c r="B5" s="228" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="242"/>
+      <c r="D5" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="111">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="229">
+        <f>SUM(H5:H6)</f>
+        <v>10000</v>
+      </c>
+      <c r="J5" s="234"/>
+      <c r="K5" s="112">
+        <v>241337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="227"/>
+      <c r="B6" s="228"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" s="111">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="230"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="112">
+        <v>241337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="236">
+        <v>2</v>
+      </c>
+      <c r="B7" s="237" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="236" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="237" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="238">
+        <v>2500</v>
+      </c>
+      <c r="I7" s="238">
+        <v>2500</v>
+      </c>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240">
+        <v>241337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="96"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="96"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="96"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="96"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="96"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="96"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="96"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="96"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="96"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="96"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="96"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="96"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="231" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="111">
+        <f>SUM(H5:H13)</f>
+        <v>12500</v>
+      </c>
+      <c r="I14" s="111">
+        <f>SUM(I5:I13)</f>
+        <v>12500</v>
+      </c>
+      <c r="J14" s="98"/>
+      <c r="K14" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
     <col min="1" max="2" width="11.85546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="22" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="179" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="179" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-    </row>
-    <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1"/>
-    <row r="4" spans="1:6">
+    <row r="1" spans="1:9">
+      <c r="A1" s="185" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+    </row>
+    <row r="3" spans="1:9" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:9">
       <c r="A4" s="105" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="105" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="251">
+        <v>241062</v>
+      </c>
+      <c r="B5" s="247" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="247" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="255"/>
+      <c r="E5" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="118"/>
+      <c r="H5" s="115">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="257">
+        <f>SUM(H5:H6)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="252"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="118" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="115">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="258"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="60">
+        <v>241063</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>380</v>
-      </c>
-      <c r="E4" s="105" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="108">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="60">
+        <v>241064</v>
+      </c>
+      <c r="B8" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="105" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="60">
-        <v>241062</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="221" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="221" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="221" t="s">
+      <c r="C8" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="118" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="108">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="60">
-        <v>241063</v>
-      </c>
-      <c r="B6" s="107" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="221" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="221" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="221" t="s">
-        <v>322</v>
-      </c>
-      <c r="F6" s="108">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="60">
-        <v>241064</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="221" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="221" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="221" t="s">
-        <v>322</v>
-      </c>
-      <c r="F7" s="108">
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="108">
         <v>5002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="107"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="108"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="108"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="107"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="108"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="107"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="108"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="108"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="107"/>
       <c r="B12" s="107"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="108"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="107"/>
       <c r="B13" s="107"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="108"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="107"/>
       <c r="B14" s="107"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="107"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="107"/>
       <c r="B16" s="107"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
-  <cols>
-    <col min="1" max="2" width="11.85546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="22" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="106" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="179" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="179" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-    </row>
-    <row r="3" spans="1:7" ht="5.0999999999999996" customHeight="1"/>
-    <row r="4" spans="1:7">
-      <c r="A4" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>380</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>392</v>
-      </c>
-      <c r="F4" s="105" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="105" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="60">
-        <v>241062</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="221" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="221" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="107">
-        <v>1</v>
-      </c>
-      <c r="F5" s="221" t="s">
-        <v>394</v>
-      </c>
-      <c r="G5" s="108">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="60">
-        <v>241063</v>
-      </c>
-      <c r="B6" s="107" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="221" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="221" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="107">
-        <v>1</v>
-      </c>
-      <c r="F6" s="221" t="s">
-        <v>394</v>
-      </c>
-      <c r="G6" s="108">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="60">
-        <v>241064</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="221" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="221" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="107">
-        <v>3</v>
-      </c>
-      <c r="F7" s="221" t="s">
-        <v>394</v>
-      </c>
-      <c r="G7" s="108">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="108"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="108"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="108"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="108"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="108"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="108"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="54"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8279,222 +8690,310 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="106" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" style="114" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="5.0999999999999996" customHeight="1"/>
-    <row r="4" spans="1:5">
+    <row r="1" spans="1:11">
+      <c r="A1" s="185" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+    </row>
+    <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:11">
       <c r="A4" s="105" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="249">
+        <v>241062</v>
+      </c>
+      <c r="B5" s="245" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="245" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="245"/>
+      <c r="E5" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="107">
+        <v>1</v>
+      </c>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="J5" s="108">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="260">
+        <f>SUM(J5:J6)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="250"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="118" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" s="116">
+        <v>2</v>
+      </c>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="115">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="259"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="60">
+        <v>241063</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="107" t="s">
-        <v>398</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="107">
-        <v>2</v>
-      </c>
-      <c r="E5" s="108">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="107" t="s">
-        <v>398</v>
-      </c>
-      <c r="B6" s="107" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="107">
-        <v>5</v>
-      </c>
-      <c r="E6" s="108">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="107" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="107">
-        <v>10</v>
-      </c>
-      <c r="E7" s="108">
-        <v>1660000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D7" s="118"/>
+      <c r="E7" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="107">
+        <v>1</v>
+      </c>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="108">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="60">
+        <v>241064</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="107">
+        <v>3</v>
+      </c>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="J8" s="108">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="107"/>
       <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="108"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="107"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="108"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="107"/>
       <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="107"/>
       <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="107"/>
       <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="107"/>
       <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="107"/>
       <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="107"/>
       <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="109"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="107"/>
       <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="110"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="110"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="54"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="7">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8528,138 +9027,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="129" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="133" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="119" t="s">
+      <c r="I3" s="131"/>
+      <c r="J3" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="126" t="s">
+      <c r="K3" s="126"/>
+      <c r="L3" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="119" t="s">
+      <c r="M3" s="130"/>
+      <c r="N3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="119" t="s">
+      <c r="O3" s="126"/>
+      <c r="P3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="119" t="s">
+      <c r="Q3" s="126"/>
+      <c r="R3" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="119" t="s">
+      <c r="S3" s="126"/>
+      <c r="T3" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="120"/>
+      <c r="U3" s="126"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="122"/>
+      <c r="K4" s="128"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="122"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="128"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -9197,6 +9696,358 @@
     <oddFooter xml:space="preserve">&amp;RERPR002 
 &amp;P/&amp;N </oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="5.0999999999999996" customHeight="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="107">
+        <v>2</v>
+      </c>
+      <c r="E5" s="108">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="107">
+        <v>5</v>
+      </c>
+      <c r="E6" s="108">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="107">
+        <v>10</v>
+      </c>
+      <c r="E7" s="108">
+        <v>1660000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="109"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="109"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="254" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="254" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="254" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="254" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="253">
+        <v>1</v>
+      </c>
+      <c r="B4" s="253" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253">
+        <v>3</v>
+      </c>
+      <c r="E4" s="253">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="253"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="253"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="253"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="253"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="253"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="253"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="253"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="253"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="253"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="253"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="253"/>
+      <c r="B14" s="253"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9241,386 +10092,386 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="136" t="s">
+      <c r="I3" s="138"/>
+      <c r="J3" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="136" t="s">
+      <c r="L3" s="138"/>
+      <c r="M3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="128" t="s">
+      <c r="N3" s="135"/>
+      <c r="O3" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="128" t="s">
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="136" t="s">
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="128" t="s">
+      <c r="AF3" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129"/>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="128" t="s">
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="136" t="s">
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="138"/>
+      <c r="AW3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="136" t="s">
+      <c r="AX3" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="140" t="s">
+      <c r="AY3" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="136" t="s">
+      <c r="AZ3" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="136" t="s">
+      <c r="BA3" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="136" t="s">
+      <c r="BB3" s="135" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="140"/>
-      <c r="AZ4" s="141"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="144"/>
+      <c r="AU4" s="144"/>
+      <c r="AV4" s="142"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="135"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="135"/>
+      <c r="BB4" s="135"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="136" t="s">
+      <c r="N5" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="136" t="s">
+      <c r="O5" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="136" t="s">
+      <c r="P5" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="136" t="s">
+      <c r="Q5" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="136" t="s">
+      <c r="R5" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="128" t="s">
+      <c r="S5" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="136" t="s">
+      <c r="T5" s="138"/>
+      <c r="U5" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="136" t="s">
+      <c r="V5" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="136" t="s">
+      <c r="W5" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="136" t="s">
+      <c r="X5" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="136" t="s">
+      <c r="Y5" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="136" t="s">
+      <c r="Z5" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="136" t="s">
+      <c r="AA5" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="136" t="s">
+      <c r="AB5" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="128" t="s">
+      <c r="AC5" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="136" t="s">
+      <c r="AD5" s="138"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="136" t="s">
+      <c r="AG5" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="136" t="s">
+      <c r="AH5" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="137" t="s">
+      <c r="AI5" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="136" t="s">
+      <c r="AJ5" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="136" t="s">
+      <c r="AK5" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="136" t="s">
+      <c r="AL5" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="136" t="s">
+      <c r="AM5" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="136" t="s">
+      <c r="AN5" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="128" t="s">
+      <c r="AO5" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="128" t="s">
+      <c r="AP5" s="138"/>
+      <c r="AQ5" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="128" t="s">
+      <c r="AR5" s="138"/>
+      <c r="AS5" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="128" t="s">
+      <c r="AT5" s="138"/>
+      <c r="AU5" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="130"/>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
+      <c r="AV5" s="138"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="135"/>
+      <c r="BB5" s="135"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="136"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="136"/>
-      <c r="AG6" s="136"/>
-      <c r="AH6" s="136"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="136"/>
-      <c r="AK6" s="136"/>
-      <c r="AL6" s="136"/>
-      <c r="AM6" s="136"/>
-      <c r="AN6" s="136"/>
-      <c r="AO6" s="134"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="134"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="134"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="136"/>
-      <c r="AY6" s="140"/>
-      <c r="AZ6" s="141"/>
-      <c r="BA6" s="136"/>
-      <c r="BB6" s="136"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="139"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="139"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="139"/>
+      <c r="AR6" s="140"/>
+      <c r="AS6" s="139"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="139"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="136"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="134"/>
+      <c r="AZ6" s="136"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="141"/>
-      <c r="AF7" s="136"/>
-      <c r="AG7" s="136"/>
-      <c r="AH7" s="136"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="136"/>
-      <c r="AK7" s="136"/>
-      <c r="AL7" s="136"/>
-      <c r="AM7" s="136"/>
-      <c r="AN7" s="136"/>
-      <c r="AO7" s="131"/>
-      <c r="AP7" s="133"/>
-      <c r="AQ7" s="131"/>
-      <c r="AR7" s="133"/>
-      <c r="AS7" s="131"/>
-      <c r="AT7" s="133"/>
-      <c r="AU7" s="131"/>
-      <c r="AV7" s="133"/>
-      <c r="AW7" s="141"/>
-      <c r="AX7" s="136"/>
-      <c r="AY7" s="140"/>
-      <c r="AZ7" s="141"/>
-      <c r="BA7" s="136"/>
-      <c r="BB7" s="136"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="135"/>
+      <c r="AG7" s="135"/>
+      <c r="AH7" s="135"/>
+      <c r="AI7" s="147"/>
+      <c r="AJ7" s="135"/>
+      <c r="AK7" s="135"/>
+      <c r="AL7" s="135"/>
+      <c r="AM7" s="135"/>
+      <c r="AN7" s="135"/>
+      <c r="AO7" s="141"/>
+      <c r="AP7" s="142"/>
+      <c r="AQ7" s="141"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="141"/>
+      <c r="AT7" s="142"/>
+      <c r="AU7" s="141"/>
+      <c r="AV7" s="142"/>
+      <c r="AW7" s="136"/>
+      <c r="AX7" s="135"/>
+      <c r="AY7" s="134"/>
+      <c r="AZ7" s="136"/>
+      <c r="BA7" s="135"/>
+      <c r="BB7" s="135"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -10248,6 +11099,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="AF3:AR4"/>
+    <mergeCell ref="AQ5:AR7"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="AS5:AT7"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AP7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="K3:L7"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="U3:AD4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AD7"/>
     <mergeCell ref="AY3:AY7"/>
     <mergeCell ref="AZ3:AZ7"/>
     <mergeCell ref="BA3:BA7"/>
@@ -10264,41 +11150,6 @@
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="H3:I7"/>
-    <mergeCell ref="K3:L7"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="U3:AD4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AD7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="AF3:AR4"/>
-    <mergeCell ref="AQ5:AR7"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="AS5:AT7"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AP7"/>
-    <mergeCell ref="AI5:AI7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BC1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -10323,19 +11174,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -10592,121 +11443,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="153"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="143" t="s">
+      <c r="E2" s="149"/>
+      <c r="F2" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="I2" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="143" t="s">
+      <c r="J2" s="149"/>
+      <c r="K2" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="143" t="s">
+      <c r="M2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143" t="s">
+      <c r="N2" s="152"/>
+      <c r="O2" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143" t="s">
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="143" t="s">
+      <c r="U2" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="144" t="s">
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="144" t="s">
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="148" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="143" t="s">
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="143" t="s">
+      <c r="AC2" s="152" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -10728,7 +11579,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="143"/>
+      <c r="T3" s="152"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -10738,12 +11589,12 @@
       <c r="W3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -10995,6 +11846,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y3"/>
     <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
@@ -11011,9 +11865,6 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -11038,19 +11889,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -11211,78 +12062,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="156" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="156" t="s">
+      <c r="F4" s="163"/>
+      <c r="G4" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="156" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="158"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="152" t="s">
+      <c r="K4" s="164"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="153"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="151"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -11292,19 +12143,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="157"/>
+      <c r="I5" s="163"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="156" t="s">
+      <c r="K5" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="155"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="161"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -11435,14 +12286,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -11495,61 +12346,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="170" t="s">
+      <c r="B2" s="172"/>
+      <c r="C2" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -11601,13 +12452,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="171" t="s">
+      <c r="T3" s="177" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -11659,10 +12510,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="171"/>
+      <c r="T4" s="177"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="172">
+      <c r="A5" s="178">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -11688,7 +12539,7 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="162"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="22" t="s">
         <v>128</v>
       </c>
@@ -11712,7 +12563,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="23" t="s">
         <v>127</v>
       </c>
@@ -11736,7 +12587,7 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="161">
+      <c r="A8" s="166">
         <v>241001</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -11762,7 +12613,7 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A9" s="162"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="22" t="s">
         <v>128</v>
       </c>
@@ -11786,7 +12637,7 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A10" s="163"/>
+      <c r="A10" s="168"/>
       <c r="B10" s="24" t="s">
         <v>127</v>
       </c>
@@ -11810,7 +12661,7 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A11" s="161">
+      <c r="A11" s="166">
         <v>241031</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -11836,7 +12687,7 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="162"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="22" t="s">
         <v>128</v>
       </c>
@@ -11860,7 +12711,7 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="163"/>
+      <c r="A13" s="168"/>
       <c r="B13" s="23" t="s">
         <v>127</v>
       </c>
@@ -11884,7 +12735,7 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A14" s="161">
+      <c r="A14" s="166">
         <v>241062</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -11910,7 +12761,7 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="162"/>
+      <c r="A15" s="167"/>
       <c r="B15" s="22" t="s">
         <v>128</v>
       </c>
@@ -11934,7 +12785,7 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="163"/>
+      <c r="A16" s="168"/>
       <c r="B16" s="24" t="s">
         <v>127</v>
       </c>
@@ -11958,7 +12809,7 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A17" s="161">
+      <c r="A17" s="166">
         <v>241093</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -11984,7 +12835,7 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A18" s="162"/>
+      <c r="A18" s="167"/>
       <c r="B18" s="22" t="s">
         <v>128</v>
       </c>
@@ -12008,7 +12859,7 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="163"/>
+      <c r="A19" s="168"/>
       <c r="B19" s="23" t="s">
         <v>127</v>
       </c>
@@ -12032,7 +12883,7 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A20" s="161">
+      <c r="A20" s="166">
         <v>241122</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -12058,7 +12909,7 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A21" s="162"/>
+      <c r="A21" s="167"/>
       <c r="B21" s="22" t="s">
         <v>128</v>
       </c>
@@ -12082,7 +12933,7 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="163"/>
+      <c r="A22" s="168"/>
       <c r="B22" s="24" t="s">
         <v>127</v>
       </c>
@@ -12106,7 +12957,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A23" s="161">
+      <c r="A23" s="166">
         <v>241153</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -12132,7 +12983,7 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A24" s="162"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="22" t="s">
         <v>128</v>
       </c>
@@ -12156,7 +13007,7 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="163"/>
+      <c r="A25" s="168"/>
       <c r="B25" s="23" t="s">
         <v>127</v>
       </c>
@@ -12180,7 +13031,7 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A26" s="161">
+      <c r="A26" s="166">
         <v>241183</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -12206,7 +13057,7 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="167"/>
       <c r="B27" s="22" t="s">
         <v>128</v>
       </c>
@@ -12230,7 +13081,7 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A28" s="163"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="23" t="s">
         <v>127</v>
       </c>
@@ -12254,7 +13105,7 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A29" s="161">
+      <c r="A29" s="166">
         <v>241214</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -12280,7 +13131,7 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A30" s="162"/>
+      <c r="A30" s="167"/>
       <c r="B30" s="22" t="s">
         <v>128</v>
       </c>
@@ -12304,7 +13155,7 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="163"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="23" t="s">
         <v>127</v>
       </c>
@@ -12328,7 +13179,7 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A32" s="161">
+      <c r="A32" s="166">
         <v>241244</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -12354,7 +13205,7 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A33" s="162"/>
+      <c r="A33" s="167"/>
       <c r="B33" s="22" t="s">
         <v>128</v>
       </c>
@@ -12378,7 +13229,7 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A34" s="163"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="24" t="s">
         <v>127</v>
       </c>
@@ -12402,7 +13253,7 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A35" s="161">
+      <c r="A35" s="166">
         <v>241275</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -12428,7 +13279,7 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A36" s="162"/>
+      <c r="A36" s="167"/>
       <c r="B36" s="22" t="s">
         <v>128</v>
       </c>
@@ -12452,7 +13303,7 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A37" s="163"/>
+      <c r="A37" s="168"/>
       <c r="B37" s="23" t="s">
         <v>127</v>
       </c>
@@ -12476,7 +13327,7 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A38" s="161">
+      <c r="A38" s="166">
         <v>241306</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -12502,7 +13353,7 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A39" s="162"/>
+      <c r="A39" s="167"/>
       <c r="B39" s="22" t="s">
         <v>128</v>
       </c>
@@ -12526,7 +13377,7 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A40" s="162"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="24" t="s">
         <v>127</v>
       </c>
@@ -12550,10 +13401,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="170" t="s">
+      <c r="A41" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="170"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -12575,6 +13426,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -12585,13 +13443,6 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U1" location="Sheet1!A1" display="Sheet1!A1"/>

--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="25" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <sheet name="ERPR023" sheetId="35" r:id="rId29"/>
     <sheet name="ERPR024" sheetId="37" r:id="rId30"/>
     <sheet name="ERPR025" sheetId="39" r:id="rId31"/>
+    <sheet name="ERPR026" sheetId="40" r:id="rId32"/>
+    <sheet name="ERPR027" sheetId="41" r:id="rId33"/>
+    <sheet name="ERPR028" sheetId="42" r:id="rId34"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ERPR001!$1:$4</definedName>
@@ -116,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="481">
   <si>
     <t>ที่</t>
   </si>
@@ -2114,6 +2117,294 @@
       <t>ต้นเอง หรือ ทั้งครอบครัว</t>
     </r>
   </si>
+  <si>
+    <t>ทะเบียนวัสดุสำนักงาน</t>
+  </si>
+  <si>
+    <t>ศุนย์เทคโนโลยีสารสนเทศท้องถิ่น</t>
+  </si>
+  <si>
+    <t>กระดาษ A4</t>
+  </si>
+  <si>
+    <t>วัน เดือน ปี</t>
+  </si>
+  <si>
+    <t>(รับ / เบิก)</t>
+  </si>
+  <si>
+    <t>ราคาต่อหน่วย</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>เบิก</t>
+  </si>
+  <si>
+    <t>บันทีกข้อความ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>เรียน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> หน.ง.บห.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>เรื่อง</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ขอเบิกวัสดุสำนักงาน</t>
+    </r>
+  </si>
+  <si>
+    <t>มีความประสงค์ขอเบิกวัสดุสำนักงาน เพื่อใช้ในราชการ ตามรายการดังต่อไปหนี้</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>ccccccccccccccccc</t>
+  </si>
+  <si>
+    <t>รวมจำนวนทั้งสิ้น</t>
+  </si>
+  <si>
+    <t>ลงชื่อ</t>
+  </si>
+  <si>
+    <t>ผู้จ่าย</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>ผู้รับ</t>
+  </si>
+  <si>
+    <t>คำสัง</t>
+  </si>
+  <si>
+    <t>อนุม้ติให้เบิกได้</t>
+  </si>
+  <si>
+    <t>(                                             )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตำแหน่ง </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ด้วย ข้าพเจ้า </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxx xxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">วันที่ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xx/xx/xxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ที่ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xx xxx/xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ส่วนราชการ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>ศุนย์เทคโนโลยีสารสนเทศท้องถิ่น</t>
+    </r>
+  </si>
+  <si>
+    <t>ทะเบียนควบคุมทรัพย์สิน</t>
+  </si>
+  <si>
+    <t>ศูนย์เทคโนโลยีสารสนเทศท้องถิ่น</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ประจำปีงบประมาณ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>2560</t>
+    </r>
+  </si>
+  <si>
+    <t>ที่ได้มา</t>
+  </si>
+  <si>
+    <t>ใช้ประจำที่</t>
+  </si>
+  <si>
+    <t>สภาพการ</t>
+  </si>
+  <si>
+    <t>ใช้งาน</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ/ชนิด/แบบ</t>
+  </si>
+  <si>
+    <t>/ขนาด/ลักษณะ</t>
+  </si>
+  <si>
+    <t>หมายเลข</t>
+  </si>
+  <si>
+    <t>เครื่อง</t>
+  </si>
+  <si>
+    <t>รหัสครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>วีธีการ</t>
+  </si>
+  <si>
+    <t>ได้มา</t>
+  </si>
+  <si>
+    <t>วัน/เดือน/ปี</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>xx-xx-xxx/xxx-xxx</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>s2333</t>
+  </si>
+  <si>
+    <t>ssssss</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>222q</t>
+  </si>
+  <si>
+    <t>xx/xx/xxxx</t>
+  </si>
+  <si>
+    <t>ดี</t>
+  </si>
+  <si>
+    <t>ชำรุด</t>
+  </si>
+  <si>
+    <t>ชำรถ</t>
+  </si>
+  <si>
+    <t>RRRR</t>
+  </si>
 </sst>
 </file>
 
@@ -2122,7 +2413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-101041E]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2291,6 +2582,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2545,7 +2843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2838,273 +3136,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3117,125 +3154,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3247,16 +3203,398 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3715,34 +4053,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="209" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -3767,18 +4105,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="179" t="s">
+      <c r="E4" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="179" t="s">
+      <c r="F4" s="204"/>
+      <c r="G4" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="180"/>
-      <c r="I4" s="181" t="s">
+      <c r="H4" s="204"/>
+      <c r="I4" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="181"/>
+      <c r="J4" s="205"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4086,11 +4424,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="206" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="208"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -4152,46 +4490,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -4206,10 +4544,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="122"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -4470,11 +4808,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="163"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="187"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -4519,47 +4857,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="210" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -4569,18 +4907,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="146"/>
+      <c r="E4" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="121" t="s">
+      <c r="F4" s="146"/>
+      <c r="G4" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="122"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -4691,10 +5029,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="181"/>
+      <c r="B13" s="205"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -4745,12 +5083,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -4769,10 +5107,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="211" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="187"/>
+      <c r="C5" s="211"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -4791,10 +5129,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="211" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="211"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -4879,18 +5217,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="213" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -4899,48 +5237,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="172"/>
+      <c r="H4" s="195"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="147" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="176"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="199"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="124"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -5041,56 +5379,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="144" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="147" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="124"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -5184,177 +5522,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="190" t="s">
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="225" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="190" t="s">
+      <c r="K4" s="225" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="158" t="s">
+      <c r="L4" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="158" t="s">
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="181" t="s">
+      <c r="Q4" s="183"/>
+      <c r="R4" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="181"/>
+      <c r="S4" s="205"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165" t="s">
+      <c r="A5" s="189"/>
+      <c r="B5" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="189" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="189" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="156" t="s">
+      <c r="F5" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="G5" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="165"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="165" t="s">
+      <c r="I5" s="189"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="229"/>
+      <c r="N5" s="229"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="189" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="165" t="s">
+      <c r="S5" s="189" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="165" t="s">
+      <c r="T5" s="189" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="162" t="s">
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="163"/>
-      <c r="N6" s="162" t="s">
+      <c r="M6" s="187"/>
+      <c r="N6" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="163"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="204">
+      <c r="A7" s="218">
         <v>1</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204" t="s">
+      <c r="B7" s="218"/>
+      <c r="C7" s="218" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="204"/>
-      <c r="E7" s="200" t="s">
+      <c r="D7" s="218"/>
+      <c r="E7" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -5370,15 +5708,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="205"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -5486,15 +5824,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L4:O5"/>
     <mergeCell ref="P4:Q6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -5511,11 +5845,15 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -5543,46 +5881,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -5742,46 +6080,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="232" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208" t="s">
+      <c r="C4" s="232"/>
+      <c r="D4" s="232" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208" t="s">
+      <c r="E4" s="232"/>
+      <c r="F4" s="232" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="208"/>
-      <c r="H4" s="206" t="s">
+      <c r="G4" s="232"/>
+      <c r="H4" s="230" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="206" t="s">
+      <c r="I4" s="230" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="230" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="231" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="207" t="s">
+      <c r="C5" s="232"/>
+      <c r="D5" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207" t="s">
+      <c r="E5" s="231"/>
+      <c r="F5" s="231" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="207"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="206"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -5800,8 +6138,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -5825,8 +6163,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="206"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -6032,19 +6370,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="205" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181" t="s">
+      <c r="E4" s="205"/>
+      <c r="F4" s="205" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="181"/>
-      <c r="H4" s="156" t="s">
+      <c r="G4" s="205"/>
+      <c r="H4" s="180" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6070,7 +6408,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="157"/>
+      <c r="H5" s="181"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -6251,81 +6589,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="145" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="146" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="120"/>
+      <c r="B4" s="144"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="121"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="145"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="122"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -6717,18 +7055,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="205" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181" t="s">
+      <c r="E4" s="205"/>
+      <c r="F4" s="205" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="181"/>
+      <c r="G4" s="205"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -6737,36 +7075,36 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="236" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209" t="s">
+      <c r="C5" s="236"/>
+      <c r="D5" s="236" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209" t="s">
+      <c r="E5" s="236"/>
+      <c r="F5" s="236" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="209"/>
+      <c r="G5" s="236"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="210">
+      <c r="B6" s="235">
         <v>0</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210">
+      <c r="C6" s="235"/>
+      <c r="D6" s="235">
         <v>0</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210">
+      <c r="E6" s="235"/>
+      <c r="F6" s="235">
         <v>0</v>
       </c>
-      <c r="G6" s="210"/>
+      <c r="G6" s="235"/>
       <c r="H6" s="89">
         <v>0</v>
       </c>
@@ -6775,18 +7113,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="234" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211" t="s">
+      <c r="C7" s="234"/>
+      <c r="D7" s="234" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211" t="s">
+      <c r="E7" s="234"/>
+      <c r="F7" s="234" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="211"/>
+      <c r="G7" s="234"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -6795,18 +7133,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211" t="s">
+      <c r="C8" s="234"/>
+      <c r="D8" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211" t="s">
+      <c r="E8" s="234"/>
+      <c r="F8" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="211"/>
+      <c r="G8" s="234"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -6815,18 +7153,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211" t="s">
+      <c r="C9" s="234"/>
+      <c r="D9" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211" t="s">
+      <c r="E9" s="234"/>
+      <c r="F9" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="211"/>
+      <c r="G9" s="234"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -6922,18 +7260,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212" t="s">
+      <c r="C14" s="233"/>
+      <c r="D14" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212" t="s">
+      <c r="E14" s="233"/>
+      <c r="F14" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="212"/>
+      <c r="G14" s="233"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -6942,36 +7280,54 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212" t="s">
+      <c r="C16" s="233"/>
+      <c r="D16" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212" t="s">
+      <c r="E16" s="233"/>
+      <c r="F16" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="212"/>
+      <c r="G16" s="233"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -6981,24 +7337,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -7025,19 +7363,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="237" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -7173,10 +7511,10 @@
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="238" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="214"/>
+      <c r="B7" s="238"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
@@ -7229,20 +7567,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="237" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -7303,10 +7641,10 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="218">
+      <c r="A4" s="242">
         <v>1</v>
       </c>
-      <c r="B4" s="215">
+      <c r="B4" s="239">
         <v>9931</v>
       </c>
       <c r="C4" s="98" t="s">
@@ -7329,8 +7667,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="219"/>
-      <c r="B5" s="216"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
@@ -7349,8 +7687,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="220"/>
-      <c r="B6" s="217"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="241"/>
       <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
@@ -7367,11 +7705,11 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="238" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
       <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -7419,63 +7757,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="189" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="189" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="189" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="221" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="245" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="165" t="s">
+      <c r="G3" s="189" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="189" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="189" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -7491,11 +7829,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="205" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -7507,16 +7845,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="212" t="s">
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="233" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7564,40 +7902,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="200" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169" t="s">
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169" t="s">
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="169"/>
+      <c r="J3" s="200"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -7727,52 +8065,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="144" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="144" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="144" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -7788,16 +8126,16 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="120"/>
+      <c r="J4" s="144"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="222">
+      <c r="A5" s="246">
         <v>1</v>
       </c>
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="246" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="222">
+      <c r="C5" s="246">
         <v>9931</v>
       </c>
       <c r="D5" s="104" t="s">
@@ -7808,12 +8146,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="224"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="223"/>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
+      <c r="A6" s="247"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
       <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
@@ -7822,7 +8160,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="225"/>
+      <c r="J6" s="249"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -7875,7 +8213,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7890,38 +8228,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="250" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="250" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
     </row>
     <row r="3" spans="1:13" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:13">
@@ -7966,39 +8304,39 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="236">
+      <c r="A5" s="130">
         <v>3</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="237" t="s">
+      <c r="C5" s="131" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="130" t="s">
         <v>399</v>
       </c>
-      <c r="F5" s="241" t="s">
+      <c r="F5" s="135" t="s">
         <v>373</v>
       </c>
-      <c r="G5" s="241" t="s">
+      <c r="G5" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="H5" s="241">
+      <c r="H5" s="135">
         <v>2</v>
       </c>
-      <c r="I5" s="244" t="s">
+      <c r="I5" s="138" t="s">
         <v>407</v>
       </c>
-      <c r="J5" s="238">
+      <c r="J5" s="132">
         <v>30000</v>
       </c>
-      <c r="K5" s="238">
+      <c r="K5" s="132">
         <v>30000</v>
       </c>
-      <c r="L5" s="239"/>
-      <c r="M5" s="240">
+      <c r="L5" s="133"/>
+      <c r="M5" s="134">
         <v>241338</v>
       </c>
     </row>
@@ -8093,17 +8431,17 @@
       <c r="M11" s="96"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="243"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="243"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
       <c r="J12" s="111">
         <f>SUM(J5:J11)</f>
         <v>30000</v>
@@ -8145,34 +8483,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="250" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="250" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -8211,13 +8549,13 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="227">
+      <c r="A5" s="255">
         <v>1</v>
       </c>
-      <c r="B5" s="228" t="s">
+      <c r="B5" s="254" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="242"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="39" t="s">
         <v>366</v>
       </c>
@@ -8233,19 +8571,19 @@
       <c r="H5" s="111">
         <v>5000</v>
       </c>
-      <c r="I5" s="229">
+      <c r="I5" s="256">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
-      <c r="J5" s="234"/>
+      <c r="J5" s="128"/>
       <c r="K5" s="112">
         <v>241337</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="227"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="242"/>
+      <c r="A6" s="255"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="14" t="s">
         <v>401</v>
       </c>
@@ -8261,40 +8599,40 @@
       <c r="H6" s="111">
         <v>5000</v>
       </c>
-      <c r="I6" s="230"/>
-      <c r="J6" s="235"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="112">
         <v>241337</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="236">
+      <c r="A7" s="130">
         <v>2</v>
       </c>
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="131" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="E7" s="236" t="s">
+      <c r="E7" s="130" t="s">
         <v>398</v>
       </c>
-      <c r="F7" s="237" t="s">
+      <c r="F7" s="131" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="H7" s="238">
+      <c r="H7" s="132">
         <v>2500</v>
       </c>
-      <c r="I7" s="238">
+      <c r="I7" s="132">
         <v>2500</v>
       </c>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240">
+      <c r="J7" s="133"/>
+      <c r="K7" s="134">
         <v>241337</v>
       </c>
     </row>
@@ -8377,15 +8715,15 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="243"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="111">
         <f>SUM(H5:H13)</f>
         <v>12500</v>
@@ -8433,30 +8771,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="209" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="209" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:9">
@@ -8489,16 +8827,16 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="251">
+      <c r="A5" s="260">
         <v>241062</v>
       </c>
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="258" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="247" t="s">
+      <c r="C5" s="258" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="255"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -8509,16 +8847,16 @@
       <c r="H5" s="115">
         <v>5000</v>
       </c>
-      <c r="I5" s="257">
+      <c r="I5" s="262">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="252"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="256"/>
+      <c r="A6" s="261"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="142"/>
       <c r="E6" s="118" t="s">
         <v>409</v>
       </c>
@@ -8527,7 +8865,7 @@
       <c r="H6" s="115">
         <v>5000</v>
       </c>
-      <c r="I6" s="258"/>
+      <c r="I6" s="263"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="60">
@@ -8710,32 +9048,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="209" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="209" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -8774,16 +9112,16 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="249">
+      <c r="A5" s="268">
         <v>241062</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="266" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="266" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="245"/>
+      <c r="D5" s="266"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -8798,16 +9136,16 @@
       <c r="J5" s="108">
         <v>5000</v>
       </c>
-      <c r="K5" s="260">
+      <c r="K5" s="264">
         <f>SUM(J5:J6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="250"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="A6" s="269"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
       <c r="E6" s="118" t="s">
         <v>416</v>
       </c>
@@ -8820,7 +9158,7 @@
       <c r="J6" s="115">
         <v>5000</v>
       </c>
-      <c r="K6" s="259"/>
+      <c r="K6" s="265"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="60">
@@ -9027,138 +9365,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="153" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="157" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="125" t="s">
+      <c r="I3" s="155"/>
+      <c r="J3" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="132" t="s">
+      <c r="K3" s="150"/>
+      <c r="L3" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="125" t="s">
+      <c r="M3" s="154"/>
+      <c r="N3" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="125" t="s">
+      <c r="O3" s="150"/>
+      <c r="P3" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="125" t="s">
+      <c r="Q3" s="150"/>
+      <c r="R3" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="126"/>
-      <c r="T3" s="125" t="s">
+      <c r="S3" s="150"/>
+      <c r="T3" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="126"/>
+      <c r="U3" s="150"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="128"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="128"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -9924,7 +10262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -9945,109 +10283,1006 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="254" t="s">
+      <c r="A3" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="140" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="254" t="s">
+      <c r="C3" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="254" t="s">
+      <c r="D3" s="140" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="254" t="s">
+      <c r="E3" s="140" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="253">
+      <c r="A4" s="139">
         <v>1</v>
       </c>
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139">
         <v>3</v>
       </c>
-      <c r="E4" s="253">
+      <c r="E4" s="139">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="253"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="253"/>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="253"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="253"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="253"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="253"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="253"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="253"/>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="253"/>
-      <c r="B12" s="253"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="253"/>
-      <c r="B13" s="253"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="253"/>
-      <c r="B14" s="253"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="270" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="209" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="270" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+    </row>
+    <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="126" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="189" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="205" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="127" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="189"/>
+      <c r="C6" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="189"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="68">
+        <v>240971</v>
+      </c>
+      <c r="B7" s="123">
+        <v>100</v>
+      </c>
+      <c r="C7" s="122">
+        <v>15</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="68">
+        <v>240972</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122">
+        <v>3</v>
+      </c>
+      <c r="E8" s="122">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="68">
+        <v>240973</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122">
+        <v>5</v>
+      </c>
+      <c r="E9" s="122">
+        <f>E8-D9</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="68">
+        <v>241063</v>
+      </c>
+      <c r="B10" s="124">
+        <v>100.25</v>
+      </c>
+      <c r="C10" s="122">
+        <v>10</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122">
+        <f>E9+C10</f>
+        <v>17</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="120"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="120"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="120"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="120"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="120"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="120"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="120"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="43.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27.75">
+      <c r="A1" s="274" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="271" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="271" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="9.9499999999999993" customHeight="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="122">
+        <v>1</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="122">
+        <v>2</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="122"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="122"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="120"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="120"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="120"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="205" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" s="205"/>
+      <c r="C17" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="119" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="273" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="272" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="119" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" s="273" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20" s="272" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="121" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22" s="273" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="272" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="273" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" s="272" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="143" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="270" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="209" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+    </row>
+    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="189" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>462</v>
+      </c>
+      <c r="G5" s="126" t="s">
+        <v>464</v>
+      </c>
+      <c r="H5" s="180" t="s">
+        <v>454</v>
+      </c>
+      <c r="I5" s="126" t="s">
+        <v>455</v>
+      </c>
+      <c r="J5" s="180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="184"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="127" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" s="181"/>
+      <c r="I6" s="127" t="s">
+        <v>456</v>
+      </c>
+      <c r="J6" s="181"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="122">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="122">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="122">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="122">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="122">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>478</v>
+      </c>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="122">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I12" s="122" t="s">
+        <v>479</v>
+      </c>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="120"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="120"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="120"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="120"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="120"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="120"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="120"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="120"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="120"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="120"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="120"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="120"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="120"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="120"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="120"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10092,386 +11327,386 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="135" t="s">
+      <c r="E3" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="135" t="s">
+      <c r="I3" s="160"/>
+      <c r="J3" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="137" t="s">
+      <c r="K3" s="158" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="138"/>
-      <c r="M3" s="135" t="s">
+      <c r="L3" s="160"/>
+      <c r="M3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="137" t="s">
+      <c r="N3" s="166"/>
+      <c r="O3" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="137" t="s">
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="135" t="s">
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="137" t="s">
+      <c r="AF3" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="137" t="s">
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="159"/>
+      <c r="AJ3" s="159"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="159"/>
+      <c r="AM3" s="159"/>
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="159"/>
+      <c r="AQ3" s="159"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="138"/>
-      <c r="AW3" s="135" t="s">
+      <c r="AT3" s="159"/>
+      <c r="AU3" s="159"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="135" t="s">
+      <c r="AX3" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="134" t="s">
+      <c r="AY3" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="135" t="s">
+      <c r="AZ3" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="135" t="s">
+      <c r="BA3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="135" t="s">
+      <c r="BB3" s="166" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="141"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="144"/>
-      <c r="AV4" s="142"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="135"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="162"/>
+      <c r="AA4" s="162"/>
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="162"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="162"/>
+      <c r="AH4" s="162"/>
+      <c r="AI4" s="162"/>
+      <c r="AJ4" s="162"/>
+      <c r="AK4" s="162"/>
+      <c r="AL4" s="162"/>
+      <c r="AM4" s="162"/>
+      <c r="AN4" s="162"/>
+      <c r="AO4" s="162"/>
+      <c r="AP4" s="162"/>
+      <c r="AQ4" s="162"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="162"/>
+      <c r="AU4" s="162"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="171"/>
+      <c r="AX4" s="166"/>
+      <c r="AY4" s="170"/>
+      <c r="AZ4" s="171"/>
+      <c r="BA4" s="166"/>
+      <c r="BB4" s="166"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="135" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="135" t="s">
+      <c r="N5" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="135" t="s">
+      <c r="O5" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="135" t="s">
+      <c r="P5" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="135" t="s">
+      <c r="Q5" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="135" t="s">
+      <c r="R5" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="137" t="s">
+      <c r="S5" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="138"/>
-      <c r="U5" s="135" t="s">
+      <c r="T5" s="160"/>
+      <c r="U5" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="135" t="s">
+      <c r="V5" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="135" t="s">
+      <c r="W5" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="135" t="s">
+      <c r="X5" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="135" t="s">
+      <c r="Y5" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="135" t="s">
+      <c r="Z5" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="135" t="s">
+      <c r="AA5" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="135" t="s">
+      <c r="AB5" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="137" t="s">
+      <c r="AC5" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="138"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="135" t="s">
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="135" t="s">
+      <c r="AG5" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="135" t="s">
+      <c r="AH5" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="145" t="s">
+      <c r="AI5" s="167" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="135" t="s">
+      <c r="AJ5" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="135" t="s">
+      <c r="AK5" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="135" t="s">
+      <c r="AL5" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="135" t="s">
+      <c r="AM5" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="135" t="s">
+      <c r="AN5" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="137" t="s">
+      <c r="AO5" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="138"/>
-      <c r="AQ5" s="137" t="s">
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="138"/>
-      <c r="AS5" s="137" t="s">
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="138"/>
-      <c r="AU5" s="137" t="s">
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="138"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="135"/>
-      <c r="BB5" s="135"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="171"/>
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="170"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="166"/>
+      <c r="BB5" s="166"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="140"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135"/>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="140"/>
-      <c r="AQ6" s="139"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="139"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="139"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="136"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="134"/>
-      <c r="AZ6" s="136"/>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="166"/>
+      <c r="AI6" s="168"/>
+      <c r="AJ6" s="166"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="166"/>
+      <c r="AO6" s="164"/>
+      <c r="AP6" s="165"/>
+      <c r="AQ6" s="164"/>
+      <c r="AR6" s="165"/>
+      <c r="AS6" s="164"/>
+      <c r="AT6" s="165"/>
+      <c r="AU6" s="164"/>
+      <c r="AV6" s="165"/>
+      <c r="AW6" s="171"/>
+      <c r="AX6" s="166"/>
+      <c r="AY6" s="170"/>
+      <c r="AZ6" s="171"/>
+      <c r="BA6" s="166"/>
+      <c r="BB6" s="166"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="136"/>
-      <c r="AF7" s="135"/>
-      <c r="AG7" s="135"/>
-      <c r="AH7" s="135"/>
-      <c r="AI7" s="147"/>
-      <c r="AJ7" s="135"/>
-      <c r="AK7" s="135"/>
-      <c r="AL7" s="135"/>
-      <c r="AM7" s="135"/>
-      <c r="AN7" s="135"/>
-      <c r="AO7" s="141"/>
-      <c r="AP7" s="142"/>
-      <c r="AQ7" s="141"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="141"/>
-      <c r="AT7" s="142"/>
-      <c r="AU7" s="141"/>
-      <c r="AV7" s="142"/>
-      <c r="AW7" s="136"/>
-      <c r="AX7" s="135"/>
-      <c r="AY7" s="134"/>
-      <c r="AZ7" s="136"/>
-      <c r="BA7" s="135"/>
-      <c r="BB7" s="135"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="169"/>
+      <c r="AJ7" s="166"/>
+      <c r="AK7" s="166"/>
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="166"/>
+      <c r="AN7" s="166"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="161"/>
+      <c r="AV7" s="163"/>
+      <c r="AW7" s="171"/>
+      <c r="AX7" s="166"/>
+      <c r="AY7" s="170"/>
+      <c r="AZ7" s="171"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -11099,41 +12334,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AF3:AR4"/>
-    <mergeCell ref="AQ5:AR7"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="AS5:AT7"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AP7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="H3:I7"/>
-    <mergeCell ref="K3:L7"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="U3:AD4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AD7"/>
     <mergeCell ref="AY3:AY7"/>
     <mergeCell ref="AZ3:AZ7"/>
     <mergeCell ref="BA3:BA7"/>
@@ -11150,6 +12350,41 @@
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="K3:L7"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="U3:AD4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AD7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="AF3:AR4"/>
+    <mergeCell ref="AQ5:AR7"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="AS5:AT7"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AP7"/>
+    <mergeCell ref="AI5:AI7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BC1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -11174,19 +12409,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -11443,121 +12678,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="152" t="s">
+      <c r="E2" s="174"/>
+      <c r="F2" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="152" t="s">
+      <c r="G2" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="152" t="s">
+      <c r="H2" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="148" t="s">
+      <c r="I2" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="149"/>
-      <c r="K2" s="152" t="s">
+      <c r="J2" s="174"/>
+      <c r="K2" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="152" t="s">
+      <c r="L2" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="152" t="s">
+      <c r="M2" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152" t="s">
+      <c r="N2" s="172"/>
+      <c r="O2" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152" t="s">
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="152" t="s">
+      <c r="U2" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="148" t="s">
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="148" t="s">
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="152" t="s">
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="152" t="s">
+      <c r="AC2" s="172" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -11579,7 +12814,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="152"/>
+      <c r="T3" s="172"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -11589,12 +12824,12 @@
       <c r="W3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -11846,11 +13081,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y3"/>
-    <mergeCell ref="Z2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="H2:H3"/>
@@ -11865,6 +13095,11 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -11889,19 +13124,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -12062,78 +13297,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="180" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162" t="s">
+      <c r="F4" s="187"/>
+      <c r="G4" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="162" t="s">
+      <c r="H4" s="188"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="164"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="158" t="s">
+      <c r="K4" s="188"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="159"/>
+      <c r="N4" s="183"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="157"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="157"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="181"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -12143,19 +13378,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="H5" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="163"/>
+      <c r="I5" s="187"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="162" t="s">
+      <c r="K5" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="161"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="185"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -12286,14 +13521,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="155"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="179"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -12346,61 +13581,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="190" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="169" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="173"/>
-      <c r="B3" s="174"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -12452,13 +13687,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="177" t="s">
+      <c r="T3" s="201" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="175"/>
-      <c r="B4" s="176"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -12510,10 +13745,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="177"/>
+      <c r="T4" s="201"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="178">
+      <c r="A5" s="202">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -12539,7 +13774,7 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="167"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="22" t="s">
         <v>128</v>
       </c>
@@ -12563,7 +13798,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="168"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="23" t="s">
         <v>127</v>
       </c>
@@ -12587,7 +13822,7 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="166">
+      <c r="A8" s="191">
         <v>241001</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -12613,7 +13848,7 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A9" s="167"/>
+      <c r="A9" s="192"/>
       <c r="B9" s="22" t="s">
         <v>128</v>
       </c>
@@ -12637,7 +13872,7 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A10" s="168"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="24" t="s">
         <v>127</v>
       </c>
@@ -12661,7 +13896,7 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A11" s="166">
+      <c r="A11" s="191">
         <v>241031</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -12687,7 +13922,7 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="167"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="22" t="s">
         <v>128</v>
       </c>
@@ -12711,7 +13946,7 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="168"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="23" t="s">
         <v>127</v>
       </c>
@@ -12735,7 +13970,7 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A14" s="166">
+      <c r="A14" s="191">
         <v>241062</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -12761,7 +13996,7 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="167"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="22" t="s">
         <v>128</v>
       </c>
@@ -12785,7 +14020,7 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="168"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="24" t="s">
         <v>127</v>
       </c>
@@ -12809,7 +14044,7 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A17" s="166">
+      <c r="A17" s="191">
         <v>241093</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -12835,7 +14070,7 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A18" s="167"/>
+      <c r="A18" s="192"/>
       <c r="B18" s="22" t="s">
         <v>128</v>
       </c>
@@ -12859,7 +14094,7 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="168"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="23" t="s">
         <v>127</v>
       </c>
@@ -12883,7 +14118,7 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A20" s="166">
+      <c r="A20" s="191">
         <v>241122</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -12909,7 +14144,7 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A21" s="167"/>
+      <c r="A21" s="192"/>
       <c r="B21" s="22" t="s">
         <v>128</v>
       </c>
@@ -12933,7 +14168,7 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="168"/>
+      <c r="A22" s="193"/>
       <c r="B22" s="24" t="s">
         <v>127</v>
       </c>
@@ -12957,7 +14192,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A23" s="166">
+      <c r="A23" s="191">
         <v>241153</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -12983,7 +14218,7 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A24" s="167"/>
+      <c r="A24" s="192"/>
       <c r="B24" s="22" t="s">
         <v>128</v>
       </c>
@@ -13007,7 +14242,7 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="168"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="23" t="s">
         <v>127</v>
       </c>
@@ -13031,7 +14266,7 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A26" s="166">
+      <c r="A26" s="191">
         <v>241183</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -13057,7 +14292,7 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A27" s="167"/>
+      <c r="A27" s="192"/>
       <c r="B27" s="22" t="s">
         <v>128</v>
       </c>
@@ -13081,7 +14316,7 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A28" s="168"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="23" t="s">
         <v>127</v>
       </c>
@@ -13105,7 +14340,7 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A29" s="166">
+      <c r="A29" s="191">
         <v>241214</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -13131,7 +14366,7 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A30" s="167"/>
+      <c r="A30" s="192"/>
       <c r="B30" s="22" t="s">
         <v>128</v>
       </c>
@@ -13155,7 +14390,7 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="168"/>
+      <c r="A31" s="193"/>
       <c r="B31" s="23" t="s">
         <v>127</v>
       </c>
@@ -13179,7 +14414,7 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A32" s="166">
+      <c r="A32" s="191">
         <v>241244</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -13205,7 +14440,7 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A33" s="167"/>
+      <c r="A33" s="192"/>
       <c r="B33" s="22" t="s">
         <v>128</v>
       </c>
@@ -13229,7 +14464,7 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A34" s="168"/>
+      <c r="A34" s="193"/>
       <c r="B34" s="24" t="s">
         <v>127</v>
       </c>
@@ -13253,7 +14488,7 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A35" s="166">
+      <c r="A35" s="191">
         <v>241275</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -13279,7 +14514,7 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A36" s="167"/>
+      <c r="A36" s="192"/>
       <c r="B36" s="22" t="s">
         <v>128</v>
       </c>
@@ -13303,7 +14538,7 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A37" s="168"/>
+      <c r="A37" s="193"/>
       <c r="B37" s="23" t="s">
         <v>127</v>
       </c>
@@ -13327,7 +14562,7 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A38" s="166">
+      <c r="A38" s="191">
         <v>241306</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -13353,7 +14588,7 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A39" s="167"/>
+      <c r="A39" s="192"/>
       <c r="B39" s="22" t="s">
         <v>128</v>
       </c>
@@ -13377,7 +14612,7 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A40" s="167"/>
+      <c r="A40" s="192"/>
       <c r="B40" s="24" t="s">
         <v>127</v>
       </c>
@@ -13401,10 +14636,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="169"/>
+      <c r="B41" s="200"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -13426,13 +14661,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -13443,6 +14671,13 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U1" location="Sheet1!A1" display="Sheet1!A1"/>

--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="25" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="27" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,13 @@
     <sheet name="ERPR025" sheetId="39" r:id="rId31"/>
     <sheet name="ERPR026" sheetId="40" r:id="rId32"/>
     <sheet name="ERPR027" sheetId="41" r:id="rId33"/>
-    <sheet name="ERPR028" sheetId="42" r:id="rId34"/>
+    <sheet name="ERPR028" sheetId="43" r:id="rId34"/>
+    <sheet name="ERPR029" sheetId="42" r:id="rId35"/>
+    <sheet name="ERPR030" sheetId="44" r:id="rId36"/>
+    <sheet name="ERPR031" sheetId="45" r:id="rId37"/>
+    <sheet name="ERPR032" sheetId="46" r:id="rId38"/>
+    <sheet name="ERPR033" sheetId="47" r:id="rId39"/>
+    <sheet name="ERPR034" sheetId="48" r:id="rId40"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ERPR001!$1:$4</definedName>
@@ -119,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="552">
   <si>
     <t>ที่</t>
   </si>
@@ -2073,9 +2079,6 @@
     <t>รวมเงินจำนวนเงิน (บาท)</t>
   </si>
   <si>
-    <t>งบประมาณ 2560</t>
-  </si>
-  <si>
     <t>ผู้มีสิทธิ</t>
   </si>
   <si>
@@ -2101,21 +2104,6 @@
   </si>
   <si>
     <t>ผู้ป่วยนอก</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">สรุปการเบิกค่ารักษา </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ต้นเอง หรือ ทั้งครอบครัว</t>
-    </r>
   </si>
   <si>
     <t>ทะเบียนวัสดุสำนักงาน</t>
@@ -2302,14 +2290,109 @@
     </r>
   </si>
   <si>
-    <t>ทะเบียนควบคุมทรัพย์สิน</t>
-  </si>
-  <si>
     <t>ศูนย์เทคโนโลยีสารสนเทศท้องถิ่น</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ประจำปีงบประมาณ </t>
+    <t>ที่ได้มา</t>
+  </si>
+  <si>
+    <t>ใช้ประจำที่</t>
+  </si>
+  <si>
+    <t>สภาพการ</t>
+  </si>
+  <si>
+    <t>ใช้งาน</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ/ชนิด/แบบ</t>
+  </si>
+  <si>
+    <t>/ขนาด/ลักษณะ</t>
+  </si>
+  <si>
+    <t>หมายเลข</t>
+  </si>
+  <si>
+    <t>เครื่อง</t>
+  </si>
+  <si>
+    <t>รหัสครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>วีธีการ</t>
+  </si>
+  <si>
+    <t>ได้มา</t>
+  </si>
+  <si>
+    <t>วัน/เดือน/ปี</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>xx-xx-xxx/xxx-xxx</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>s2333</t>
+  </si>
+  <si>
+    <t>ssssss</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>222q</t>
+  </si>
+  <si>
+    <t>xx/xx/xxxx</t>
+  </si>
+  <si>
+    <t>ดี</t>
+  </si>
+  <si>
+    <t>ชำรุด</t>
+  </si>
+  <si>
+    <t>ชำรถ</t>
+  </si>
+  <si>
+    <t>RRRR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สรุปการเบิกค่ารักษา </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>ต้นเอง หรือ ทั้งครอบครัว</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">งบประมาณ </t>
     </r>
     <r>
       <rPr>
@@ -2322,88 +2405,548 @@
     </r>
   </si>
   <si>
-    <t>ที่ได้มา</t>
-  </si>
-  <si>
-    <t>ใช้ประจำที่</t>
-  </si>
-  <si>
-    <t>สภาพการ</t>
-  </si>
-  <si>
-    <t>ใช้งาน</t>
-  </si>
-  <si>
-    <t>ยี่ห้อ/ชนิด/แบบ</t>
-  </si>
-  <si>
-    <t>/ขนาด/ลักษณะ</t>
-  </si>
-  <si>
-    <t>หมายเลข</t>
-  </si>
-  <si>
-    <t>เครื่อง</t>
-  </si>
-  <si>
-    <t>รหัสครุภัณฑ์</t>
-  </si>
-  <si>
-    <t>วีธีการ</t>
-  </si>
-  <si>
-    <t>ได้มา</t>
-  </si>
-  <si>
-    <t>วัน/เดือน/ปี</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>xx-xx-xxx/xxx-xxx</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>rrr</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>s2333</t>
-  </si>
-  <si>
-    <t>ssssss</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>222q</t>
-  </si>
-  <si>
-    <t>xx/xx/xxxx</t>
-  </si>
-  <si>
-    <t>ดี</t>
-  </si>
-  <si>
-    <t>ชำรุด</t>
-  </si>
-  <si>
-    <t>ชำรถ</t>
-  </si>
-  <si>
-    <t>RRRR</t>
+    <t>ทะเบียนคุมทรัพย์สิน</t>
+  </si>
+  <si>
+    <t>ส่วนราชการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <r>
+      <t>ประเภท</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xxxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รหัส </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xx-xx-xxx/xxx/xxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>ประเภทเงิน xxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <r>
+      <t>วิธีการได้มา</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xxxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">โทรศัพท์ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxx xxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ที่อยู่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xxxxxxxxxxxxxx xxxxxxxxxxxxxx xxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สถานที่ตั้ง/หน่วยงานที่รับผิดชอบ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ชื่อผู้ขาย </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ลักษณะ/คุณสมบัติ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รุ่น/แบบ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>ที่เอกสาร</t>
+  </si>
+  <si>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>ราคาต่อ</t>
+  </si>
+  <si>
+    <t>หน่วย/ชุด/กลุ่ม</t>
+  </si>
+  <si>
+    <t>มูลค่าร่วม</t>
+  </si>
+  <si>
+    <t>อายุ</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อม (%)</t>
+  </si>
+  <si>
+    <t>ค่าเสื่อมราคา</t>
+  </si>
+  <si>
+    <t>ประจำปี</t>
+  </si>
+  <si>
+    <t>สะสม</t>
+  </si>
+  <si>
+    <t>มูลค่าสุธิ</t>
+  </si>
+  <si>
+    <t>(หน่วนงานที่ใช้)</t>
+  </si>
+  <si>
+    <t>วิธีจัดชื้อ</t>
+  </si>
+  <si>
+    <t>งบประมาณ</t>
+  </si>
+  <si>
+    <t>ประวัติการซ่อมบำรุงรักษาทรัพย์สิน</t>
+  </si>
+  <si>
+    <t>ครั้งที่</t>
+  </si>
+  <si>
+    <t>วัน เดือ ปี</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บัญชีตรวจสอบครุภัณฑ์ที่ชำรุด เพื่อส่งคืนให้แก่ กองคลัง ประจำปีงบประมาณ พ.ศ. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>2560</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บัญชีตรวจสอบครุภัณฑ์ประจำ ปีงบประมาณ พ.ศ. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>2560</t>
+    </r>
+  </si>
+  <si>
+    <t>ศูนย์เทคโนโลยีสารสนเทศท้องถิ้น</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รายละเอียดการตรวจสอบวัสดุสำนักงานคงเหลือ ประจำปีงบประมาณ พ.ศ. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>2560</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ข้อมูล ณ วันที่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xx xxxxxx xxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>จำนวนหน่วย</t>
+  </si>
+  <si>
+    <t>จำนวนเงินรวม</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ/รุ้น</t>
+  </si>
+  <si>
+    <t>หมายเลขเครื่อง</t>
+  </si>
+  <si>
+    <t>เลขทะเบียน</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ใบยืมครุภัณฑ์ เลขที่ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">วันที่ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> เดือน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> พ.ศ. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>ได้รับครุภัณฑ์ตามรายการข้างต้นไว้เรียบร้อยแล้ว</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หมายเลขโทรศัพท์ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หน่วนงานผู้ยืม สำนัก/กอง </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ฝ่าย </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>ลงชื่อ                                     ผู้รับครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>(                                                         )</t>
+  </si>
+  <si>
+    <t>วันที่    เดือน               พ.ศ.</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                          ผู้อนุมัติ</t>
+  </si>
+  <si>
+    <t>(xxxxxxxxxxxxx  xxxxxxxxxxxxx)</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                        ผู้จ่ายครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>รายละเอียดโทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <t>หมายเลขโทรศัพท์(หลวง)</t>
+  </si>
+  <si>
+    <t>หมายเลขโทรศัพท์(ส่วนตัว)</t>
+  </si>
+  <si>
+    <t>ราชชื่อผู้ใช้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัน เดือน </t>
+  </si>
+  <si>
+    <t>ยี่ห้อ</t>
+  </si>
+  <si>
+    <t>รุ่น</t>
+  </si>
+  <si>
+    <t>เลข IMEI</t>
+  </si>
+  <si>
+    <t>รายละประวัติการส่งซ่อมเอียดโทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หมายเลขโทรศัพท์(หลวง) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 08xxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">เลข IMEI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>รุ่น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gggggggggggggggggg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ยี่ห้อ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ccccccccccccccccccccccccc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หน่วยงาน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxx.x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตำแหน่ง </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ราชชื่อผู้ใช้ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxx   xxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หมายเลขโทรศัพท์(หลวง) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>08xxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>วันที่รับเครื่อง</t>
+  </si>
+  <si>
+    <t>วันที่รับส่งเครื่องเข้าศูนย์</t>
+  </si>
+  <si>
+    <t>วันที่รับเครื่อง
+จากศูนย์</t>
+  </si>
+  <si>
+    <t>วันที่ส่งคืน</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2956,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-101041E]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,13 +3118,6 @@
       <sz val="12"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2843,7 +3379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3193,398 +3729,37 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3594,9 +3769,406 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4053,34 +4625,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="219" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -4105,18 +4677,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="204"/>
-      <c r="G4" s="203" t="s">
+      <c r="F4" s="214"/>
+      <c r="G4" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="204"/>
-      <c r="I4" s="205" t="s">
+      <c r="H4" s="214"/>
+      <c r="I4" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="205"/>
+      <c r="J4" s="215"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4424,11 +4996,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="206" t="s">
+      <c r="B22" s="216" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="207"/>
-      <c r="D22" s="208"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="218"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -4490,46 +5062,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -4544,10 +5116,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="146"/>
+      <c r="G5" s="156"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -4808,11 +5380,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="186" t="s">
+      <c r="B23" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="188"/>
-      <c r="D23" s="187"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -4857,47 +5429,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="220" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="204" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -4907,18 +5479,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="145" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="145" t="s">
+      <c r="F4" s="156"/>
+      <c r="G4" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="146"/>
+      <c r="H4" s="156"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -5029,10 +5601,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="205"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -5083,12 +5655,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -5107,10 +5679,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="221" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="211"/>
+      <c r="C5" s="221"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -5129,10 +5701,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="221" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="211"/>
+      <c r="C10" s="221"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -5217,18 +5789,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="223" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -5237,48 +5809,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="157" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="194" t="s">
+      <c r="G4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="195"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="147" t="s">
+      <c r="J4" s="157" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="144"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="199"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="148"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -5379,56 +5951,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="154" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="154" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="157" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="144"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="148"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -5522,177 +6094,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="225" t="s">
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="224" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="225" t="s">
+      <c r="K4" s="224" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="182" t="s">
+      <c r="L4" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="182" t="s">
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="205" t="s">
+      <c r="Q4" s="193"/>
+      <c r="R4" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="205"/>
+      <c r="S4" s="215"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="189"/>
-      <c r="B5" s="189" t="s">
+      <c r="A5" s="199"/>
+      <c r="B5" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="189" t="s">
+      <c r="D5" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="189" t="s">
+      <c r="E5" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="190" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="180" t="s">
+      <c r="G5" s="190" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="189" t="s">
+      <c r="H5" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="189"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="229"/>
-      <c r="N5" s="229"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="221"/>
-      <c r="R5" s="189" t="s">
+      <c r="I5" s="199"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="229"/>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="189" t="s">
+      <c r="S5" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="189" t="s">
+      <c r="T5" s="199" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="189"/>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="186" t="s">
+      <c r="A6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="196" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="187"/>
-      <c r="N6" s="186" t="s">
+      <c r="M6" s="197"/>
+      <c r="N6" s="196" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="187"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="189"/>
-      <c r="S6" s="189"/>
-      <c r="T6" s="189"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="199"/>
+      <c r="T6" s="199"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="218">
+      <c r="A7" s="238">
         <v>1</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="238" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="218"/>
-      <c r="E7" s="214" t="s">
+      <c r="D7" s="238"/>
+      <c r="E7" s="234" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -5708,15 +6280,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="219"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -5824,11 +6396,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P4:Q6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -5845,15 +6421,11 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L4:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -5881,46 +6453,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="153" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="153" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -6080,46 +6652,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="242" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="242" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232" t="s">
+      <c r="E4" s="242"/>
+      <c r="F4" s="242" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="230" t="s">
+      <c r="G4" s="242"/>
+      <c r="H4" s="240" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="240" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="241" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="231" t="s">
+      <c r="C5" s="242"/>
+      <c r="D5" s="241" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231" t="s">
+      <c r="E5" s="241"/>
+      <c r="F5" s="241" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="240"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="230"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -6138,8 +6710,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -6163,8 +6735,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -6370,19 +6942,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="215" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205" t="s">
+      <c r="C4" s="215"/>
+      <c r="D4" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205" t="s">
+      <c r="E4" s="215"/>
+      <c r="F4" s="215" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="205"/>
-      <c r="H4" s="180" t="s">
+      <c r="G4" s="215"/>
+      <c r="H4" s="190" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6408,7 +6980,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="181"/>
+      <c r="H5" s="191"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -6589,81 +7161,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144" t="s">
+      <c r="D3" s="154"/>
+      <c r="E3" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="155" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="156" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="144"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="145"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="146"/>
+      <c r="J4" s="156"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -7055,18 +7627,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="215" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205" t="s">
+      <c r="C4" s="215"/>
+      <c r="D4" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205" t="s">
+      <c r="E4" s="215"/>
+      <c r="F4" s="215" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="205"/>
+      <c r="G4" s="215"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -7075,36 +7647,36 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="243" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236" t="s">
+      <c r="C5" s="243"/>
+      <c r="D5" s="243" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236" t="s">
+      <c r="E5" s="243"/>
+      <c r="F5" s="243" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="236"/>
+      <c r="G5" s="243"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="235">
+      <c r="B6" s="244">
         <v>0</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235">
+      <c r="C6" s="244"/>
+      <c r="D6" s="244">
         <v>0</v>
       </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235">
+      <c r="E6" s="244"/>
+      <c r="F6" s="244">
         <v>0</v>
       </c>
-      <c r="G6" s="235"/>
+      <c r="G6" s="244"/>
       <c r="H6" s="89">
         <v>0</v>
       </c>
@@ -7113,18 +7685,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="245" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234" t="s">
+      <c r="C7" s="245"/>
+      <c r="D7" s="245" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234" t="s">
+      <c r="E7" s="245"/>
+      <c r="F7" s="245" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="234"/>
+      <c r="G7" s="245"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -7133,18 +7705,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="245" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234" t="s">
+      <c r="C8" s="245"/>
+      <c r="D8" s="245" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234" t="s">
+      <c r="E8" s="245"/>
+      <c r="F8" s="245" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="234"/>
+      <c r="G8" s="245"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -7153,18 +7725,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="234" t="s">
+      <c r="B9" s="245" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234" t="s">
+      <c r="C9" s="245"/>
+      <c r="D9" s="245" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234" t="s">
+      <c r="E9" s="245"/>
+      <c r="F9" s="245" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="234"/>
+      <c r="G9" s="245"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -7260,18 +7832,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233" t="s">
+      <c r="C14" s="246"/>
+      <c r="D14" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="233"/>
-      <c r="F14" s="233" t="s">
+      <c r="E14" s="246"/>
+      <c r="F14" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="233"/>
+      <c r="G14" s="246"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -7280,54 +7852,36 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="205"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233" t="s">
+      <c r="C16" s="246"/>
+      <c r="D16" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233" t="s">
+      <c r="E16" s="246"/>
+      <c r="F16" s="246" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="233"/>
+      <c r="G16" s="246"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -7337,6 +7891,24 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -7363,19 +7935,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="247" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -7511,10 +8083,10 @@
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="248" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="238"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
@@ -7567,20 +8139,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="247" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -7641,10 +8213,10 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="242">
+      <c r="A4" s="252">
         <v>1</v>
       </c>
-      <c r="B4" s="239">
+      <c r="B4" s="249">
         <v>9931</v>
       </c>
       <c r="C4" s="98" t="s">
@@ -7667,8 +8239,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="243"/>
-      <c r="B5" s="240"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="250"/>
       <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
@@ -7687,8 +8259,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="244"/>
-      <c r="B6" s="241"/>
+      <c r="A6" s="254"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
@@ -7705,11 +8277,11 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="248" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
       <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -7757,63 +8329,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="199" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="199" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="199" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="245" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="255" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="189" t="s">
+      <c r="G3" s="199" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="189" t="s">
+      <c r="H3" s="199" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="189" t="s">
+      <c r="I3" s="199" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -7829,11 +8401,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="215" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -7845,16 +8417,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="215" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="233" t="s">
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="246" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7902,40 +8474,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="203" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200" t="s">
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="200"/>
+      <c r="J3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -8065,52 +8637,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="154" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="154" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144" t="s">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -8126,16 +8698,16 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="144"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="246">
+      <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="256" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="246">
+      <c r="C5" s="256">
         <v>9931</v>
       </c>
       <c r="D5" s="104" t="s">
@@ -8146,12 +8718,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="248"/>
+      <c r="J5" s="258"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="247"/>
-      <c r="B6" s="247"/>
-      <c r="C6" s="247"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="257"/>
       <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
@@ -8160,7 +8732,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="249"/>
+      <c r="J6" s="259"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -8228,38 +8800,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="260" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="260" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
     </row>
     <row r="3" spans="1:13" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:13">
@@ -8431,14 +9003,14 @@
       <c r="M11" s="96"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="261" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="253"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
       <c r="I12" s="137"/>
@@ -8483,34 +9055,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="260" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="260" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -8533,7 +9105,7 @@
         <v>364</v>
       </c>
       <c r="G4" s="117" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H4" s="101" t="s">
         <v>256</v>
@@ -8549,10 +9121,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="255">
+      <c r="A5" s="265">
         <v>1</v>
       </c>
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="264" t="s">
         <v>365</v>
       </c>
       <c r="C5" s="136"/>
@@ -8566,12 +9138,12 @@
         <v>367</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H5" s="111">
         <v>5000</v>
       </c>
-      <c r="I5" s="256">
+      <c r="I5" s="266">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
@@ -8581,8 +9153,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="255"/>
-      <c r="B6" s="254"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="264"/>
       <c r="C6" s="136"/>
       <c r="D6" s="14" t="s">
         <v>401</v>
@@ -8594,12 +9166,12 @@
         <v>367</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H6" s="111">
         <v>5000</v>
       </c>
-      <c r="I6" s="257"/>
+      <c r="I6" s="267"/>
       <c r="J6" s="129"/>
       <c r="K6" s="112">
         <v>241337</v>
@@ -8623,7 +9195,7 @@
         <v>367</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="132">
         <v>2500</v>
@@ -8715,14 +9287,14 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="251" t="s">
+      <c r="A14" s="261" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="252"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="253"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="262"/>
+      <c r="F14" s="263"/>
       <c r="G14" s="137"/>
       <c r="H14" s="111">
         <f>SUM(H5:H13)</f>
@@ -8771,30 +9343,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="219" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="219" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
     </row>
     <row r="3" spans="1:9" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:9">
@@ -8817,7 +9389,7 @@
         <v>378</v>
       </c>
       <c r="G4" s="113" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H4" s="113" t="s">
         <v>256</v>
@@ -8827,16 +9399,16 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="260">
+      <c r="A5" s="270">
         <v>241062</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="268" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="258" t="s">
+      <c r="C5" s="268" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="141"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -8847,16 +9419,16 @@
       <c r="H5" s="115">
         <v>5000</v>
       </c>
-      <c r="I5" s="262">
+      <c r="I5" s="272">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="261"/>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="142"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="118" t="s">
         <v>409</v>
       </c>
@@ -8865,7 +9437,7 @@
       <c r="H6" s="115">
         <v>5000</v>
       </c>
-      <c r="I6" s="263"/>
+      <c r="I6" s="273"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="60">
@@ -9048,32 +9620,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="219" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="219" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9081,7 +9653,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>376</v>
@@ -9112,16 +9684,16 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="268">
+      <c r="A5" s="278">
         <v>241062</v>
       </c>
-      <c r="B5" s="266" t="s">
+      <c r="B5" s="276" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="266" t="s">
+      <c r="C5" s="276" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="266"/>
+      <c r="D5" s="276"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -9136,18 +9708,18 @@
       <c r="J5" s="108">
         <v>5000</v>
       </c>
-      <c r="K5" s="264">
+      <c r="K5" s="274">
         <f>SUM(J5:J6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="269"/>
-      <c r="B6" s="267"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
+      <c r="A6" s="279"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
       <c r="E6" s="118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F6" s="116">
         <v>2</v>
@@ -9158,7 +9730,7 @@
       <c r="J6" s="115">
         <v>5000</v>
       </c>
-      <c r="K6" s="265"/>
+      <c r="K6" s="275"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="60">
@@ -9365,138 +9937,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="163" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="167" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="149" t="s">
+      <c r="I3" s="165"/>
+      <c r="J3" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="156" t="s">
+      <c r="K3" s="160"/>
+      <c r="L3" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="154"/>
-      <c r="N3" s="149" t="s">
+      <c r="M3" s="164"/>
+      <c r="N3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="149" t="s">
+      <c r="O3" s="160"/>
+      <c r="P3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="149" t="s">
+      <c r="Q3" s="160"/>
+      <c r="R3" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="149" t="s">
+      <c r="S3" s="160"/>
+      <c r="T3" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="150"/>
+      <c r="U3" s="160"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="152"/>
+      <c r="K4" s="162"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="152"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="162"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -10070,7 +10642,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>364</v>
@@ -10263,129 +10835,144 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
-    <col min="2" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="4" width="17.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A1" s="219" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="282" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="144" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="140" t="s">
+      <c r="C3" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="144" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="140" t="s">
+      <c r="E3" s="144" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="140" t="s">
-        <v>414</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="139">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38">
         <v>3</v>
       </c>
-      <c r="E4" s="139">
+      <c r="E4" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="139"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="139"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10406,67 +10993,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="270" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
+      <c r="A1" s="280" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="219" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="280" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="270" t="s">
-        <v>424</v>
-      </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:6">
       <c r="A5" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="199" t="s">
         <v>425</v>
       </c>
-      <c r="B5" s="189" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" s="205" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="189" t="s">
+      <c r="C5" s="215" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="199" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="127" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="189"/>
+        <v>424</v>
+      </c>
+      <c r="B6" s="199"/>
       <c r="C6" s="120" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="120" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E6" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="189"/>
+      <c r="F6" s="199"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="68">
@@ -10604,7 +11191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10618,47 +11205,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75">
-      <c r="A1" s="274" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
+      <c r="A1" s="281" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="271" t="s">
-        <v>449</v>
+      <c r="A2" s="150" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="271" t="s">
-        <v>448</v>
+      <c r="A3" s="150" t="s">
+        <v>446</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="9.9499999999999993" customHeight="1"/>
@@ -10670,7 +11257,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="120" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D9" s="120" t="s">
         <v>8</v>
@@ -10681,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C10" s="124" t="s">
         <v>322</v>
@@ -10693,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C11" s="124" t="s">
         <v>322</v>
@@ -10731,10 +11318,10 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="205" t="s">
-        <v>436</v>
-      </c>
-      <c r="B17" s="205"/>
+      <c r="A17" s="215" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" s="215"/>
       <c r="C17" s="124" t="s">
         <v>322</v>
       </c>
@@ -10742,43 +11329,43 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="C19" s="273" t="s">
-        <v>437</v>
-      </c>
-      <c r="D19" s="272" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="C19" s="152" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="151" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="119" t="s">
-        <v>443</v>
-      </c>
-      <c r="C20" s="273" t="s">
-        <v>439</v>
-      </c>
-      <c r="D20" s="272" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="121" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" s="273" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="152" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" s="151" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="152" t="s">
         <v>437</v>
       </c>
-      <c r="D22" s="272" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="C23" s="273" t="s">
-        <v>439</v>
-      </c>
-      <c r="D23" s="272" t="s">
-        <v>440</v>
+      <c r="D23" s="151" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10793,10 +11380,468 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="9.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="K2" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="K3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="199" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="141" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="141" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="190" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>497</v>
+      </c>
+      <c r="H9" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" s="141" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" s="141" t="s">
+        <v>499</v>
+      </c>
+      <c r="K9" s="190" t="s">
+        <v>502</v>
+      </c>
+      <c r="L9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="190" t="s">
+        <v>504</v>
+      </c>
+      <c r="N9" s="190" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="199"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="142" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="191"/>
+      <c r="G10" s="142" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="142" t="s">
+        <v>498</v>
+      </c>
+      <c r="I10" s="142" t="s">
+        <v>500</v>
+      </c>
+      <c r="J10" s="142" t="s">
+        <v>501</v>
+      </c>
+      <c r="K10" s="191"/>
+      <c r="L10" s="142" t="s">
+        <v>503</v>
+      </c>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="214" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="215" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="215"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="284"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="286"/>
+      <c r="J29" s="283"/>
+      <c r="K29" s="286"/>
+      <c r="L29" s="283"/>
+      <c r="M29" s="286"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="283"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284"/>
+      <c r="I30" s="286"/>
+      <c r="J30" s="283"/>
+      <c r="K30" s="286"/>
+      <c r="L30" s="283"/>
+      <c r="M30" s="286"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="283"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="284"/>
+      <c r="F31" s="284"/>
+      <c r="G31" s="284"/>
+      <c r="H31" s="284"/>
+      <c r="I31" s="286"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="286"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="286"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="283"/>
+      <c r="D32" s="284"/>
+      <c r="E32" s="284"/>
+      <c r="F32" s="284"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="284"/>
+      <c r="I32" s="286"/>
+      <c r="J32" s="283"/>
+      <c r="K32" s="286"/>
+      <c r="L32" s="283"/>
+      <c r="M32" s="286"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="283"/>
+      <c r="D33" s="284"/>
+      <c r="E33" s="284"/>
+      <c r="F33" s="284"/>
+      <c r="G33" s="284"/>
+      <c r="H33" s="284"/>
+      <c r="I33" s="286"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="286"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="286"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
+      <c r="F34" s="284"/>
+      <c r="G34" s="284"/>
+      <c r="H34" s="284"/>
+      <c r="I34" s="286"/>
+      <c r="J34" s="283"/>
+      <c r="K34" s="286"/>
+      <c r="L34" s="283"/>
+      <c r="M34" s="286"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -10813,283 +11858,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="280" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+    </row>
+    <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="199" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>460</v>
+      </c>
+      <c r="H4" s="190" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="270" t="s">
+      <c r="I4" s="126" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="209" t="s">
+      <c r="J4" s="190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="194"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="127" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="191"/>
+      <c r="I5" s="127" t="s">
         <v>452</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-    </row>
-    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
-    <row r="5" spans="1:10">
-      <c r="A5" s="182" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="189" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="D5" s="126" t="s">
-        <v>459</v>
-      </c>
-      <c r="E5" s="126" t="s">
-        <v>457</v>
-      </c>
-      <c r="F5" s="126" t="s">
+      <c r="J5" s="191"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="122">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="G5" s="126" t="s">
-        <v>464</v>
-      </c>
-      <c r="H5" s="180" t="s">
-        <v>454</v>
-      </c>
-      <c r="I5" s="126" t="s">
-        <v>455</v>
-      </c>
-      <c r="J5" s="180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="184"/>
-      <c r="B6" s="189"/>
-      <c r="C6" s="127" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>458</v>
-      </c>
-      <c r="F6" s="127" t="s">
+      <c r="D6" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="127" t="s">
-        <v>453</v>
-      </c>
-      <c r="H6" s="181"/>
-      <c r="I6" s="127" t="s">
-        <v>456</v>
-      </c>
-      <c r="J6" s="181"/>
+      <c r="E6" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F7" s="122" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H7" s="122" t="s">
         <v>322</v>
       </c>
-      <c r="I7" s="122" t="s">
-        <v>477</v>
+      <c r="I7" s="146" t="s">
+        <v>474</v>
       </c>
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>474</v>
-      </c>
       <c r="F8" s="122" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H8" s="122" t="s">
         <v>322</v>
       </c>
-      <c r="I8" s="122" t="s">
-        <v>477</v>
+      <c r="I8" s="146" t="s">
+        <v>474</v>
       </c>
       <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>470</v>
-      </c>
       <c r="F9" s="122" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H9" s="122" t="s">
         <v>322</v>
       </c>
-      <c r="I9" s="122" t="s">
-        <v>477</v>
+      <c r="I9" s="146" t="s">
+        <v>474</v>
       </c>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>469</v>
-      </c>
       <c r="F10" s="122" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H10" s="122" t="s">
         <v>322</v>
       </c>
       <c r="I10" s="122" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D11" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>470</v>
-      </c>
       <c r="F11" s="122" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H11" s="122" t="s">
         <v>322</v>
       </c>
       <c r="I11" s="122" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="122">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="F12" s="122" t="s">
-        <v>480</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="H12" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I12" s="122" t="s">
-        <v>479</v>
-      </c>
-      <c r="J12" s="38"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="120"/>
@@ -11259,29 +12302,1118 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="120"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
+  <mergeCells count="6">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="153" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="280" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+    </row>
+    <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="199" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="148" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="148" t="s">
+        <v>460</v>
+      </c>
+      <c r="H4" s="190" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="148" t="s">
+        <v>451</v>
+      </c>
+      <c r="J4" s="190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="194"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="149" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="149" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="149" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="191"/>
+      <c r="I5" s="149" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="191"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="146">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="146">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="146">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="146">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="146">
+        <v>5</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H10" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="146">
+        <v>6</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H11" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="146" t="s">
+        <v>475</v>
+      </c>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="144"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="144"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="144"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="144"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="144"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="144"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="144"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="144"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="144"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="144"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="144"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="144"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="144"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="144"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="144"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="3" customWidth="1"/>
+    <col min="3" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="287" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="219" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="219" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="219" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="219" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="E3" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="143" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="143" t="s">
+        <v>517</v>
+      </c>
+      <c r="E5" s="143" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="143" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="285"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="219" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+    </row>
+    <row r="2" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>537</v>
+      </c>
+      <c r="J3" s="144" t="s">
+        <v>538</v>
+      </c>
+      <c r="K3" s="144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
@@ -11327,386 +13459,386 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="160"/>
-      <c r="J3" s="166" t="s">
+      <c r="I3" s="172"/>
+      <c r="J3" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="166" t="s">
+      <c r="L3" s="172"/>
+      <c r="M3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="166"/>
-      <c r="O3" s="158" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="158" t="s">
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="166" t="s">
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="158" t="s">
+      <c r="AF3" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="159"/>
-      <c r="AP3" s="159"/>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="158" t="s">
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="177"/>
+      <c r="AJ3" s="177"/>
+      <c r="AK3" s="177"/>
+      <c r="AL3" s="177"/>
+      <c r="AM3" s="177"/>
+      <c r="AN3" s="177"/>
+      <c r="AO3" s="177"/>
+      <c r="AP3" s="177"/>
+      <c r="AQ3" s="177"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="159"/>
-      <c r="AU3" s="159"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="166" t="s">
+      <c r="AT3" s="177"/>
+      <c r="AU3" s="177"/>
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="166" t="s">
+      <c r="AX3" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="170" t="s">
+      <c r="AY3" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="166" t="s">
+      <c r="AZ3" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="166" t="s">
+      <c r="BA3" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="166" t="s">
+      <c r="BB3" s="169" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="166"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="162"/>
-      <c r="AU4" s="162"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="171"/>
-      <c r="AX4" s="166"/>
-      <c r="AY4" s="170"/>
-      <c r="AZ4" s="171"/>
-      <c r="BA4" s="166"/>
-      <c r="BB4" s="166"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="178"/>
+      <c r="AM4" s="178"/>
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="175"/>
+      <c r="AT4" s="178"/>
+      <c r="AU4" s="178"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="170"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="169"/>
+      <c r="BB4" s="169"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="166" t="s">
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="166" t="s">
+      <c r="N5" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="166" t="s">
+      <c r="O5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="166" t="s">
+      <c r="P5" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="166" t="s">
+      <c r="Q5" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="166" t="s">
+      <c r="R5" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="158" t="s">
+      <c r="S5" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="166" t="s">
+      <c r="T5" s="172"/>
+      <c r="U5" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="166" t="s">
+      <c r="V5" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="166" t="s">
+      <c r="W5" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="166" t="s">
+      <c r="X5" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="166" t="s">
+      <c r="Y5" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="166" t="s">
+      <c r="Z5" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="166" t="s">
+      <c r="AA5" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="166" t="s">
+      <c r="AB5" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="158" t="s">
+      <c r="AC5" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="166" t="s">
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="166" t="s">
+      <c r="AG5" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="166" t="s">
+      <c r="AH5" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="167" t="s">
+      <c r="AI5" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="166" t="s">
+      <c r="AJ5" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="166" t="s">
+      <c r="AK5" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="166" t="s">
+      <c r="AL5" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="166" t="s">
+      <c r="AM5" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="166" t="s">
+      <c r="AN5" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="158" t="s">
+      <c r="AO5" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="158" t="s">
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="158" t="s">
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="158" t="s">
+      <c r="AT5" s="172"/>
+      <c r="AU5" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="171"/>
-      <c r="AX5" s="166"/>
-      <c r="AY5" s="170"/>
-      <c r="AZ5" s="171"/>
-      <c r="BA5" s="166"/>
-      <c r="BB5" s="166"/>
+      <c r="AV5" s="172"/>
+      <c r="AW5" s="170"/>
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="169"/>
+      <c r="BB5" s="169"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="166"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="168"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="164"/>
-      <c r="AP6" s="165"/>
-      <c r="AQ6" s="164"/>
-      <c r="AR6" s="165"/>
-      <c r="AS6" s="164"/>
-      <c r="AT6" s="165"/>
-      <c r="AU6" s="164"/>
-      <c r="AV6" s="165"/>
-      <c r="AW6" s="171"/>
-      <c r="AX6" s="166"/>
-      <c r="AY6" s="170"/>
-      <c r="AZ6" s="171"/>
-      <c r="BA6" s="166"/>
-      <c r="BB6" s="166"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="169"/>
+      <c r="AC6" s="173"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="170"/>
+      <c r="AF6" s="169"/>
+      <c r="AG6" s="169"/>
+      <c r="AH6" s="169"/>
+      <c r="AI6" s="180"/>
+      <c r="AJ6" s="169"/>
+      <c r="AK6" s="169"/>
+      <c r="AL6" s="169"/>
+      <c r="AM6" s="169"/>
+      <c r="AN6" s="169"/>
+      <c r="AO6" s="173"/>
+      <c r="AP6" s="174"/>
+      <c r="AQ6" s="173"/>
+      <c r="AR6" s="174"/>
+      <c r="AS6" s="173"/>
+      <c r="AT6" s="174"/>
+      <c r="AU6" s="173"/>
+      <c r="AV6" s="174"/>
+      <c r="AW6" s="170"/>
+      <c r="AX6" s="169"/>
+      <c r="AY6" s="168"/>
+      <c r="AZ6" s="170"/>
+      <c r="BA6" s="169"/>
+      <c r="BB6" s="169"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="166"/>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="169"/>
-      <c r="AJ7" s="166"/>
-      <c r="AK7" s="166"/>
-      <c r="AL7" s="166"/>
-      <c r="AM7" s="166"/>
-      <c r="AN7" s="166"/>
-      <c r="AO7" s="161"/>
-      <c r="AP7" s="163"/>
-      <c r="AQ7" s="161"/>
-      <c r="AR7" s="163"/>
-      <c r="AS7" s="161"/>
-      <c r="AT7" s="163"/>
-      <c r="AU7" s="161"/>
-      <c r="AV7" s="163"/>
-      <c r="AW7" s="171"/>
-      <c r="AX7" s="166"/>
-      <c r="AY7" s="170"/>
-      <c r="AZ7" s="171"/>
-      <c r="BA7" s="166"/>
-      <c r="BB7" s="166"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="175"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="169"/>
+      <c r="AI7" s="181"/>
+      <c r="AJ7" s="169"/>
+      <c r="AK7" s="169"/>
+      <c r="AL7" s="169"/>
+      <c r="AM7" s="169"/>
+      <c r="AN7" s="169"/>
+      <c r="AO7" s="175"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="175"/>
+      <c r="AR7" s="176"/>
+      <c r="AS7" s="175"/>
+      <c r="AT7" s="176"/>
+      <c r="AU7" s="175"/>
+      <c r="AV7" s="176"/>
+      <c r="AW7" s="170"/>
+      <c r="AX7" s="169"/>
+      <c r="AY7" s="168"/>
+      <c r="AZ7" s="170"/>
+      <c r="BA7" s="169"/>
+      <c r="BB7" s="169"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -12334,6 +14466,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="AF3:AR4"/>
+    <mergeCell ref="AQ5:AR7"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="AS5:AT7"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AP7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="K3:L7"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="U3:AD4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AD7"/>
     <mergeCell ref="AY3:AY7"/>
     <mergeCell ref="AZ3:AZ7"/>
     <mergeCell ref="BA3:BA7"/>
@@ -12350,47 +14517,181 @@
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="H3:I7"/>
-    <mergeCell ref="K3:L7"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="U3:AD4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AD7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="AF3:AR4"/>
-    <mergeCell ref="AQ5:AR7"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="AS5:AT7"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AP7"/>
-    <mergeCell ref="AI5:AI7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BC1" location="Sheet1!A1" display="Sheet1!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="6" style="3" customWidth="1"/>
+    <col min="2" max="9" width="15.140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="219" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="9.9499999999999993" customHeight="1"/>
+    <row r="7" spans="1:13" ht="43.5">
+      <c r="A7" s="143" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="143" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>549</v>
+      </c>
+      <c r="E7" s="143" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="147" t="s">
+        <v>550</v>
+      </c>
+      <c r="G7" s="143" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" s="143" t="s">
+        <v>551</v>
+      </c>
+      <c r="I7" s="143" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12409,19 +14710,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -12678,121 +14979,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="183" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="172" t="s">
+      <c r="E2" s="185"/>
+      <c r="F2" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="173" t="s">
+      <c r="I2" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="174"/>
-      <c r="K2" s="172" t="s">
+      <c r="J2" s="185"/>
+      <c r="K2" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="172" t="s">
+      <c r="L2" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="172" t="s">
+      <c r="M2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172" t="s">
+      <c r="N2" s="182"/>
+      <c r="O2" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172" t="s">
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="172" t="s">
+      <c r="U2" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="173" t="s">
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="173" t="s">
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="172" t="s">
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="172" t="s">
+      <c r="AC2" s="182" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -12814,7 +15115,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="172"/>
+      <c r="T3" s="182"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -12824,12 +15125,12 @@
       <c r="W3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -13081,6 +15382,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="H2:H3"/>
@@ -13097,9 +15401,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y3"/>
-    <mergeCell ref="Z2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -13124,19 +15425,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -13297,78 +15598,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="190" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="186" t="s">
+      <c r="F4" s="197"/>
+      <c r="G4" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="186" t="s">
+      <c r="H4" s="198"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="188"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="182" t="s">
+      <c r="K4" s="198"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="183"/>
+      <c r="N4" s="193"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="181"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="181"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -13378,19 +15679,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="186" t="s">
+      <c r="H5" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="187"/>
+      <c r="I5" s="197"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="186" t="s">
+      <c r="K5" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="187"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="185"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -13521,14 +15822,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="179"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -13581,61 +15882,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="204" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="200" t="s">
+      <c r="B2" s="206"/>
+      <c r="C2" s="203" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -13687,13 +15988,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="201" t="s">
+      <c r="T3" s="211" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -13745,10 +16046,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="201"/>
+      <c r="T4" s="211"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="202">
+      <c r="A5" s="212">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -13774,7 +16075,7 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="192"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="22" t="s">
         <v>128</v>
       </c>
@@ -13798,7 +16099,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="193"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="23" t="s">
         <v>127</v>
       </c>
@@ -13822,7 +16123,7 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="191">
+      <c r="A8" s="200">
         <v>241001</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -13848,7 +16149,7 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A9" s="192"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="22" t="s">
         <v>128</v>
       </c>
@@ -13872,7 +16173,7 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A10" s="193"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="24" t="s">
         <v>127</v>
       </c>
@@ -13896,7 +16197,7 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A11" s="191">
+      <c r="A11" s="200">
         <v>241031</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -13922,7 +16223,7 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="192"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="22" t="s">
         <v>128</v>
       </c>
@@ -13946,7 +16247,7 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="193"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="23" t="s">
         <v>127</v>
       </c>
@@ -13970,7 +16271,7 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A14" s="191">
+      <c r="A14" s="200">
         <v>241062</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -13996,7 +16297,7 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="192"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="22" t="s">
         <v>128</v>
       </c>
@@ -14020,7 +16321,7 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="193"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="24" t="s">
         <v>127</v>
       </c>
@@ -14044,7 +16345,7 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A17" s="191">
+      <c r="A17" s="200">
         <v>241093</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -14070,7 +16371,7 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A18" s="192"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="22" t="s">
         <v>128</v>
       </c>
@@ -14094,7 +16395,7 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="193"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="23" t="s">
         <v>127</v>
       </c>
@@ -14118,7 +16419,7 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A20" s="191">
+      <c r="A20" s="200">
         <v>241122</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -14144,7 +16445,7 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A21" s="192"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="22" t="s">
         <v>128</v>
       </c>
@@ -14168,7 +16469,7 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="193"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="24" t="s">
         <v>127</v>
       </c>
@@ -14192,7 +16493,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A23" s="191">
+      <c r="A23" s="200">
         <v>241153</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -14218,7 +16519,7 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A24" s="192"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="22" t="s">
         <v>128</v>
       </c>
@@ -14242,7 +16543,7 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="193"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="23" t="s">
         <v>127</v>
       </c>
@@ -14266,7 +16567,7 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A26" s="191">
+      <c r="A26" s="200">
         <v>241183</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -14292,7 +16593,7 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A27" s="192"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="22" t="s">
         <v>128</v>
       </c>
@@ -14316,7 +16617,7 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A28" s="193"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="23" t="s">
         <v>127</v>
       </c>
@@ -14340,7 +16641,7 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A29" s="191">
+      <c r="A29" s="200">
         <v>241214</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -14366,7 +16667,7 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A30" s="192"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="22" t="s">
         <v>128</v>
       </c>
@@ -14390,7 +16691,7 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="193"/>
+      <c r="A31" s="202"/>
       <c r="B31" s="23" t="s">
         <v>127</v>
       </c>
@@ -14414,7 +16715,7 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A32" s="191">
+      <c r="A32" s="200">
         <v>241244</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -14440,7 +16741,7 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A33" s="192"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="22" t="s">
         <v>128</v>
       </c>
@@ -14464,7 +16765,7 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A34" s="193"/>
+      <c r="A34" s="202"/>
       <c r="B34" s="24" t="s">
         <v>127</v>
       </c>
@@ -14488,7 +16789,7 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A35" s="191">
+      <c r="A35" s="200">
         <v>241275</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -14514,7 +16815,7 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A36" s="192"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="22" t="s">
         <v>128</v>
       </c>
@@ -14538,7 +16839,7 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A37" s="193"/>
+      <c r="A37" s="202"/>
       <c r="B37" s="23" t="s">
         <v>127</v>
       </c>
@@ -14562,7 +16863,7 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A38" s="191">
+      <c r="A38" s="200">
         <v>241306</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -14588,7 +16889,7 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A39" s="192"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="22" t="s">
         <v>128</v>
       </c>
@@ -14612,7 +16913,7 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A40" s="192"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="24" t="s">
         <v>127</v>
       </c>
@@ -14636,10 +16937,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="200"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -14661,6 +16962,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -14671,13 +16979,6 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U1" location="Sheet1!A1" display="Sheet1!A1"/>

--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="27" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="31" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="566">
   <si>
     <t>ที่</t>
   </si>
@@ -2543,9 +2543,6 @@
     </r>
   </si>
   <si>
-    <t>ที่เอกสาร</t>
-  </si>
-  <si>
     <t>หน่วย</t>
   </si>
   <si>
@@ -2661,9 +2658,6 @@
     <t>จำนวนเงินรวม</t>
   </si>
   <si>
-    <t>ยี่ห้อ/รุ้น</t>
-  </si>
-  <si>
     <t>หมายเลขเครื่อง</t>
   </si>
   <si>
@@ -2800,18 +2794,12 @@
     <t>รายละเอียดโทรศัพท์มือถือ</t>
   </si>
   <si>
-    <t>หมายเลขโทรศัพท์(หลวง)</t>
-  </si>
-  <si>
     <t>หมายเลขโทรศัพท์(ส่วนตัว)</t>
   </si>
   <si>
     <t>ราชชื่อผู้ใช้</t>
   </si>
   <si>
-    <t xml:space="preserve">วัน เดือน </t>
-  </si>
-  <si>
     <t>ยี่ห้อ</t>
   </si>
   <si>
@@ -2825,7 +2813,122 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">หมายเลขโทรศัพท์(หลวง) </t>
+      <t xml:space="preserve">เลข IMEI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>รุ่น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gggggggggggggggggg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ยี่ห้อ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ccccccccccccccccccccccccc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หน่วยงาน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxx.x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตำแหน่ง </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ราชชื่อผู้ใช้ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>xxxxxxxxxxxxx   xxxxxxxxxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>วันที่รับเครื่อง</t>
+  </si>
+  <si>
+    <t>วันที่รับส่งเครื่องเข้าศูนย์</t>
+  </si>
+  <si>
+    <t>วันที่รับเครื่อง
+จากศูนย์</t>
+  </si>
+  <si>
+    <t>วันที่ส่งคืน</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>หมายเลขโทรศัพท์(ราชการ)</t>
+  </si>
+  <si>
+    <t>วัน เดือน ปี 
+โอน</t>
+  </si>
+  <si>
+    <t>วัน เดือน ปี 
+ส่งคืน</t>
+  </si>
+  <si>
+    <t>วัน เดือน ปี 
+รับเครื่อง</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หมายเลขโทรศัพท์(ราชการ) </t>
     </r>
     <r>
       <rPr>
@@ -2839,7 +2942,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">เลข IMEI </t>
+      <t xml:space="preserve">หมายเลขโทรศัพท์(ส่วนตัว) </t>
     </r>
     <r>
       <rPr>
@@ -2848,54 +2951,24 @@
         <rFont val="TH SarabunPSK"/>
         <family val="2"/>
       </rPr>
-      <t>xxxxxxxxxxxxxxxxx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>รุ่น</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gggggggggggggggggg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ยี่ห้อ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ccccccccccccccccccccccccc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">หน่วยงาน </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
-      </rPr>
-      <t>xxx.x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ตำแหน่ง </t>
+      <t>08xxxxxxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>ยี่ห้อ/รุ่น</t>
+  </si>
+  <si>
+    <t>ขอคืนครุภัณฑ์ที่ยืมลำดับที่………………...</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                          ผู้ข้อคืนครุภัณฑ์</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                        ผู้รับคืนครุภัณฑ์</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GFMIS </t>
     </r>
     <r>
       <rPr>
@@ -2908,45 +2981,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ราชชื่อผู้ใช้ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
-      </rPr>
-      <t>xxxxxxxxxxxxx   xxxxxxxxxxxxxxx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">หมายเลขโทรศัพท์(หลวง) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
-      </rPr>
-      <t>08xxxxxxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>วันที่รับเครื่อง</t>
-  </si>
-  <si>
-    <t>วันที่รับส่งเครื่องเข้าศูนย์</t>
-  </si>
-  <si>
-    <t>วันที่รับเครื่อง
-จากศูนย์</t>
-  </si>
-  <si>
-    <t>วันที่ส่งคืน</t>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>ชื่อผู้รับ/เบิก</t>
+  </si>
+  <si>
+    <t>ที่เอกสาร
+(รหัส)</t>
+  </si>
+  <si>
+    <t>ผู้ตรวจสอบ</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                        ประธานกรรมการ</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                       กรรมการ</t>
+  </si>
+  <si>
+    <t>ลงชื่อ                                        กรรมการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (                                               )</t>
   </si>
 </sst>
 </file>
@@ -3379,7 +3436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3769,6 +3826,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3814,46 +3890,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3862,18 +3950,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3910,6 +3986,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3919,30 +3998,27 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3982,6 +4058,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3997,39 +4106,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4039,18 +4115,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4150,25 +4226,24 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4625,34 +4700,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="228" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="228" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -4677,18 +4752,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="213" t="s">
+      <c r="E4" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="213" t="s">
+      <c r="F4" s="223"/>
+      <c r="G4" s="222" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="214"/>
-      <c r="I4" s="215" t="s">
+      <c r="H4" s="223"/>
+      <c r="I4" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="215"/>
+      <c r="J4" s="224"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4996,11 +5071,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="225" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="217"/>
-      <c r="D22" s="218"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -5062,46 +5137,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -5116,10 +5191,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="156"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -5380,11 +5455,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="196" t="s">
+      <c r="B23" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="198"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -5429,47 +5504,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="229" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="229" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -5479,18 +5554,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="155" t="s">
+      <c r="D4" s="165"/>
+      <c r="E4" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="155" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="156"/>
+      <c r="H4" s="165"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -5601,10 +5676,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="215" t="s">
+      <c r="A13" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="215"/>
+      <c r="B13" s="224"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -5655,12 +5730,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="231" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -5679,10 +5754,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="221"/>
+      <c r="C5" s="230"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -5701,10 +5776,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="230" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="221"/>
+      <c r="C10" s="230"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -5789,18 +5864,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="232" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -5809,48 +5884,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="163" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="205" t="s">
+      <c r="G4" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="214"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="166" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="210"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="218"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="158"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -5951,56 +6026,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="166" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="158"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="167"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -6094,177 +6169,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="224" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="244" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="224" t="s">
+      <c r="K4" s="244" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="192" t="s">
+      <c r="L4" s="201" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="227"/>
-      <c r="N4" s="227"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="192" t="s">
+      <c r="M4" s="247"/>
+      <c r="N4" s="247"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="215" t="s">
+      <c r="Q4" s="202"/>
+      <c r="R4" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="215"/>
+      <c r="S4" s="224"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="199"/>
-      <c r="B5" s="199" t="s">
+      <c r="A5" s="208"/>
+      <c r="B5" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="208" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="199" t="s">
+      <c r="D5" s="208" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="199" t="s">
+      <c r="E5" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="190" t="s">
+      <c r="F5" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="199" t="s">
+      <c r="H5" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="199"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="199" t="s">
+      <c r="I5" s="208"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="245"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="240"/>
+      <c r="R5" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="199" t="s">
+      <c r="S5" s="208" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="199" t="s">
+      <c r="T5" s="208" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="199"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="196" t="s">
+      <c r="A6" s="208"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="197"/>
-      <c r="N6" s="196" t="s">
+      <c r="M6" s="206"/>
+      <c r="N6" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="197"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="199"/>
-      <c r="T6" s="199"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="238">
+      <c r="A7" s="237">
         <v>1</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238" t="s">
+      <c r="B7" s="237"/>
+      <c r="C7" s="237" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="234" t="s">
+      <c r="D7" s="237"/>
+      <c r="E7" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -6280,15 +6355,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="237"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -6396,15 +6471,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L4:O5"/>
     <mergeCell ref="P4:Q6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -6421,11 +6492,15 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -6453,46 +6528,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -6652,46 +6727,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="251" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242" t="s">
+      <c r="C4" s="251"/>
+      <c r="D4" s="251" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242" t="s">
+      <c r="E4" s="251"/>
+      <c r="F4" s="251" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="240" t="s">
+      <c r="G4" s="251"/>
+      <c r="H4" s="249" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="240" t="s">
+      <c r="I4" s="249" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="249" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="250" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="241" t="s">
+      <c r="C5" s="251"/>
+      <c r="D5" s="250" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241" t="s">
+      <c r="E5" s="250"/>
+      <c r="F5" s="250" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="241"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="240"/>
+      <c r="A6" s="249"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -6710,8 +6785,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -6735,8 +6810,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -6942,19 +7017,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="224" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215" t="s">
+      <c r="C4" s="224"/>
+      <c r="D4" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215" t="s">
+      <c r="E4" s="224"/>
+      <c r="F4" s="224" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="215"/>
-      <c r="H4" s="190" t="s">
+      <c r="G4" s="224"/>
+      <c r="H4" s="199" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6980,7 +7055,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="191"/>
+      <c r="H5" s="200"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7161,81 +7236,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154" t="s">
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="164" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="165" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="154"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="155"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="156"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -7627,18 +7702,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="224" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215" t="s">
+      <c r="C4" s="224"/>
+      <c r="D4" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215" t="s">
+      <c r="E4" s="224"/>
+      <c r="F4" s="224" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="215"/>
+      <c r="G4" s="224"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -7647,36 +7722,36 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="255" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243" t="s">
+      <c r="C5" s="255"/>
+      <c r="D5" s="255" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243" t="s">
+      <c r="E5" s="255"/>
+      <c r="F5" s="255" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="243"/>
+      <c r="G5" s="255"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="244">
+      <c r="B6" s="254">
         <v>0</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244">
+      <c r="C6" s="254"/>
+      <c r="D6" s="254">
         <v>0</v>
       </c>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244">
+      <c r="E6" s="254"/>
+      <c r="F6" s="254">
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
+      <c r="G6" s="254"/>
       <c r="H6" s="89">
         <v>0</v>
       </c>
@@ -7685,18 +7760,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="253" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245" t="s">
+      <c r="C7" s="253"/>
+      <c r="D7" s="253" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245" t="s">
+      <c r="E7" s="253"/>
+      <c r="F7" s="253" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="245"/>
+      <c r="G7" s="253"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -7705,18 +7780,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="253" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="245" t="s">
+      <c r="C8" s="253"/>
+      <c r="D8" s="253" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245" t="s">
+      <c r="E8" s="253"/>
+      <c r="F8" s="253" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="245"/>
+      <c r="G8" s="253"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -7725,18 +7800,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245" t="s">
+      <c r="C9" s="253"/>
+      <c r="D9" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245" t="s">
+      <c r="E9" s="253"/>
+      <c r="F9" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="245"/>
+      <c r="G9" s="253"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -7832,18 +7907,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246" t="s">
+      <c r="C14" s="252"/>
+      <c r="D14" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246" t="s">
+      <c r="E14" s="252"/>
+      <c r="F14" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="246"/>
+      <c r="G14" s="252"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -7852,36 +7927,54 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="246" t="s">
+      <c r="C16" s="252"/>
+      <c r="D16" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="246"/>
-      <c r="F16" s="246" t="s">
+      <c r="E16" s="252"/>
+      <c r="F16" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="246"/>
+      <c r="G16" s="252"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -7891,24 +7984,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -7935,19 +8010,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -8083,10 +8158,10 @@
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="257" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="248"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
@@ -8139,20 +8214,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="256" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -8213,10 +8288,10 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="252">
+      <c r="A4" s="261">
         <v>1</v>
       </c>
-      <c r="B4" s="249">
+      <c r="B4" s="258">
         <v>9931</v>
       </c>
       <c r="C4" s="98" t="s">
@@ -8239,8 +8314,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="253"/>
-      <c r="B5" s="250"/>
+      <c r="A5" s="262"/>
+      <c r="B5" s="259"/>
       <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
@@ -8259,8 +8334,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="254"/>
-      <c r="B6" s="251"/>
+      <c r="A6" s="263"/>
+      <c r="B6" s="260"/>
       <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
@@ -8277,11 +8352,11 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="257" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="257"/>
       <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -8329,63 +8404,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="208" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="208" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="208" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="255" t="s">
+      <c r="E3" s="208"/>
+      <c r="F3" s="264" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="199" t="s">
+      <c r="G3" s="208" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="199" t="s">
+      <c r="H3" s="208" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="199" t="s">
+      <c r="I3" s="208" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="199"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -8401,11 +8476,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="224" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -8417,16 +8492,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="215" t="s">
+      <c r="A7" s="224" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="246" t="s">
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="252" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8474,40 +8549,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="219" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="203"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -8637,52 +8712,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="163" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="163" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -8698,16 +8773,16 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="154"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="256">
+      <c r="A5" s="265">
         <v>1</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="265" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="256">
+      <c r="C5" s="265">
         <v>9931</v>
       </c>
       <c r="D5" s="104" t="s">
@@ -8718,12 +8793,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="258"/>
+      <c r="J5" s="267"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="257"/>
-      <c r="B6" s="257"/>
-      <c r="C6" s="257"/>
+      <c r="A6" s="266"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
       <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
@@ -8732,7 +8807,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="259"/>
+      <c r="J6" s="268"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -8800,38 +8875,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="269" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="269" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
     </row>
     <row r="3" spans="1:13" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:13">
@@ -9003,14 +9078,14 @@
       <c r="M11" s="96"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="261" t="s">
+      <c r="A12" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
       <c r="I12" s="137"/>
@@ -9055,34 +9130,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="269" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="269" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9121,10 +9196,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="265">
+      <c r="A5" s="274">
         <v>1</v>
       </c>
-      <c r="B5" s="264" t="s">
+      <c r="B5" s="273" t="s">
         <v>365</v>
       </c>
       <c r="C5" s="136"/>
@@ -9143,7 +9218,7 @@
       <c r="H5" s="111">
         <v>5000</v>
       </c>
-      <c r="I5" s="266">
+      <c r="I5" s="275">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
@@ -9153,8 +9228,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="265"/>
-      <c r="B6" s="264"/>
+      <c r="A6" s="274"/>
+      <c r="B6" s="273"/>
       <c r="C6" s="136"/>
       <c r="D6" s="14" t="s">
         <v>401</v>
@@ -9171,7 +9246,7 @@
       <c r="H6" s="111">
         <v>5000</v>
       </c>
-      <c r="I6" s="267"/>
+      <c r="I6" s="276"/>
       <c r="J6" s="129"/>
       <c r="K6" s="112">
         <v>241337</v>
@@ -9287,14 +9362,14 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="262"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="263"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="272"/>
       <c r="G14" s="137"/>
       <c r="H14" s="111">
         <f>SUM(H5:H13)</f>
@@ -9343,30 +9418,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="228" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
     </row>
     <row r="3" spans="1:9" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:9">
@@ -9399,13 +9474,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="270">
+      <c r="A5" s="279">
         <v>241062</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="277" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="277" t="s">
         <v>379</v>
       </c>
       <c r="D5" s="139"/>
@@ -9419,15 +9494,15 @@
       <c r="H5" s="115">
         <v>5000</v>
       </c>
-      <c r="I5" s="272">
+      <c r="I5" s="281">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="271"/>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
+      <c r="A6" s="280"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
       <c r="D6" s="140"/>
       <c r="E6" s="118" t="s">
         <v>409</v>
@@ -9437,7 +9512,7 @@
       <c r="H6" s="115">
         <v>5000</v>
       </c>
-      <c r="I6" s="273"/>
+      <c r="I6" s="282"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="60">
@@ -9620,32 +9695,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="228" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9684,16 +9759,16 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="278">
+      <c r="A5" s="287">
         <v>241062</v>
       </c>
-      <c r="B5" s="276" t="s">
+      <c r="B5" s="285" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="276" t="s">
+      <c r="C5" s="285" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="276"/>
+      <c r="D5" s="285"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -9708,16 +9783,16 @@
       <c r="J5" s="108">
         <v>5000</v>
       </c>
-      <c r="K5" s="274">
+      <c r="K5" s="283">
         <f>SUM(J5:J6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="279"/>
-      <c r="B6" s="277"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
+      <c r="A6" s="288"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
       <c r="E6" s="118" t="s">
         <v>415</v>
       </c>
@@ -9730,7 +9805,7 @@
       <c r="J6" s="115">
         <v>5000</v>
       </c>
-      <c r="K6" s="275"/>
+      <c r="K6" s="284"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="60">
@@ -9937,138 +10012,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="172" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="159" t="s">
+      <c r="I3" s="174"/>
+      <c r="J3" s="168" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="160"/>
-      <c r="L3" s="166" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="164"/>
-      <c r="N3" s="159" t="s">
+      <c r="M3" s="173"/>
+      <c r="N3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="160"/>
-      <c r="P3" s="159" t="s">
+      <c r="O3" s="169"/>
+      <c r="P3" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="159" t="s">
+      <c r="Q3" s="169"/>
+      <c r="R3" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="160"/>
-      <c r="T3" s="159" t="s">
+      <c r="S3" s="169"/>
+      <c r="T3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="160"/>
+      <c r="U3" s="169"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="161" t="s">
+      <c r="J4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="162"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="161"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="162"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="171"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -10847,22 +10922,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="228" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="289" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="144" t="s">
@@ -10978,209 +11053,233 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="6" width="12.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="280" t="s">
+    <row r="1" spans="1:7">
+      <c r="G1" s="294" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="290" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="219" t="s">
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="228" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="280" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="290" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-    </row>
-    <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1"/>
-    <row r="5" spans="1:6">
-      <c r="A5" s="126" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+    </row>
+    <row r="5" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="126" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B6" s="208" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C6" s="224" t="s">
         <v>426</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="199" t="s">
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="199" t="s">
+        <v>559</v>
+      </c>
+      <c r="G6" s="208" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="127" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="127" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="120" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D7" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E7" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="199"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="68">
+      <c r="F7" s="200"/>
+      <c r="G7" s="208"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="68">
         <v>240971</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B8" s="123">
         <v>100</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C8" s="122">
         <v>15</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122">
+      <c r="D8" s="122"/>
+      <c r="E8" s="122">
         <v>15</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="68">
+      <c r="F8" s="156"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="68">
         <v>240972</v>
-      </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122">
-        <v>3</v>
-      </c>
-      <c r="E8" s="122">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="68">
-        <v>240973</v>
       </c>
       <c r="B9" s="124"/>
       <c r="C9" s="122"/>
       <c r="D9" s="122">
+        <v>3</v>
+      </c>
+      <c r="E9" s="122">
+        <v>12</v>
+      </c>
+      <c r="F9" s="156"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="68">
+        <v>240973</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122">
         <v>5</v>
       </c>
-      <c r="E9" s="122">
-        <f>E8-D9</f>
+      <c r="E10" s="122">
+        <f>E9-D10</f>
         <v>7</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="68">
+      <c r="F10" s="156"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="68">
         <v>241063</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B11" s="124">
         <v>100.25</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C11" s="122">
         <v>10</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122">
-        <f>E9+C10</f>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122">
+        <f>E10+C11</f>
         <v>17</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="120"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="156"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="120"/>
       <c r="B12" s="125"/>
       <c r="C12" s="120"/>
       <c r="D12" s="120"/>
       <c r="E12" s="120"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="155"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="120"/>
       <c r="B13" s="125"/>
       <c r="C13" s="120"/>
       <c r="D13" s="120"/>
       <c r="E13" s="120"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="155"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="120"/>
       <c r="B14" s="125"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
       <c r="E14" s="120"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="155"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="120"/>
       <c r="B15" s="125"/>
       <c r="C15" s="120"/>
       <c r="D15" s="120"/>
       <c r="E15" s="120"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="155"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="120"/>
       <c r="B16" s="125"/>
       <c r="C16" s="120"/>
       <c r="D16" s="120"/>
       <c r="E16" s="120"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="155"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="120"/>
       <c r="B17" s="125"/>
       <c r="C17" s="120"/>
       <c r="D17" s="120"/>
       <c r="E17" s="120"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="120"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+  <mergeCells count="7">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -11191,8 +11290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -11205,12 +11304,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="291" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="150" t="s">
@@ -11318,10 +11417,10 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="215" t="s">
+      <c r="A17" s="224" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="215"/>
+      <c r="B17" s="224"/>
       <c r="C17" s="124" t="s">
         <v>322</v>
       </c>
@@ -11380,10 +11479,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -11432,111 +11531,2097 @@
         <v>483</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
         <v>485</v>
       </c>
     </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="208" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="264" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="141" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="141" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="199" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>496</v>
+      </c>
+      <c r="H10" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" s="141" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" s="141" t="s">
+        <v>498</v>
+      </c>
+      <c r="K10" s="199" t="s">
+        <v>501</v>
+      </c>
+      <c r="L10" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="199" t="s">
+        <v>503</v>
+      </c>
+      <c r="N10" s="199" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="208"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="142" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="142" t="s">
+        <v>494</v>
+      </c>
+      <c r="F11" s="200"/>
+      <c r="G11" s="142" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>497</v>
+      </c>
+      <c r="I11" s="142" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11" s="142" t="s">
+        <v>500</v>
+      </c>
+      <c r="K11" s="200"/>
+      <c r="L11" s="142" t="s">
+        <v>502</v>
+      </c>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" s="223" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="224"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="160"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="160"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="160"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="160"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="160"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="160"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="M10:M11"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="162" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="290" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+    </row>
+    <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="201" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="199" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>455</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="199" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="126" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" s="199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="203"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="127" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="200"/>
+      <c r="E5" s="127" t="s">
+        <v>456</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>449</v>
+      </c>
+      <c r="I5" s="200"/>
+      <c r="J5" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="K5" s="200"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="122">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="122">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="122">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="122">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="122">
+        <v>5</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="J10" s="122" t="s">
+        <v>474</v>
+      </c>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="122">
+        <v>6</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="120"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="120"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="120"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="120"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="120"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="120"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="120"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="120"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="120"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="120"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="120"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="120"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="120"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="120"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="120"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="162" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="290" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+    </row>
+    <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="201" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="208" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="199" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="F4" s="148" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" s="148" t="s">
+        <v>458</v>
+      </c>
+      <c r="H4" s="148" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="199" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="148" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" s="199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="203"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="149" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="200"/>
+      <c r="E5" s="149" t="s">
+        <v>456</v>
+      </c>
+      <c r="F5" s="149" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="149" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="149" t="s">
+        <v>449</v>
+      </c>
+      <c r="I5" s="200"/>
+      <c r="J5" s="149" t="s">
+        <v>452</v>
+      </c>
+      <c r="K5" s="200"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="146">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I6" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="146">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="G7" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I7" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="146">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I8" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="146">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="G9" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I9" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="146" t="s">
+        <v>473</v>
+      </c>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="146">
+        <v>5</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="G10" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J10" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="146">
+        <v>6</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="146" t="s">
+        <v>476</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="146" t="s">
+        <v>475</v>
+      </c>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="144"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="144"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="144"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="144"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="144"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="144"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="144"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="144"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="144"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="144"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="144"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="144"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="144"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="144"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="144"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="3" customWidth="1"/>
+    <col min="3" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="292" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="228" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="228" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="152" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="152" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="152" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="228" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="228" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="E3" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="143" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="143" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" s="143" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="143" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="222" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="293"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="F17" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>525</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="11.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="228" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+    </row>
+    <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1"/>
+    <row r="3" spans="1:14" ht="43.5">
+      <c r="A3" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="154" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="154" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="154" t="s">
+        <v>531</v>
+      </c>
+      <c r="F3" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="157" t="s">
+        <v>550</v>
+      </c>
+      <c r="H3" s="154" t="s">
+        <v>532</v>
+      </c>
+      <c r="I3" s="154" t="s">
+        <v>533</v>
+      </c>
+      <c r="J3" s="154" t="s">
+        <v>534</v>
+      </c>
+      <c r="K3" s="154" t="s">
+        <v>546</v>
+      </c>
+      <c r="L3" s="157" t="s">
+        <v>549</v>
+      </c>
+      <c r="M3" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="N3" s="154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="199" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="199" t="s">
-        <v>492</v>
-      </c>
-      <c r="C9" s="199" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="141" t="s">
-        <v>426</v>
-      </c>
-      <c r="E9" s="141" t="s">
-        <v>494</v>
-      </c>
-      <c r="F9" s="190" t="s">
-        <v>496</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>497</v>
-      </c>
-      <c r="H9" s="141" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="141" t="s">
-        <v>499</v>
-      </c>
-      <c r="J9" s="141" t="s">
-        <v>499</v>
-      </c>
-      <c r="K9" s="190" t="s">
-        <v>502</v>
-      </c>
-      <c r="L9" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="190" t="s">
-        <v>504</v>
-      </c>
-      <c r="N9" s="190" t="s">
-        <v>505</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="199"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="142" t="s">
-        <v>493</v>
-      </c>
-      <c r="E10" s="142" t="s">
-        <v>495</v>
-      </c>
-      <c r="F10" s="191"/>
-      <c r="G10" s="142" t="s">
-        <v>452</v>
-      </c>
-      <c r="H10" s="142" t="s">
-        <v>498</v>
-      </c>
-      <c r="I10" s="142" t="s">
-        <v>500</v>
-      </c>
-      <c r="J10" s="142" t="s">
-        <v>501</v>
-      </c>
-      <c r="K10" s="191"/>
-      <c r="L10" s="142" t="s">
-        <v>503</v>
-      </c>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7"/>
@@ -11618,1800 +13703,9 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C28" s="214" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="215" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="215"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="284"/>
-      <c r="I29" s="286"/>
-      <c r="J29" s="283"/>
-      <c r="K29" s="286"/>
-      <c r="L29" s="283"/>
-      <c r="M29" s="286"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="284"/>
-      <c r="E30" s="284"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="284"/>
-      <c r="H30" s="284"/>
-      <c r="I30" s="286"/>
-      <c r="J30" s="283"/>
-      <c r="K30" s="286"/>
-      <c r="L30" s="283"/>
-      <c r="M30" s="286"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="283"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="284"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="284"/>
-      <c r="H31" s="284"/>
-      <c r="I31" s="286"/>
-      <c r="J31" s="283"/>
-      <c r="K31" s="286"/>
-      <c r="L31" s="283"/>
-      <c r="M31" s="286"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="283"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="284"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="284"/>
-      <c r="H32" s="284"/>
-      <c r="I32" s="286"/>
-      <c r="J32" s="283"/>
-      <c r="K32" s="286"/>
-      <c r="L32" s="283"/>
-      <c r="M32" s="286"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="283"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="284"/>
-      <c r="F33" s="284"/>
-      <c r="G33" s="284"/>
-      <c r="H33" s="284"/>
-      <c r="I33" s="286"/>
-      <c r="J33" s="283"/>
-      <c r="K33" s="286"/>
-      <c r="L33" s="283"/>
-      <c r="M33" s="286"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="284"/>
-      <c r="H34" s="284"/>
-      <c r="I34" s="286"/>
-      <c r="J34" s="283"/>
-      <c r="K34" s="286"/>
-      <c r="L34" s="283"/>
-      <c r="M34" s="286"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="153" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="280" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-    </row>
-    <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
-    <row r="4" spans="1:10">
-      <c r="A4" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="199" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="126" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="F4" s="126" t="s">
-        <v>458</v>
-      </c>
-      <c r="G4" s="126" t="s">
-        <v>460</v>
-      </c>
-      <c r="H4" s="190" t="s">
-        <v>450</v>
-      </c>
-      <c r="I4" s="126" t="s">
-        <v>451</v>
-      </c>
-      <c r="J4" s="190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="194"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="127" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>456</v>
-      </c>
-      <c r="E5" s="127" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" s="127" t="s">
-        <v>459</v>
-      </c>
-      <c r="G5" s="127" t="s">
-        <v>449</v>
-      </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="127" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="191"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="122">
-        <v>1</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F6" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H6" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I6" s="146" t="s">
-        <v>474</v>
-      </c>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="122">
-        <v>2</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="F7" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H7" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I7" s="146" t="s">
-        <v>474</v>
-      </c>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="122">
-        <v>3</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H8" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I8" s="146" t="s">
-        <v>474</v>
-      </c>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="122">
-        <v>4</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H9" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I9" s="146" t="s">
-        <v>474</v>
-      </c>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="122">
-        <v>5</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H10" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I10" s="122" t="s">
-        <v>474</v>
-      </c>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="122">
-        <v>6</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H11" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="I11" s="122" t="s">
-        <v>475</v>
-      </c>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="120"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="120"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="120"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="120"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="120"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="120"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="120"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="120"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="120"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="120"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="120"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="120"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="120"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="120"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="120"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="153" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="280" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-    </row>
-    <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
-    <row r="4" spans="1:10">
-      <c r="A4" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="199" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="148" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="148" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="148" t="s">
-        <v>453</v>
-      </c>
-      <c r="F4" s="148" t="s">
-        <v>458</v>
-      </c>
-      <c r="G4" s="148" t="s">
-        <v>460</v>
-      </c>
-      <c r="H4" s="190" t="s">
-        <v>450</v>
-      </c>
-      <c r="I4" s="148" t="s">
-        <v>451</v>
-      </c>
-      <c r="J4" s="190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="194"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="149" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="149" t="s">
-        <v>456</v>
-      </c>
-      <c r="E5" s="149" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" s="149" t="s">
-        <v>459</v>
-      </c>
-      <c r="G5" s="149" t="s">
-        <v>449</v>
-      </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="149" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="191"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="146">
-        <v>1</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F6" s="146" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H6" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="I6" s="146" t="s">
-        <v>473</v>
-      </c>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="146">
-        <v>2</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="F7" s="146" t="s">
-        <v>476</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H7" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="I7" s="146" t="s">
-        <v>473</v>
-      </c>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="146">
-        <v>3</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="146" t="s">
-        <v>476</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H8" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="I8" s="146" t="s">
-        <v>473</v>
-      </c>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="146">
-        <v>4</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="F9" s="146" t="s">
-        <v>476</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H9" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="I9" s="146" t="s">
-        <v>473</v>
-      </c>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="146">
-        <v>5</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="146" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H10" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="I10" s="146" t="s">
-        <v>474</v>
-      </c>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="146">
-        <v>6</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="146" t="s">
-        <v>476</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H11" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="I11" s="146" t="s">
-        <v>475</v>
-      </c>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="144"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="144"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="144"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="144"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="144"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="144"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="144"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="144"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="144"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="144"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="144"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="144"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="144"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="144"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="144"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-  </mergeCells>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="3" customWidth="1"/>
-    <col min="3" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="287" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="219" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="219" t="s">
-        <v>513</v>
-      </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1"/>
-    <row r="5" spans="1:10">
-      <c r="A5" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>514</v>
-      </c>
-      <c r="D5" s="144" t="s">
-        <v>425</v>
-      </c>
-      <c r="E5" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="F5" s="144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="219" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="219" t="s">
-        <v>519</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="E3" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
-    <row r="5" spans="1:7">
-      <c r="A5" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="143" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="143" t="s">
-        <v>516</v>
-      </c>
-      <c r="D5" s="143" t="s">
-        <v>517</v>
-      </c>
-      <c r="E5" s="143" t="s">
-        <v>518</v>
-      </c>
-      <c r="F5" s="143" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" s="143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="213" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="285"/>
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D21" s="145" t="s">
-        <v>527</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="219" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-    </row>
-    <row r="2" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
-    <row r="3" spans="1:11">
-      <c r="A3" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>533</v>
-      </c>
-      <c r="D3" s="144" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>534</v>
-      </c>
-      <c r="F3" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="144" t="s">
-        <v>535</v>
-      </c>
-      <c r="H3" s="144" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" s="144" t="s">
-        <v>537</v>
-      </c>
-      <c r="J3" s="144" t="s">
-        <v>538</v>
-      </c>
-      <c r="K3" s="144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -13459,386 +13753,386 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="169" t="s">
+      <c r="E3" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="172"/>
-      <c r="J3" s="169" t="s">
+      <c r="I3" s="179"/>
+      <c r="J3" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="171" t="s">
+      <c r="K3" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="172"/>
-      <c r="M3" s="169" t="s">
+      <c r="L3" s="179"/>
+      <c r="M3" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="171" t="s">
+      <c r="N3" s="185"/>
+      <c r="O3" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="171" t="s">
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="169" t="s">
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="171" t="s">
+      <c r="AF3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="177"/>
-      <c r="AK3" s="177"/>
-      <c r="AL3" s="177"/>
-      <c r="AM3" s="177"/>
-      <c r="AN3" s="177"/>
-      <c r="AO3" s="177"/>
-      <c r="AP3" s="177"/>
-      <c r="AQ3" s="177"/>
-      <c r="AR3" s="172"/>
-      <c r="AS3" s="171" t="s">
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="178"/>
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="178"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="179"/>
+      <c r="AS3" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="177"/>
-      <c r="AU3" s="177"/>
-      <c r="AV3" s="172"/>
-      <c r="AW3" s="169" t="s">
+      <c r="AT3" s="178"/>
+      <c r="AU3" s="178"/>
+      <c r="AV3" s="179"/>
+      <c r="AW3" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="169" t="s">
+      <c r="AX3" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="168" t="s">
+      <c r="AY3" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="169" t="s">
+      <c r="AZ3" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="169" t="s">
+      <c r="BA3" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="169" t="s">
+      <c r="BB3" s="185" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="178"/>
-      <c r="Y4" s="178"/>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="178"/>
-      <c r="AM4" s="178"/>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="175"/>
-      <c r="AT4" s="178"/>
-      <c r="AU4" s="178"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="170"/>
-      <c r="AX4" s="169"/>
-      <c r="AY4" s="168"/>
-      <c r="AZ4" s="170"/>
-      <c r="BA4" s="169"/>
-      <c r="BB4" s="169"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="181"/>
+      <c r="Z4" s="181"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="181"/>
+      <c r="AH4" s="181"/>
+      <c r="AI4" s="181"/>
+      <c r="AJ4" s="181"/>
+      <c r="AK4" s="181"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="181"/>
+      <c r="AN4" s="181"/>
+      <c r="AO4" s="181"/>
+      <c r="AP4" s="181"/>
+      <c r="AQ4" s="181"/>
+      <c r="AR4" s="182"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="181"/>
+      <c r="AU4" s="181"/>
+      <c r="AV4" s="182"/>
+      <c r="AW4" s="190"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="189"/>
+      <c r="AZ4" s="190"/>
+      <c r="BA4" s="185"/>
+      <c r="BB4" s="185"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="169" t="s">
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="169" t="s">
+      <c r="N5" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="169" t="s">
+      <c r="O5" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="169" t="s">
+      <c r="P5" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="169" t="s">
+      <c r="Q5" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="169" t="s">
+      <c r="R5" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="169" t="s">
+      <c r="T5" s="179"/>
+      <c r="U5" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="169" t="s">
+      <c r="V5" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="169" t="s">
+      <c r="W5" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="169" t="s">
+      <c r="X5" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="169" t="s">
+      <c r="Y5" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="169" t="s">
+      <c r="Z5" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="169" t="s">
+      <c r="AA5" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="169" t="s">
+      <c r="AB5" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="171" t="s">
+      <c r="AC5" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="169" t="s">
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="169" t="s">
+      <c r="AG5" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="169" t="s">
+      <c r="AH5" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="179" t="s">
+      <c r="AI5" s="186" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="169" t="s">
+      <c r="AJ5" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="169" t="s">
+      <c r="AK5" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="169" t="s">
+      <c r="AL5" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="169" t="s">
+      <c r="AM5" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="169" t="s">
+      <c r="AN5" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="171" t="s">
+      <c r="AO5" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="171" t="s">
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="172"/>
-      <c r="AS5" s="171" t="s">
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="172"/>
-      <c r="AU5" s="171" t="s">
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="177" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="172"/>
-      <c r="AW5" s="170"/>
-      <c r="AX5" s="169"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="169"/>
-      <c r="BB5" s="169"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="185"/>
+      <c r="AY5" s="189"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="185"/>
+      <c r="BB5" s="185"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="173"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="170"/>
-      <c r="AF6" s="169"/>
-      <c r="AG6" s="169"/>
-      <c r="AH6" s="169"/>
-      <c r="AI6" s="180"/>
-      <c r="AJ6" s="169"/>
-      <c r="AK6" s="169"/>
-      <c r="AL6" s="169"/>
-      <c r="AM6" s="169"/>
-      <c r="AN6" s="169"/>
-      <c r="AO6" s="173"/>
-      <c r="AP6" s="174"/>
-      <c r="AQ6" s="173"/>
-      <c r="AR6" s="174"/>
-      <c r="AS6" s="173"/>
-      <c r="AT6" s="174"/>
-      <c r="AU6" s="173"/>
-      <c r="AV6" s="174"/>
-      <c r="AW6" s="170"/>
-      <c r="AX6" s="169"/>
-      <c r="AY6" s="168"/>
-      <c r="AZ6" s="170"/>
-      <c r="BA6" s="169"/>
-      <c r="BB6" s="169"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="185"/>
+      <c r="V6" s="185"/>
+      <c r="W6" s="185"/>
+      <c r="X6" s="185"/>
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="185"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="190"/>
+      <c r="AF6" s="185"/>
+      <c r="AG6" s="185"/>
+      <c r="AH6" s="185"/>
+      <c r="AI6" s="187"/>
+      <c r="AJ6" s="185"/>
+      <c r="AK6" s="185"/>
+      <c r="AL6" s="185"/>
+      <c r="AM6" s="185"/>
+      <c r="AN6" s="185"/>
+      <c r="AO6" s="183"/>
+      <c r="AP6" s="184"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="184"/>
+      <c r="AS6" s="183"/>
+      <c r="AT6" s="184"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="184"/>
+      <c r="AW6" s="190"/>
+      <c r="AX6" s="185"/>
+      <c r="AY6" s="189"/>
+      <c r="AZ6" s="190"/>
+      <c r="BA6" s="185"/>
+      <c r="BB6" s="185"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="169"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="169"/>
-      <c r="AG7" s="169"/>
-      <c r="AH7" s="169"/>
-      <c r="AI7" s="181"/>
-      <c r="AJ7" s="169"/>
-      <c r="AK7" s="169"/>
-      <c r="AL7" s="169"/>
-      <c r="AM7" s="169"/>
-      <c r="AN7" s="169"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="176"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="175"/>
-      <c r="AT7" s="176"/>
-      <c r="AU7" s="175"/>
-      <c r="AV7" s="176"/>
-      <c r="AW7" s="170"/>
-      <c r="AX7" s="169"/>
-      <c r="AY7" s="168"/>
-      <c r="AZ7" s="170"/>
-      <c r="BA7" s="169"/>
-      <c r="BB7" s="169"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="180"/>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="180"/>
+      <c r="AT7" s="182"/>
+      <c r="AU7" s="180"/>
+      <c r="AV7" s="182"/>
+      <c r="AW7" s="190"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="189"/>
+      <c r="AZ7" s="190"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -14466,41 +14760,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AF3:AR4"/>
-    <mergeCell ref="AQ5:AR7"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="AS5:AT7"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AP7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="H3:I7"/>
-    <mergeCell ref="K3:L7"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="U3:AD4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AD7"/>
     <mergeCell ref="AY3:AY7"/>
     <mergeCell ref="AZ3:AZ7"/>
     <mergeCell ref="BA3:BA7"/>
@@ -14517,6 +14776,41 @@
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="K3:L7"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="U3:AD4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AD7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="AF3:AR4"/>
+    <mergeCell ref="AQ5:AR7"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="AS5:AT7"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AP7"/>
+    <mergeCell ref="AI5:AI7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BC1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -14531,7 +14825,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -14542,17 +14836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="219" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
+      <c r="A1" s="228" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
@@ -14560,61 +14854,61 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="9.9499999999999993" customHeight="1"/>
     <row r="7" spans="1:13" ht="43.5">
       <c r="A7" s="143" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C7" s="143" t="s">
         <v>378</v>
       </c>
       <c r="D7" s="147" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E7" s="143" t="s">
         <v>378</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G7" s="143" t="s">
         <v>378</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I7" s="143" t="s">
         <v>378</v>
@@ -14710,19 +15004,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -14979,121 +15273,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="182" t="s">
+      <c r="E2" s="192"/>
+      <c r="F2" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="182" t="s">
+      <c r="G2" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="182" t="s">
+      <c r="H2" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="182" t="s">
+      <c r="J2" s="192"/>
+      <c r="K2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="182" t="s">
+      <c r="L2" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182" t="s">
+      <c r="N2" s="195"/>
+      <c r="O2" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182" t="s">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="182" t="s">
+      <c r="U2" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="184" t="s">
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="184" t="s">
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="182" t="s">
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="195" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="182" t="s">
+      <c r="AC2" s="195" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="182"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -15115,7 +15409,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="182"/>
+      <c r="T3" s="195"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -15125,12 +15419,12 @@
       <c r="W3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -15382,6 +15676,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Y3"/>
     <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -15398,9 +15695,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -15425,19 +15719,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -15598,78 +15892,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="199" t="s">
+      <c r="C4" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="205" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="197"/>
-      <c r="G4" s="196" t="s">
+      <c r="F4" s="206"/>
+      <c r="G4" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="196" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="198"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="192" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="193"/>
+      <c r="N4" s="202"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="191"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="191"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -15679,19 +15973,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="196" t="s">
+      <c r="H5" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="197"/>
+      <c r="I5" s="206"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="196" t="s">
+      <c r="K5" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="204"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -15822,14 +16116,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="189"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="198"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -15882,61 +16176,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="209" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="203" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -15988,13 +16282,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="211" t="s">
+      <c r="T3" s="220" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -16046,10 +16340,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="211"/>
+      <c r="T4" s="220"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="212">
+      <c r="A5" s="221">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -16075,7 +16369,7 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="22" t="s">
         <v>128</v>
       </c>
@@ -16099,7 +16393,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="202"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="23" t="s">
         <v>127</v>
       </c>
@@ -16123,7 +16417,7 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="200">
+      <c r="A8" s="210">
         <v>241001</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -16149,7 +16443,7 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A9" s="201"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="22" t="s">
         <v>128</v>
       </c>
@@ -16173,7 +16467,7 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A10" s="202"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="24" t="s">
         <v>127</v>
       </c>
@@ -16197,7 +16491,7 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A11" s="200">
+      <c r="A11" s="210">
         <v>241031</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -16223,7 +16517,7 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="201"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="22" t="s">
         <v>128</v>
       </c>
@@ -16247,7 +16541,7 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="202"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="23" t="s">
         <v>127</v>
       </c>
@@ -16271,7 +16565,7 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A14" s="200">
+      <c r="A14" s="210">
         <v>241062</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -16297,7 +16591,7 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="201"/>
+      <c r="A15" s="211"/>
       <c r="B15" s="22" t="s">
         <v>128</v>
       </c>
@@ -16321,7 +16615,7 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="202"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="24" t="s">
         <v>127</v>
       </c>
@@ -16345,7 +16639,7 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A17" s="200">
+      <c r="A17" s="210">
         <v>241093</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -16371,7 +16665,7 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A18" s="201"/>
+      <c r="A18" s="211"/>
       <c r="B18" s="22" t="s">
         <v>128</v>
       </c>
@@ -16395,7 +16689,7 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A19" s="202"/>
+      <c r="A19" s="212"/>
       <c r="B19" s="23" t="s">
         <v>127</v>
       </c>
@@ -16419,7 +16713,7 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A20" s="200">
+      <c r="A20" s="210">
         <v>241122</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -16445,7 +16739,7 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A21" s="201"/>
+      <c r="A21" s="211"/>
       <c r="B21" s="22" t="s">
         <v>128</v>
       </c>
@@ -16469,7 +16763,7 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A22" s="202"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="24" t="s">
         <v>127</v>
       </c>
@@ -16493,7 +16787,7 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A23" s="200">
+      <c r="A23" s="210">
         <v>241153</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -16519,7 +16813,7 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A24" s="201"/>
+      <c r="A24" s="211"/>
       <c r="B24" s="22" t="s">
         <v>128</v>
       </c>
@@ -16543,7 +16837,7 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="202"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="23" t="s">
         <v>127</v>
       </c>
@@ -16567,7 +16861,7 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A26" s="200">
+      <c r="A26" s="210">
         <v>241183</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -16593,7 +16887,7 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A27" s="201"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="22" t="s">
         <v>128</v>
       </c>
@@ -16617,7 +16911,7 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A28" s="202"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="23" t="s">
         <v>127</v>
       </c>
@@ -16641,7 +16935,7 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A29" s="200">
+      <c r="A29" s="210">
         <v>241214</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -16667,7 +16961,7 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A30" s="201"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="22" t="s">
         <v>128</v>
       </c>
@@ -16691,7 +16985,7 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A31" s="202"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="23" t="s">
         <v>127</v>
       </c>
@@ -16715,7 +17009,7 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A32" s="200">
+      <c r="A32" s="210">
         <v>241244</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -16741,7 +17035,7 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A33" s="201"/>
+      <c r="A33" s="211"/>
       <c r="B33" s="22" t="s">
         <v>128</v>
       </c>
@@ -16765,7 +17059,7 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A34" s="202"/>
+      <c r="A34" s="212"/>
       <c r="B34" s="24" t="s">
         <v>127</v>
       </c>
@@ -16789,7 +17083,7 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A35" s="200">
+      <c r="A35" s="210">
         <v>241275</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -16815,7 +17109,7 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A36" s="201"/>
+      <c r="A36" s="211"/>
       <c r="B36" s="22" t="s">
         <v>128</v>
       </c>
@@ -16839,7 +17133,7 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A37" s="202"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="23" t="s">
         <v>127</v>
       </c>
@@ -16863,7 +17157,7 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A38" s="200">
+      <c r="A38" s="210">
         <v>241306</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -16889,7 +17183,7 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A39" s="201"/>
+      <c r="A39" s="211"/>
       <c r="B39" s="22" t="s">
         <v>128</v>
       </c>
@@ -16913,7 +17207,7 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A40" s="201"/>
+      <c r="A40" s="211"/>
       <c r="B40" s="24" t="s">
         <v>127</v>
       </c>
@@ -16937,10 +17231,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="219" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="203"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -16962,13 +17256,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -16979,6 +17266,13 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U1" location="Sheet1!A1" display="Sheet1!A1"/>

--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="31" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="26" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -3845,6 +3845,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3890,33 +3893,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3926,11 +3935,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3944,9 +3950,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3986,18 +3989,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4016,9 +4022,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4058,6 +4061,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4076,36 +4109,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4115,18 +4118,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4240,9 +4243,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4700,34 +4700,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="229" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -4752,18 +4752,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="222" t="s">
+      <c r="E4" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="222" t="s">
+      <c r="F4" s="224"/>
+      <c r="G4" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="224" t="s">
+      <c r="H4" s="224"/>
+      <c r="I4" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="224"/>
+      <c r="J4" s="225"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -5071,11 +5071,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="226" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="228"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -5120,7 +5120,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -5137,46 +5137,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -5191,10 +5191,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -5455,11 +5455,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="206" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="207"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -5486,7 +5486,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -5504,47 +5504,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="230" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="214" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -5554,18 +5554,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="165"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="165" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="164" t="s">
+      <c r="F4" s="166"/>
+      <c r="G4" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="165"/>
+      <c r="H4" s="166"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -5676,10 +5676,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="224"/>
+      <c r="B13" s="225"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -5730,12 +5730,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -5754,10 +5754,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="230"/>
+      <c r="C5" s="231"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -5776,10 +5776,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="230"/>
+      <c r="C10" s="231"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -5864,18 +5864,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="233" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -5884,48 +5884,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="167" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="213" t="s">
+      <c r="G4" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="214"/>
+      <c r="H4" s="216"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="166" t="s">
+      <c r="J4" s="167" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="218"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="220"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -6026,56 +6026,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="167" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="167"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="168"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -6169,59 +6169,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="209" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="241" t="s">
@@ -6234,112 +6234,112 @@
       <c r="G4" s="242"/>
       <c r="H4" s="242"/>
       <c r="I4" s="243"/>
-      <c r="J4" s="244" t="s">
+      <c r="J4" s="234" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="244" t="s">
+      <c r="K4" s="234" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="201" t="s">
+      <c r="L4" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="201" t="s">
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="224" t="s">
+      <c r="Q4" s="203"/>
+      <c r="R4" s="225" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="224"/>
+      <c r="S4" s="225"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="208"/>
-      <c r="B5" s="208" t="s">
+      <c r="A5" s="209"/>
+      <c r="B5" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="208" t="s">
+      <c r="D5" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="199" t="s">
+      <c r="F5" s="200" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="199" t="s">
+      <c r="G5" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="H5" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="208"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="245"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="204"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="205"/>
       <c r="P5" s="239"/>
       <c r="Q5" s="240"/>
-      <c r="R5" s="208" t="s">
+      <c r="R5" s="209" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="208" t="s">
+      <c r="S5" s="209" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="208" t="s">
+      <c r="T5" s="209" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="208"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="246"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="205" t="s">
+      <c r="A6" s="209"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="206" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="206"/>
-      <c r="N6" s="205" t="s">
+      <c r="M6" s="207"/>
+      <c r="N6" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="206"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="237">
+      <c r="A7" s="248">
         <v>1</v>
       </c>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="248" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="237"/>
-      <c r="E7" s="233" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="244" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -6355,15 +6355,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="238"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="236"/>
-      <c r="I8" s="236"/>
+      <c r="A8" s="249"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -6471,11 +6471,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P4:Q6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -6492,15 +6496,11 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L4:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -6528,46 +6528,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="163" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -6727,46 +6727,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="252" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251" t="s">
+      <c r="C4" s="252"/>
+      <c r="D4" s="252" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251" t="s">
+      <c r="E4" s="252"/>
+      <c r="F4" s="252" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="251"/>
-      <c r="H4" s="249" t="s">
+      <c r="G4" s="252"/>
+      <c r="H4" s="250" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="249" t="s">
+      <c r="I4" s="250" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="251" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="250" t="s">
+      <c r="C5" s="252"/>
+      <c r="D5" s="251" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250" t="s">
+      <c r="E5" s="251"/>
+      <c r="F5" s="251" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="250"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="249"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -6785,8 +6785,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="250"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -6810,8 +6810,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -7017,19 +7017,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="225" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="225" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224" t="s">
+      <c r="E4" s="225"/>
+      <c r="F4" s="225" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="224"/>
-      <c r="H4" s="199" t="s">
+      <c r="G4" s="225"/>
+      <c r="H4" s="200" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="200"/>
+      <c r="H5" s="201"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7236,81 +7236,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="167" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="165" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="166" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="163"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="165"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="165"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -7667,8 +7667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -7702,18 +7702,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="225" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224" t="s">
+      <c r="C4" s="225"/>
+      <c r="D4" s="225" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224" t="s">
+      <c r="E4" s="225"/>
+      <c r="F4" s="225" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="224"/>
+      <c r="G4" s="225"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -7722,18 +7722,18 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="255" t="s">
+      <c r="B5" s="253" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255" t="s">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255" t="s">
+      <c r="E5" s="253"/>
+      <c r="F5" s="253" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="255"/>
+      <c r="G5" s="253"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
@@ -7760,18 +7760,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253" t="s">
+      <c r="C7" s="255"/>
+      <c r="D7" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253" t="s">
+      <c r="E7" s="255"/>
+      <c r="F7" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="253"/>
+      <c r="G7" s="255"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -7780,18 +7780,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="255" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253" t="s">
+      <c r="C8" s="255"/>
+      <c r="D8" s="255" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253" t="s">
+      <c r="E8" s="255"/>
+      <c r="F8" s="255" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="253"/>
+      <c r="G8" s="255"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -7800,18 +7800,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="253" t="s">
+      <c r="B9" s="255" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253" t="s">
+      <c r="C9" s="255"/>
+      <c r="D9" s="255" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253" t="s">
+      <c r="E9" s="255"/>
+      <c r="F9" s="255" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="253"/>
+      <c r="G9" s="255"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -7907,18 +7907,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="252" t="s">
+      <c r="B14" s="256" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252" t="s">
+      <c r="C14" s="256"/>
+      <c r="D14" s="256" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252" t="s">
+      <c r="E14" s="256"/>
+      <c r="F14" s="256" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="252"/>
+      <c r="G14" s="256"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -7927,54 +7927,36 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="252" t="s">
+      <c r="B16" s="256" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="252"/>
-      <c r="D16" s="252" t="s">
+      <c r="C16" s="256"/>
+      <c r="D16" s="256" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="252"/>
-      <c r="F16" s="252" t="s">
+      <c r="E16" s="256"/>
+      <c r="F16" s="256" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="252"/>
+      <c r="G16" s="256"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -7984,6 +7966,24 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -8010,19 +8010,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="257" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -8158,10 +8158,10 @@
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="257" t="s">
+      <c r="A7" s="258" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="257"/>
+      <c r="B7" s="258"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
@@ -8214,20 +8214,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="257" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -8288,10 +8288,10 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="261">
+      <c r="A4" s="262">
         <v>1</v>
       </c>
-      <c r="B4" s="258">
+      <c r="B4" s="259">
         <v>9931</v>
       </c>
       <c r="C4" s="98" t="s">
@@ -8314,8 +8314,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="262"/>
-      <c r="B5" s="259"/>
+      <c r="A5" s="263"/>
+      <c r="B5" s="260"/>
       <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
@@ -8334,8 +8334,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="263"/>
-      <c r="B6" s="260"/>
+      <c r="A6" s="264"/>
+      <c r="B6" s="261"/>
       <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
@@ -8352,11 +8352,11 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="257" t="s">
+      <c r="A7" s="258" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="257"/>
-      <c r="C7" s="257"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
       <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -8404,63 +8404,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="209" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="209" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="209" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="208"/>
-      <c r="F3" s="264" t="s">
+      <c r="E3" s="209"/>
+      <c r="F3" s="265" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="208" t="s">
+      <c r="G3" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="208" t="s">
+      <c r="H3" s="209" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="208" t="s">
+      <c r="I3" s="209" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="208"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -8476,11 +8476,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="225" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -8492,16 +8492,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="224" t="s">
+      <c r="A7" s="225" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="252" t="s">
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="256" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8549,40 +8549,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="213" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219" t="s">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219" t="s">
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="219"/>
+      <c r="J3" s="213"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -8712,52 +8712,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="164" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="164" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="164" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163" t="s">
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -8773,16 +8773,16 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="163"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="265">
+      <c r="A5" s="266">
         <v>1</v>
       </c>
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="266" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="265">
+      <c r="C5" s="266">
         <v>9931</v>
       </c>
       <c r="D5" s="104" t="s">
@@ -8793,12 +8793,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="267"/>
+      <c r="J5" s="268"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="266"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="266"/>
+      <c r="A6" s="267"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
       <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="268"/>
+      <c r="J6" s="269"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -8875,38 +8875,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
     </row>
     <row r="3" spans="1:13" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:13">
@@ -9078,14 +9078,14 @@
       <c r="M11" s="96"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="270" t="s">
+      <c r="A12" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="271"/>
-      <c r="C12" s="271"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="272"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="273"/>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
       <c r="I12" s="137"/>
@@ -9130,34 +9130,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9196,10 +9196,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="274">
+      <c r="A5" s="275">
         <v>1</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="274" t="s">
         <v>365</v>
       </c>
       <c r="C5" s="136"/>
@@ -9218,7 +9218,7 @@
       <c r="H5" s="111">
         <v>5000</v>
       </c>
-      <c r="I5" s="275">
+      <c r="I5" s="276">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
@@ -9228,8 +9228,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="274"/>
-      <c r="B6" s="273"/>
+      <c r="A6" s="275"/>
+      <c r="B6" s="274"/>
       <c r="C6" s="136"/>
       <c r="D6" s="14" t="s">
         <v>401</v>
@@ -9246,7 +9246,7 @@
       <c r="H6" s="111">
         <v>5000</v>
       </c>
-      <c r="I6" s="276"/>
+      <c r="I6" s="277"/>
       <c r="J6" s="129"/>
       <c r="K6" s="112">
         <v>241337</v>
@@ -9362,14 +9362,14 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="270" t="s">
+      <c r="A14" s="271" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="271"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="272"/>
+      <c r="B14" s="272"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="272"/>
+      <c r="F14" s="273"/>
       <c r="G14" s="137"/>
       <c r="H14" s="111">
         <f>SUM(H5:H13)</f>
@@ -9418,30 +9418,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
     </row>
     <row r="3" spans="1:9" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:9">
@@ -9474,13 +9474,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="279">
+      <c r="A5" s="280">
         <v>241062</v>
       </c>
-      <c r="B5" s="277" t="s">
+      <c r="B5" s="278" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="277" t="s">
+      <c r="C5" s="278" t="s">
         <v>379</v>
       </c>
       <c r="D5" s="139"/>
@@ -9494,15 +9494,15 @@
       <c r="H5" s="115">
         <v>5000</v>
       </c>
-      <c r="I5" s="281">
+      <c r="I5" s="282">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="280"/>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
+      <c r="A6" s="281"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
       <c r="D6" s="140"/>
       <c r="E6" s="118" t="s">
         <v>409</v>
@@ -9512,7 +9512,7 @@
       <c r="H6" s="115">
         <v>5000</v>
       </c>
-      <c r="I6" s="282"/>
+      <c r="I6" s="283"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="60">
@@ -9695,32 +9695,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9759,16 +9759,16 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="287">
+      <c r="A5" s="288">
         <v>241062</v>
       </c>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="286" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="286" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="285"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -9783,16 +9783,16 @@
       <c r="J5" s="108">
         <v>5000</v>
       </c>
-      <c r="K5" s="283">
+      <c r="K5" s="284">
         <f>SUM(J5:J6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="288"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
+      <c r="A6" s="289"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
       <c r="E6" s="118" t="s">
         <v>415</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="J6" s="115">
         <v>5000</v>
       </c>
-      <c r="K6" s="284"/>
+      <c r="K6" s="285"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="60">
@@ -10012,138 +10012,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="173" t="s">
+      <c r="F3" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="168" t="s">
+      <c r="I3" s="175"/>
+      <c r="J3" s="169" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="169"/>
-      <c r="L3" s="175" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="173"/>
-      <c r="N3" s="168" t="s">
+      <c r="M3" s="174"/>
+      <c r="N3" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="169"/>
-      <c r="P3" s="168" t="s">
+      <c r="O3" s="170"/>
+      <c r="P3" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="168" t="s">
+      <c r="Q3" s="170"/>
+      <c r="R3" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="169"/>
-      <c r="T3" s="168" t="s">
+      <c r="S3" s="170"/>
+      <c r="T3" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="169"/>
+      <c r="U3" s="170"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="170" t="s">
+      <c r="J4" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="171"/>
+      <c r="K4" s="172"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="172"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -10922,22 +10922,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="290" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="144" t="s">
@@ -11068,60 +11068,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="G1" s="294" t="s">
+      <c r="G1" s="162" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="291" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="229" t="s">
         <v>420</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="291" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
     </row>
     <row r="5" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
     <row r="6" spans="1:7">
       <c r="A6" s="126" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="209" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="225" t="s">
         <v>426</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="199" t="s">
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="200" t="s">
         <v>559</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="G6" s="209" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="A7" s="127" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="208"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="120" t="s">
         <v>132</v>
       </c>
@@ -11139,8 +11139,8 @@
       <c r="E7" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="200"/>
-      <c r="G7" s="208"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="68">
@@ -11304,12 +11304,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="292" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="150" t="s">
@@ -11417,10 +11417,10 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="224" t="s">
+      <c r="A17" s="225" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="224"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="124" t="s">
         <v>322</v>
       </c>
@@ -11481,8 +11481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -11569,13 +11569,13 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="209" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="265" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="209" t="s">
         <v>131</v>
       </c>
       <c r="D10" s="141" t="s">
@@ -11584,7 +11584,7 @@
       <c r="E10" s="141" t="s">
         <v>493</v>
       </c>
-      <c r="F10" s="199" t="s">
+      <c r="F10" s="200" t="s">
         <v>495</v>
       </c>
       <c r="G10" s="141" t="s">
@@ -11599,30 +11599,30 @@
       <c r="J10" s="141" t="s">
         <v>498</v>
       </c>
-      <c r="K10" s="199" t="s">
+      <c r="K10" s="200" t="s">
         <v>501</v>
       </c>
       <c r="L10" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="199" t="s">
+      <c r="M10" s="200" t="s">
         <v>503</v>
       </c>
-      <c r="N10" s="199" t="s">
+      <c r="N10" s="200" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="208"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="208"/>
+      <c r="A11" s="209"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="209"/>
       <c r="D11" s="142" t="s">
         <v>492</v>
       </c>
       <c r="E11" s="142" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="200"/>
+      <c r="F11" s="201"/>
       <c r="G11" s="142" t="s">
         <v>452</v>
       </c>
@@ -11635,12 +11635,12 @@
       <c r="J11" s="142" t="s">
         <v>500</v>
       </c>
-      <c r="K11" s="200"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="142" t="s">
         <v>502</v>
       </c>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7"/>
@@ -11814,23 +11814,23 @@
       <c r="B29" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C29" s="223" t="s">
+      <c r="C29" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224" t="s">
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="225"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="225" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224" t="s">
+      <c r="K29" s="225"/>
+      <c r="L29" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="224"/>
+      <c r="M29" s="225"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7"/>
@@ -11963,47 +11963,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="291" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
     </row>
     <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="202" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="126" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="200" t="s">
         <v>414</v>
       </c>
       <c r="E4" s="126" t="s">
@@ -12018,23 +12018,23 @@
       <c r="H4" s="126" t="s">
         <v>460</v>
       </c>
-      <c r="I4" s="199" t="s">
+      <c r="I4" s="200" t="s">
         <v>450</v>
       </c>
       <c r="J4" s="126" t="s">
         <v>451</v>
       </c>
-      <c r="K4" s="199" t="s">
+      <c r="K4" s="200" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="203"/>
-      <c r="B5" s="208"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="127" t="s">
         <v>457</v>
       </c>
-      <c r="D5" s="200"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="127" t="s">
         <v>456</v>
       </c>
@@ -12047,11 +12047,11 @@
       <c r="H5" s="127" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="127" t="s">
         <v>452</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="122">
@@ -12472,47 +12472,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="291" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
     </row>
     <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="202" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="148" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="200" t="s">
         <v>408</v>
       </c>
       <c r="E4" s="148" t="s">
@@ -12527,23 +12527,23 @@
       <c r="H4" s="148" t="s">
         <v>460</v>
       </c>
-      <c r="I4" s="199" t="s">
+      <c r="I4" s="200" t="s">
         <v>450</v>
       </c>
       <c r="J4" s="148" t="s">
         <v>451</v>
       </c>
-      <c r="K4" s="199" t="s">
+      <c r="K4" s="200" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="203"/>
-      <c r="B5" s="208"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="149" t="s">
         <v>457</v>
       </c>
-      <c r="D5" s="200"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="149" t="s">
         <v>456</v>
       </c>
@@ -12556,11 +12556,11 @@
       <c r="H5" s="149" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="200"/>
+      <c r="I5" s="201"/>
       <c r="J5" s="149" t="s">
         <v>452</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="146">
@@ -12962,8 +12962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -12975,42 +12975,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="293" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
       <c r="G1" s="161"/>
       <c r="H1" s="161"/>
       <c r="I1" s="161"/>
       <c r="J1" s="161"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="229" t="s">
         <v>511</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="229" t="s">
         <v>512</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -13198,7 +13198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -13213,26 +13213,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="229" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="3" t="s">
@@ -13309,13 +13309,13 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="293"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="223"/>
+      <c r="B11" s="294"/>
+      <c r="C11" s="294"/>
+      <c r="D11" s="294"/>
+      <c r="E11" s="224"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>131</v>
@@ -13429,7 +13429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -13449,22 +13449,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1"/>
     <row r="3" spans="1:14" ht="43.5">
@@ -13753,316 +13753,316 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="185" t="s">
+      <c r="E3" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="185" t="s">
+      <c r="F3" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="185" t="s">
+      <c r="G3" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="179"/>
-      <c r="J3" s="185" t="s">
+      <c r="I3" s="182"/>
+      <c r="J3" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="185" t="s">
+      <c r="L3" s="182"/>
+      <c r="M3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="185"/>
-      <c r="O3" s="177" t="s">
+      <c r="N3" s="179"/>
+      <c r="O3" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="177" t="s">
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="185" t="s">
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="187"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="177" t="s">
+      <c r="AF3" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="178"/>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="178"/>
-      <c r="AJ3" s="178"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="178"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="179"/>
-      <c r="AS3" s="177" t="s">
+      <c r="AG3" s="187"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="187"/>
+      <c r="AJ3" s="187"/>
+      <c r="AK3" s="187"/>
+      <c r="AL3" s="187"/>
+      <c r="AM3" s="187"/>
+      <c r="AN3" s="187"/>
+      <c r="AO3" s="187"/>
+      <c r="AP3" s="187"/>
+      <c r="AQ3" s="187"/>
+      <c r="AR3" s="182"/>
+      <c r="AS3" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="178"/>
-      <c r="AU3" s="178"/>
-      <c r="AV3" s="179"/>
-      <c r="AW3" s="185" t="s">
+      <c r="AT3" s="187"/>
+      <c r="AU3" s="187"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="185" t="s">
+      <c r="AX3" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="189" t="s">
+      <c r="AY3" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="185" t="s">
+      <c r="AZ3" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="185" t="s">
+      <c r="BA3" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="185" t="s">
+      <c r="BB3" s="179" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
       <c r="H4" s="183"/>
       <c r="I4" s="184"/>
-      <c r="J4" s="185"/>
+      <c r="J4" s="179"/>
       <c r="K4" s="183"/>
       <c r="L4" s="184"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="181"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="182"/>
-      <c r="AE4" s="190"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="181"/>
-      <c r="AI4" s="181"/>
-      <c r="AJ4" s="181"/>
-      <c r="AK4" s="181"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="181"/>
-      <c r="AN4" s="181"/>
-      <c r="AO4" s="181"/>
-      <c r="AP4" s="181"/>
-      <c r="AQ4" s="181"/>
-      <c r="AR4" s="182"/>
-      <c r="AS4" s="180"/>
-      <c r="AT4" s="181"/>
-      <c r="AU4" s="181"/>
-      <c r="AV4" s="182"/>
-      <c r="AW4" s="190"/>
-      <c r="AX4" s="185"/>
-      <c r="AY4" s="189"/>
-      <c r="AZ4" s="190"/>
-      <c r="BA4" s="185"/>
-      <c r="BB4" s="185"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="180"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="188"/>
+      <c r="AH4" s="188"/>
+      <c r="AI4" s="188"/>
+      <c r="AJ4" s="188"/>
+      <c r="AK4" s="188"/>
+      <c r="AL4" s="188"/>
+      <c r="AM4" s="188"/>
+      <c r="AN4" s="188"/>
+      <c r="AO4" s="188"/>
+      <c r="AP4" s="188"/>
+      <c r="AQ4" s="188"/>
+      <c r="AR4" s="186"/>
+      <c r="AS4" s="185"/>
+      <c r="AT4" s="188"/>
+      <c r="AU4" s="188"/>
+      <c r="AV4" s="186"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="179"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="180"/>
+      <c r="BA4" s="179"/>
+      <c r="BB4" s="179"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="183"/>
       <c r="I5" s="184"/>
-      <c r="J5" s="185"/>
+      <c r="J5" s="179"/>
       <c r="K5" s="183"/>
       <c r="L5" s="184"/>
-      <c r="M5" s="185" t="s">
+      <c r="M5" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="185" t="s">
+      <c r="N5" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="185" t="s">
+      <c r="O5" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="185" t="s">
+      <c r="P5" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="185" t="s">
+      <c r="Q5" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="185" t="s">
+      <c r="R5" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="177" t="s">
+      <c r="S5" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="179"/>
-      <c r="U5" s="185" t="s">
+      <c r="T5" s="182"/>
+      <c r="U5" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="185" t="s">
+      <c r="V5" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="185" t="s">
+      <c r="W5" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="185" t="s">
+      <c r="X5" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="185" t="s">
+      <c r="Y5" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="185" t="s">
+      <c r="Z5" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="185" t="s">
+      <c r="AA5" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="185" t="s">
+      <c r="AB5" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="177" t="s">
+      <c r="AC5" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="185" t="s">
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="185" t="s">
+      <c r="AG5" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="185" t="s">
+      <c r="AH5" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="186" t="s">
+      <c r="AI5" s="189" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="185" t="s">
+      <c r="AJ5" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="185" t="s">
+      <c r="AK5" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="185" t="s">
+      <c r="AL5" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="185" t="s">
+      <c r="AM5" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="185" t="s">
+      <c r="AN5" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="177" t="s">
+      <c r="AO5" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="177" t="s">
+      <c r="AP5" s="182"/>
+      <c r="AQ5" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="179"/>
-      <c r="AS5" s="177" t="s">
+      <c r="AR5" s="182"/>
+      <c r="AS5" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="179"/>
-      <c r="AU5" s="177" t="s">
+      <c r="AT5" s="182"/>
+      <c r="AU5" s="181" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="179"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="185"/>
-      <c r="AY5" s="189"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="185"/>
-      <c r="BB5" s="185"/>
+      <c r="AV5" s="182"/>
+      <c r="AW5" s="180"/>
+      <c r="AX5" s="179"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="180"/>
+      <c r="BA5" s="179"/>
+      <c r="BB5" s="179"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
       <c r="H6" s="183"/>
       <c r="I6" s="184"/>
-      <c r="J6" s="185"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="183"/>
       <c r="L6" s="184"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
       <c r="S6" s="183"/>
       <c r="T6" s="184"/>
-      <c r="U6" s="185"/>
-      <c r="V6" s="185"/>
-      <c r="W6" s="185"/>
-      <c r="X6" s="185"/>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="185"/>
-      <c r="AA6" s="185"/>
-      <c r="AB6" s="185"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="179"/>
+      <c r="X6" s="179"/>
+      <c r="Y6" s="179"/>
+      <c r="Z6" s="179"/>
+      <c r="AA6" s="179"/>
+      <c r="AB6" s="179"/>
       <c r="AC6" s="183"/>
       <c r="AD6" s="184"/>
-      <c r="AE6" s="190"/>
-      <c r="AF6" s="185"/>
-      <c r="AG6" s="185"/>
-      <c r="AH6" s="185"/>
-      <c r="AI6" s="187"/>
-      <c r="AJ6" s="185"/>
-      <c r="AK6" s="185"/>
-      <c r="AL6" s="185"/>
-      <c r="AM6" s="185"/>
-      <c r="AN6" s="185"/>
+      <c r="AE6" s="180"/>
+      <c r="AF6" s="179"/>
+      <c r="AG6" s="179"/>
+      <c r="AH6" s="179"/>
+      <c r="AI6" s="190"/>
+      <c r="AJ6" s="179"/>
+      <c r="AK6" s="179"/>
+      <c r="AL6" s="179"/>
+      <c r="AM6" s="179"/>
+      <c r="AN6" s="179"/>
       <c r="AO6" s="183"/>
       <c r="AP6" s="184"/>
       <c r="AQ6" s="183"/>
@@ -14071,68 +14071,68 @@
       <c r="AT6" s="184"/>
       <c r="AU6" s="183"/>
       <c r="AV6" s="184"/>
-      <c r="AW6" s="190"/>
-      <c r="AX6" s="185"/>
-      <c r="AY6" s="189"/>
-      <c r="AZ6" s="190"/>
-      <c r="BA6" s="185"/>
-      <c r="BB6" s="185"/>
+      <c r="AW6" s="180"/>
+      <c r="AX6" s="179"/>
+      <c r="AY6" s="178"/>
+      <c r="AZ6" s="180"/>
+      <c r="BA6" s="179"/>
+      <c r="BB6" s="179"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="182"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="185"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
-      <c r="AN7" s="185"/>
-      <c r="AO7" s="180"/>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="182"/>
-      <c r="AS7" s="180"/>
-      <c r="AT7" s="182"/>
-      <c r="AU7" s="180"/>
-      <c r="AV7" s="182"/>
-      <c r="AW7" s="190"/>
-      <c r="AX7" s="185"/>
-      <c r="AY7" s="189"/>
-      <c r="AZ7" s="190"/>
-      <c r="BA7" s="185"/>
-      <c r="BB7" s="185"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="191"/>
+      <c r="AJ7" s="179"/>
+      <c r="AK7" s="179"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="179"/>
+      <c r="AN7" s="179"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="186"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="186"/>
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="186"/>
+      <c r="AU7" s="185"/>
+      <c r="AV7" s="186"/>
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="179"/>
+      <c r="AY7" s="178"/>
+      <c r="AZ7" s="180"/>
+      <c r="BA7" s="179"/>
+      <c r="BB7" s="179"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -14760,6 +14760,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="AF3:AR4"/>
+    <mergeCell ref="AQ5:AR7"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="AS5:AT7"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AP7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="K3:L7"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="U3:AD4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AD7"/>
     <mergeCell ref="AY3:AY7"/>
     <mergeCell ref="AZ3:AZ7"/>
     <mergeCell ref="BA3:BA7"/>
@@ -14776,41 +14811,6 @@
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="H3:I7"/>
-    <mergeCell ref="K3:L7"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="U3:AD4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AD7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="AF3:AR4"/>
-    <mergeCell ref="AQ5:AR7"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="AS5:AT7"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AP7"/>
-    <mergeCell ref="AI5:AI7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BC1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -14836,17 +14836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
@@ -15004,19 +15004,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -15273,121 +15273,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="196"/>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="196"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="195" t="s">
+      <c r="E2" s="194"/>
+      <c r="F2" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="191" t="s">
+      <c r="I2" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="192"/>
-      <c r="K2" s="195" t="s">
+      <c r="J2" s="194"/>
+      <c r="K2" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="195" t="s">
+      <c r="M2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195" t="s">
+      <c r="N2" s="192"/>
+      <c r="O2" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195" t="s">
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="195" t="s">
+      <c r="U2" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="191" t="s">
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="191" t="s">
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="195" t="s">
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="195" t="s">
+      <c r="AC2" s="192" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="195"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -15409,7 +15409,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="195"/>
+      <c r="T3" s="192"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -15419,12 +15419,12 @@
       <c r="W3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -15676,11 +15676,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y3"/>
-    <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="A1:AC1"/>
@@ -15695,6 +15690,11 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:AA3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -15719,19 +15719,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -15892,78 +15892,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="200" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="206"/>
-      <c r="G4" s="205" t="s">
+      <c r="F4" s="207"/>
+      <c r="G4" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="205" t="s">
+      <c r="H4" s="208"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="201" t="s">
+      <c r="K4" s="208"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="202"/>
+      <c r="N4" s="203"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="200"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="200"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -15973,19 +15973,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="205" t="s">
+      <c r="H5" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="206"/>
+      <c r="I5" s="207"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="205" t="s">
+      <c r="K5" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="206"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="205"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -16116,14 +16116,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="198" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="199"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -16176,61 +16176,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="214" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="215" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="219" t="s">
+      <c r="B2" s="216"/>
+      <c r="C2" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="219"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="215"/>
-      <c r="B3" s="216"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="218"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -16282,13 +16282,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="220" t="s">
+      <c r="T3" s="221" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="217"/>
-      <c r="B4" s="218"/>
+      <c r="A4" s="219"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -16340,10 +16340,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="220"/>
+      <c r="T4" s="221"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="221">
+      <c r="A5" s="222">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -17231,10 +17231,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="219" t="s">
+      <c r="A41" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="219"/>
+      <c r="B41" s="213"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -17256,6 +17256,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -17266,13 +17273,6 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U1" location="Sheet1!A1" display="Sheet1!A1"/>

--- a/ReportALL ERP 60.xlsx
+++ b/ReportALL ERP 60.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="26" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6060" tabRatio="854" firstSheet="27" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="565">
   <si>
     <t>ที่</t>
   </si>
@@ -2979,9 +2979,6 @@
       </rPr>
       <t>xxxxxxxxxxxxx</t>
     </r>
-  </si>
-  <si>
-    <t>1/2</t>
   </si>
   <si>
     <t>ชื่อผู้รับ/เบิก</t>
@@ -3436,7 +3433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3845,9 +3842,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3893,51 +3887,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3950,9 +3947,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3989,6 +3983,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3998,30 +3995,27 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4061,6 +4055,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4076,39 +4103,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4118,18 +4112,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4211,12 +4205,6 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4242,6 +4230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4700,34 +4691,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
     </row>
     <row r="3" spans="1:14" ht="5.0999999999999996" customHeight="1">
       <c r="A3" s="4"/>
@@ -4752,18 +4743,18 @@
       <c r="D4" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="223" t="s">
+      <c r="E4" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="224"/>
-      <c r="G4" s="223" t="s">
+      <c r="F4" s="223"/>
+      <c r="G4" s="222" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="225" t="s">
+      <c r="H4" s="223"/>
+      <c r="I4" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="225"/>
+      <c r="J4" s="224"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -5071,11 +5062,11 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="226" t="s">
+      <c r="B22" s="225" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="227"/>
-      <c r="D22" s="228"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="52">
         <f t="shared" ref="E22:J22" si="0">SUM(E5:E21)</f>
         <v>2000</v>
@@ -5120,7 +5111,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -5137,46 +5128,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="26" t="s">
@@ -5191,10 +5182,10 @@
       <c r="E5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="165" t="s">
+      <c r="F5" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="166"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
@@ -5455,11 +5446,11 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="36"/>
@@ -5504,47 +5495,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="229" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="229" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
@@ -5554,18 +5545,18 @@
       <c r="B4" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="165" t="s">
+      <c r="D4" s="165"/>
+      <c r="E4" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="166"/>
+      <c r="H4" s="165"/>
       <c r="I4" s="42" t="s">
         <v>8</v>
       </c>
@@ -5676,10 +5667,10 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="225" t="s">
+      <c r="A13" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="225"/>
+      <c r="B13" s="224"/>
       <c r="C13" s="55">
         <f>SUM(C5:C12)</f>
         <v>40000</v>
@@ -5717,7 +5708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -5730,12 +5721,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="231" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="32"/>
       <c r="F2" s="44" t="s">
         <v>203</v>
@@ -5754,10 +5745,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="231"/>
+      <c r="C5" s="230"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="62" t="s">
@@ -5776,10 +5767,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="230" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="231"/>
+      <c r="C10" s="230"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="30" t="s">
@@ -5864,18 +5855,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="232" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
@@ -5884,48 +5875,48 @@
       <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="163" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="214"/>
       <c r="I4" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="167" t="s">
+      <c r="J4" s="166" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="220"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="218"/>
       <c r="I5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="168"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="27"/>
@@ -6012,7 +6003,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -6026,56 +6017,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
       <c r="H1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
     </row>
     <row r="3" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:8">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="166" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1">
-      <c r="A5" s="164"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="168"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="167"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="27"/>
@@ -6145,8 +6136,8 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -6169,59 +6160,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
       <c r="V1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
     </row>
     <row r="3" spans="1:22" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="241" t="s">
@@ -6234,112 +6225,112 @@
       <c r="G4" s="242"/>
       <c r="H4" s="242"/>
       <c r="I4" s="243"/>
-      <c r="J4" s="234" t="s">
+      <c r="J4" s="244" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="234" t="s">
+      <c r="K4" s="244" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="202" t="s">
+      <c r="L4" s="201" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="202" t="s">
+      <c r="M4" s="247"/>
+      <c r="N4" s="247"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="225" t="s">
+      <c r="Q4" s="202"/>
+      <c r="R4" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="225"/>
+      <c r="S4" s="224"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A5" s="209"/>
-      <c r="B5" s="209" t="s">
+      <c r="A5" s="208"/>
+      <c r="B5" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="208" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="208" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="200" t="s">
+      <c r="F5" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="200" t="s">
+      <c r="G5" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="209" t="s">
+      <c r="H5" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="209"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="238"/>
-      <c r="O5" s="205"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="245"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="204"/>
       <c r="P5" s="239"/>
       <c r="Q5" s="240"/>
-      <c r="R5" s="209" t="s">
+      <c r="R5" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="209" t="s">
+      <c r="S5" s="208" t="s">
         <v>159</v>
       </c>
-      <c r="T5" s="209" t="s">
+      <c r="T5" s="208" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="209"/>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="206" t="s">
+      <c r="A6" s="208"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="207"/>
-      <c r="N6" s="206" t="s">
+      <c r="M6" s="206"/>
+      <c r="N6" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="207"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="205"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
     </row>
     <row r="7" spans="1:22" ht="43.5" customHeight="1">
-      <c r="A7" s="248">
+      <c r="A7" s="237">
         <v>1</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="237"/>
+      <c r="C7" s="237" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="248"/>
-      <c r="E7" s="244" t="s">
+      <c r="D7" s="237"/>
+      <c r="E7" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
       <c r="J7" s="80" t="s">
         <v>156</v>
       </c>
@@ -6355,15 +6346,15 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="249"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
       <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
@@ -6471,15 +6462,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L4:O5"/>
     <mergeCell ref="P4:Q6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -6496,11 +6483,15 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -6528,46 +6519,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="4" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="5" spans="1:11" ht="43.5">
@@ -6698,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -6727,46 +6718,46 @@
       <c r="A4" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="251" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252" t="s">
+      <c r="C4" s="251"/>
+      <c r="D4" s="251" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252" t="s">
+      <c r="E4" s="251"/>
+      <c r="F4" s="251" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="252"/>
-      <c r="H4" s="250" t="s">
+      <c r="G4" s="251"/>
+      <c r="H4" s="249" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="250" t="s">
+      <c r="I4" s="249" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="249" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="250" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="251" t="s">
+      <c r="C5" s="251"/>
+      <c r="D5" s="250" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251" t="s">
+      <c r="E5" s="250"/>
+      <c r="F5" s="250" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="251"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="250"/>
+      <c r="A6" s="249"/>
       <c r="B6" s="85" t="s">
         <v>255</v>
       </c>
@@ -6785,8 +6776,8 @@
       <c r="G6" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="86" t="s">
@@ -6810,8 +6801,8 @@
       <c r="G7" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
@@ -7017,19 +7008,19 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="224" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225" t="s">
+      <c r="C4" s="224"/>
+      <c r="D4" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225" t="s">
+      <c r="E4" s="224"/>
+      <c r="F4" s="224" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="225"/>
-      <c r="H4" s="200" t="s">
+      <c r="G4" s="224"/>
+      <c r="H4" s="199" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7055,7 +7046,7 @@
       <c r="G5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="201"/>
+      <c r="H5" s="200"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
@@ -7215,7 +7206,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -7236,81 +7227,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164" t="s">
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="164" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="165" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="164"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="165"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="166"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="61">
@@ -7702,18 +7693,18 @@
       <c r="A4" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="224" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225" t="s">
+      <c r="C4" s="224"/>
+      <c r="D4" s="224" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225" t="s">
+      <c r="E4" s="224"/>
+      <c r="F4" s="224" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="225"/>
+      <c r="G4" s="224"/>
       <c r="H4" s="76" t="s">
         <v>265</v>
       </c>
@@ -7722,18 +7713,18 @@
       <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="255" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253" t="s">
+      <c r="C5" s="255"/>
+      <c r="D5" s="255" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253" t="s">
+      <c r="E5" s="255"/>
+      <c r="F5" s="255" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="253"/>
+      <c r="G5" s="255"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:10">
@@ -7760,18 +7751,18 @@
       <c r="A7" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="253" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255" t="s">
+      <c r="C7" s="253"/>
+      <c r="D7" s="253" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255" t="s">
+      <c r="E7" s="253"/>
+      <c r="F7" s="253" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="255"/>
+      <c r="G7" s="253"/>
       <c r="H7" s="53" t="s">
         <v>232</v>
       </c>
@@ -7780,18 +7771,18 @@
       <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="253" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255" t="s">
+      <c r="C8" s="253"/>
+      <c r="D8" s="253" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255" t="s">
+      <c r="E8" s="253"/>
+      <c r="F8" s="253" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="255"/>
+      <c r="G8" s="253"/>
       <c r="H8" s="53" t="s">
         <v>296</v>
       </c>
@@ -7800,18 +7791,18 @@
       <c r="A9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255" t="s">
+      <c r="C9" s="253"/>
+      <c r="D9" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="255"/>
-      <c r="F9" s="255" t="s">
+      <c r="E9" s="253"/>
+      <c r="F9" s="253" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="255"/>
+      <c r="G9" s="253"/>
       <c r="H9" s="53" t="s">
         <v>297</v>
       </c>
@@ -7907,18 +7898,18 @@
       <c r="A14" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="256" t="s">
+      <c r="B14" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256" t="s">
+      <c r="C14" s="252"/>
+      <c r="D14" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256" t="s">
+      <c r="E14" s="252"/>
+      <c r="F14" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="256"/>
+      <c r="G14" s="252"/>
       <c r="H14" s="45" t="s">
         <v>297</v>
       </c>
@@ -7927,36 +7918,54 @@
       <c r="A15" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256" t="s">
+      <c r="C16" s="252"/>
+      <c r="D16" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256" t="s">
+      <c r="E16" s="252"/>
+      <c r="F16" s="252" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="256"/>
+      <c r="G16" s="252"/>
       <c r="H16" s="45" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -7966,24 +7975,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -7998,7 +7989,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8010,19 +8001,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="256" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
       <c r="L1" s="93"/>
       <c r="N1" s="44" t="s">
         <v>203</v>
@@ -8158,10 +8149,10 @@
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="257" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="258"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="39">
         <f>SUM(C4:C6)</f>
         <v>17</v>
@@ -8214,20 +8205,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="256" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
       <c r="M1" s="93"/>
       <c r="O1" s="44" t="s">
         <v>203</v>
@@ -8288,10 +8279,10 @@
       <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="262">
+      <c r="A4" s="261">
         <v>1</v>
       </c>
-      <c r="B4" s="259">
+      <c r="B4" s="258">
         <v>9931</v>
       </c>
       <c r="C4" s="98" t="s">
@@ -8314,8 +8305,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="263"/>
-      <c r="B5" s="260"/>
+      <c r="A5" s="262"/>
+      <c r="B5" s="259"/>
       <c r="C5" s="98" t="s">
         <v>352</v>
       </c>
@@ -8334,8 +8325,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="264"/>
-      <c r="B6" s="261"/>
+      <c r="A6" s="263"/>
+      <c r="B6" s="260"/>
       <c r="C6" s="98" t="s">
         <v>353</v>
       </c>
@@ -8352,11 +8343,11 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="257" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="258"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="257"/>
       <c r="D7" s="103"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -8390,7 +8381,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -8404,63 +8395,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
       <c r="K1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="208" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="208" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="209" t="s">
+      <c r="D3" s="208" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="209"/>
-      <c r="F3" s="265" t="s">
+      <c r="E3" s="208"/>
+      <c r="F3" s="264" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="209" t="s">
+      <c r="G3" s="208" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="209" t="s">
+      <c r="H3" s="208" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="209" t="s">
+      <c r="I3" s="208" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="209"/>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="76" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7"/>
@@ -8476,11 +8467,11 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="224" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
       <c r="D6" s="78" t="s">
         <v>322</v>
       </c>
@@ -8492,16 +8483,16 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="224" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="256" t="s">
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="252" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8531,7 +8522,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -8549,40 +8540,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="219" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="213"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:12" ht="87">
       <c r="A4" s="74" t="s">
@@ -8697,7 +8688,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -8712,52 +8703,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="L1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="163" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="163" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="74" t="s">
         <v>338</v>
       </c>
@@ -8773,16 +8764,16 @@
       <c r="I4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="164"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="266">
+      <c r="A5" s="265">
         <v>1</v>
       </c>
-      <c r="B5" s="266" t="s">
+      <c r="B5" s="265" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="266">
+      <c r="C5" s="265">
         <v>9931</v>
       </c>
       <c r="D5" s="104" t="s">
@@ -8793,12 +8784,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="268"/>
+      <c r="J5" s="267"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="267"/>
-      <c r="B6" s="267"/>
-      <c r="C6" s="267"/>
+      <c r="A6" s="266"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
       <c r="D6" s="104" t="s">
         <v>360</v>
       </c>
@@ -8807,7 +8798,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="269"/>
+      <c r="J6" s="268"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7"/>
@@ -8875,38 +8866,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="269" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="269" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
     </row>
     <row r="3" spans="1:13" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:13">
@@ -9078,14 +9069,14 @@
       <c r="M11" s="96"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="271" t="s">
+      <c r="A12" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="272"/>
-      <c r="C12" s="272"/>
-      <c r="D12" s="272"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="273"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
       <c r="I12" s="137"/>
@@ -9130,34 +9121,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="269" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="269" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9196,10 +9187,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="275">
+      <c r="A5" s="274">
         <v>1</v>
       </c>
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="273" t="s">
         <v>365</v>
       </c>
       <c r="C5" s="136"/>
@@ -9218,7 +9209,7 @@
       <c r="H5" s="111">
         <v>5000</v>
       </c>
-      <c r="I5" s="276">
+      <c r="I5" s="275">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
@@ -9228,8 +9219,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="275"/>
-      <c r="B6" s="274"/>
+      <c r="A6" s="274"/>
+      <c r="B6" s="273"/>
       <c r="C6" s="136"/>
       <c r="D6" s="14" t="s">
         <v>401</v>
@@ -9246,7 +9237,7 @@
       <c r="H6" s="111">
         <v>5000</v>
       </c>
-      <c r="I6" s="277"/>
+      <c r="I6" s="276"/>
       <c r="J6" s="129"/>
       <c r="K6" s="112">
         <v>241337</v>
@@ -9362,14 +9353,14 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="271" t="s">
+      <c r="A14" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="272"/>
-      <c r="C14" s="272"/>
-      <c r="D14" s="272"/>
-      <c r="E14" s="272"/>
-      <c r="F14" s="273"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="272"/>
       <c r="G14" s="137"/>
       <c r="H14" s="111">
         <f>SUM(H5:H13)</f>
@@ -9400,8 +9391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -9418,30 +9409,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
     </row>
     <row r="3" spans="1:9" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:9">
@@ -9474,13 +9465,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="280">
+      <c r="A5" s="279">
         <v>241062</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="277" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="278" t="s">
+      <c r="C5" s="277" t="s">
         <v>379</v>
       </c>
       <c r="D5" s="139"/>
@@ -9494,15 +9485,15 @@
       <c r="H5" s="115">
         <v>5000</v>
       </c>
-      <c r="I5" s="282">
+      <c r="I5" s="281">
         <f>SUM(H5:H6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="281"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="279"/>
+      <c r="A6" s="280"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
       <c r="D6" s="140"/>
       <c r="E6" s="118" t="s">
         <v>409</v>
@@ -9512,7 +9503,7 @@
       <c r="H6" s="115">
         <v>5000</v>
       </c>
-      <c r="I6" s="283"/>
+      <c r="I6" s="282"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="60">
@@ -9678,7 +9669,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -9691,36 +9682,37 @@
     <col min="7" max="8" width="10.140625" style="114" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:11">
@@ -9754,21 +9746,21 @@
       <c r="J4" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="288">
+      <c r="A5" s="285">
         <v>241062</v>
       </c>
-      <c r="B5" s="286" t="s">
+      <c r="B5" s="283" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="286" t="s">
+      <c r="C5" s="283" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="283"/>
       <c r="E5" s="118" t="s">
         <v>379</v>
       </c>
@@ -9783,16 +9775,16 @@
       <c r="J5" s="108">
         <v>5000</v>
       </c>
-      <c r="K5" s="284">
+      <c r="K5" s="292">
         <f>SUM(J5:J6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="289"/>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
       <c r="E6" s="118" t="s">
         <v>415</v>
       </c>
@@ -9805,7 +9797,7 @@
       <c r="J6" s="115">
         <v>5000</v>
       </c>
-      <c r="K6" s="285"/>
+      <c r="K6" s="255"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="60">
@@ -9832,6 +9824,7 @@
       <c r="J7" s="108">
         <v>5001</v>
       </c>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="60">
@@ -9858,6 +9851,7 @@
       <c r="J8" s="108">
         <v>5002</v>
       </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="107"/>
@@ -9870,6 +9864,7 @@
       <c r="H9" s="116"/>
       <c r="I9" s="118"/>
       <c r="J9" s="108"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="107"/>
@@ -9882,6 +9877,7 @@
       <c r="H10" s="116"/>
       <c r="I10" s="118"/>
       <c r="J10" s="108"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="107"/>
@@ -9894,6 +9890,7 @@
       <c r="H11" s="116"/>
       <c r="I11" s="118"/>
       <c r="J11" s="108"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="107"/>
@@ -9906,6 +9903,7 @@
       <c r="H12" s="116"/>
       <c r="I12" s="118"/>
       <c r="J12" s="108"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="107"/>
@@ -9918,6 +9916,7 @@
       <c r="H13" s="116"/>
       <c r="I13" s="118"/>
       <c r="J13" s="108"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="107"/>
@@ -9930,6 +9929,7 @@
       <c r="H14" s="116"/>
       <c r="I14" s="118"/>
       <c r="J14" s="108"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="107"/>
@@ -9942,6 +9942,7 @@
       <c r="H15" s="116"/>
       <c r="I15" s="118"/>
       <c r="J15" s="54"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="107"/>
@@ -9954,8 +9955,9 @@
       <c r="H16" s="116"/>
       <c r="I16" s="118"/>
       <c r="J16" s="54"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="107"/>
       <c r="B17" s="107"/>
       <c r="C17" s="118"/>
@@ -9966,6 +9968,7 @@
       <c r="H17" s="116"/>
       <c r="I17" s="118"/>
       <c r="J17" s="54"/>
+      <c r="K17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10012,138 +10015,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
       <c r="W1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="65"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="175"/>
-      <c r="J3" s="169" t="s">
+      <c r="I3" s="174"/>
+      <c r="J3" s="168" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="176" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="174"/>
-      <c r="N3" s="169" t="s">
+      <c r="M3" s="173"/>
+      <c r="N3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="170"/>
-      <c r="P3" s="169" t="s">
+      <c r="O3" s="169"/>
+      <c r="P3" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="169" t="s">
+      <c r="Q3" s="169"/>
+      <c r="R3" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="169" t="s">
+      <c r="S3" s="169"/>
+      <c r="T3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="170"/>
+      <c r="U3" s="169"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="171" t="s">
+      <c r="J4" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="172"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="171"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="172"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="171"/>
     </row>
     <row r="5" spans="1:23">
       <c r="B5" s="14"/>
@@ -10689,7 +10692,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -10702,14 +10705,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="228" t="s">
         <v>391</v>
       </c>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="228" t="s">
         <v>386</v>
       </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="1:5" ht="5.0999999999999996" customHeight="1"/>
     <row r="4" spans="1:5">
@@ -10900,6 +10911,10 @@
       <c r="E24" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10910,7 +10925,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -10922,22 +10937,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="287" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="144" t="s">
@@ -11053,10 +11068,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -11068,144 +11083,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="G1" s="162" t="s">
+      <c r="A1" s="288" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="228" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="288" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+    </row>
+    <row r="4" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="208" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="224" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="199" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="291" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="229" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="291" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-    </row>
-    <row r="5" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+      <c r="G5" s="208" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="126" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="209" t="s">
-        <v>425</v>
-      </c>
-      <c r="C6" s="225" t="s">
-        <v>426</v>
-      </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="200" t="s">
-        <v>559</v>
-      </c>
-      <c r="G6" s="209" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="208"/>
+      <c r="C6" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="200"/>
+      <c r="G6" s="208"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="201"/>
-      <c r="G7" s="209"/>
+      <c r="A7" s="68">
+        <v>240971</v>
+      </c>
+      <c r="B7" s="123">
+        <v>100</v>
+      </c>
+      <c r="C7" s="122">
+        <v>15</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122">
+        <v>15</v>
+      </c>
+      <c r="F7" s="156"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="68">
-        <v>240971</v>
-      </c>
-      <c r="B8" s="123">
-        <v>100</v>
-      </c>
-      <c r="C8" s="122">
-        <v>15</v>
-      </c>
-      <c r="D8" s="122"/>
+        <v>240972</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122">
+        <v>3</v>
+      </c>
       <c r="E8" s="122">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="156"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="68">
-        <v>240972</v>
+        <v>240973</v>
       </c>
       <c r="B9" s="124"/>
       <c r="C9" s="122"/>
       <c r="D9" s="122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="122">
-        <v>12</v>
+        <f>E8-D9</f>
+        <v>7</v>
       </c>
       <c r="F9" s="156"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="68">
-        <v>240973</v>
-      </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122">
-        <v>5</v>
-      </c>
+        <v>241063</v>
+      </c>
+      <c r="B10" s="124">
+        <v>100.25</v>
+      </c>
+      <c r="C10" s="122">
+        <v>10</v>
+      </c>
+      <c r="D10" s="122"/>
       <c r="E10" s="122">
-        <f>E9-D10</f>
-        <v>7</v>
+        <f>E9+C10</f>
+        <v>17</v>
       </c>
       <c r="F10" s="156"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="68">
-        <v>241063</v>
-      </c>
-      <c r="B11" s="124">
-        <v>100.25</v>
-      </c>
-      <c r="C11" s="122">
-        <v>10</v>
-      </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122">
-        <f>E10+C11</f>
-        <v>17</v>
-      </c>
-      <c r="F11" s="156"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
@@ -11262,24 +11281,15 @@
       <c r="F17" s="155"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="120"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -11304,12 +11314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="289" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="150" t="s">
@@ -11417,10 +11427,10 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="225" t="s">
+      <c r="A17" s="224" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="225"/>
+      <c r="B17" s="224"/>
       <c r="C17" s="124" t="s">
         <v>322</v>
       </c>
@@ -11481,7 +11491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -11569,13 +11579,13 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="208" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="265" t="s">
-        <v>560</v>
-      </c>
-      <c r="C10" s="209" t="s">
+      <c r="B10" s="264" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" s="208" t="s">
         <v>131</v>
       </c>
       <c r="D10" s="141" t="s">
@@ -11584,7 +11594,7 @@
       <c r="E10" s="141" t="s">
         <v>493</v>
       </c>
-      <c r="F10" s="200" t="s">
+      <c r="F10" s="199" t="s">
         <v>495</v>
       </c>
       <c r="G10" s="141" t="s">
@@ -11599,30 +11609,30 @@
       <c r="J10" s="141" t="s">
         <v>498</v>
       </c>
-      <c r="K10" s="200" t="s">
+      <c r="K10" s="199" t="s">
         <v>501</v>
       </c>
       <c r="L10" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="199" t="s">
         <v>503</v>
       </c>
-      <c r="N10" s="200" t="s">
+      <c r="N10" s="199" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="209"/>
-      <c r="B11" s="209"/>
-      <c r="C11" s="209"/>
+      <c r="A11" s="208"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="208"/>
       <c r="D11" s="142" t="s">
         <v>492</v>
       </c>
       <c r="E11" s="142" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="201"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="142" t="s">
         <v>452</v>
       </c>
@@ -11635,12 +11645,12 @@
       <c r="J11" s="142" t="s">
         <v>500</v>
       </c>
-      <c r="K11" s="201"/>
+      <c r="K11" s="200"/>
       <c r="L11" s="142" t="s">
         <v>502</v>
       </c>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7"/>
@@ -11814,23 +11824,23 @@
       <c r="B29" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225" t="s">
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="225"/>
-      <c r="L29" s="225" t="s">
+      <c r="K29" s="224"/>
+      <c r="L29" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="225"/>
+      <c r="M29" s="224"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7"/>
@@ -11963,47 +11973,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="288" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
     </row>
     <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="201" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="208" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="126" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="199" t="s">
         <v>414</v>
       </c>
       <c r="E4" s="126" t="s">
@@ -12018,23 +12028,23 @@
       <c r="H4" s="126" t="s">
         <v>460</v>
       </c>
-      <c r="I4" s="200" t="s">
+      <c r="I4" s="199" t="s">
         <v>450</v>
       </c>
       <c r="J4" s="126" t="s">
         <v>451</v>
       </c>
-      <c r="K4" s="200" t="s">
+      <c r="K4" s="199" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="204"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="127" t="s">
         <v>457</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="127" t="s">
         <v>456</v>
       </c>
@@ -12047,11 +12057,11 @@
       <c r="H5" s="127" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="201"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="127" t="s">
         <v>452</v>
       </c>
-      <c r="K5" s="201"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="122">
@@ -12472,47 +12482,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="288" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
     </row>
     <row r="3" spans="1:11" ht="9.9499999999999993" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="201" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="208" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="148" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="199" t="s">
         <v>408</v>
       </c>
       <c r="E4" s="148" t="s">
@@ -12527,23 +12537,23 @@
       <c r="H4" s="148" t="s">
         <v>460</v>
       </c>
-      <c r="I4" s="200" t="s">
+      <c r="I4" s="199" t="s">
         <v>450</v>
       </c>
       <c r="J4" s="148" t="s">
         <v>451</v>
       </c>
-      <c r="K4" s="200" t="s">
+      <c r="K4" s="199" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="204"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="149" t="s">
         <v>457</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="149" t="s">
         <v>456</v>
       </c>
@@ -12556,11 +12566,11 @@
       <c r="H5" s="149" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="201"/>
+      <c r="I5" s="200"/>
       <c r="J5" s="149" t="s">
         <v>452</v>
       </c>
-      <c r="K5" s="201"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="146">
@@ -12975,42 +12985,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="290" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
       <c r="G1" s="161"/>
       <c r="H1" s="161"/>
       <c r="I1" s="161"/>
       <c r="J1" s="161"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>511</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="228" t="s">
         <v>512</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -13135,17 +13145,17 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="152" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -13155,12 +13165,12 @@
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="152" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -13170,12 +13180,12 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="152" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -13213,26 +13223,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="3" t="s">
@@ -13309,13 +13319,13 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="294"/>
-      <c r="C11" s="294"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="224"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="291"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>131</v>
@@ -13449,22 +13459,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1"/>
     <row r="3" spans="1:14" ht="43.5">
@@ -13716,8 +13726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -13753,316 +13763,316 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="181" t="s">
+      <c r="H3" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="182"/>
-      <c r="J3" s="179" t="s">
+      <c r="I3" s="179"/>
+      <c r="J3" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="181" t="s">
+      <c r="K3" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="182"/>
-      <c r="M3" s="179" t="s">
+      <c r="L3" s="179"/>
+      <c r="M3" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="179"/>
-      <c r="O3" s="181" t="s">
+      <c r="N3" s="185"/>
+      <c r="O3" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="181" t="s">
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="179" t="s">
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="181" t="s">
+      <c r="AF3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="187"/>
-      <c r="AH3" s="187"/>
-      <c r="AI3" s="187"/>
-      <c r="AJ3" s="187"/>
-      <c r="AK3" s="187"/>
-      <c r="AL3" s="187"/>
-      <c r="AM3" s="187"/>
-      <c r="AN3" s="187"/>
-      <c r="AO3" s="187"/>
-      <c r="AP3" s="187"/>
-      <c r="AQ3" s="187"/>
-      <c r="AR3" s="182"/>
-      <c r="AS3" s="181" t="s">
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="178"/>
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="178"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="179"/>
+      <c r="AS3" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="187"/>
-      <c r="AU3" s="187"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="179" t="s">
+      <c r="AT3" s="178"/>
+      <c r="AU3" s="178"/>
+      <c r="AV3" s="179"/>
+      <c r="AW3" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="179" t="s">
+      <c r="AX3" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="AY3" s="178" t="s">
+      <c r="AY3" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="AZ3" s="179" t="s">
+      <c r="AZ3" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="179" t="s">
+      <c r="BA3" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="179" t="s">
+      <c r="BB3" s="185" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="179"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="183"/>
       <c r="I4" s="184"/>
-      <c r="J4" s="179"/>
+      <c r="J4" s="185"/>
       <c r="K4" s="183"/>
       <c r="L4" s="184"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="186"/>
-      <c r="U4" s="185"/>
-      <c r="V4" s="188"/>
-      <c r="W4" s="188"/>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="188"/>
-      <c r="AH4" s="188"/>
-      <c r="AI4" s="188"/>
-      <c r="AJ4" s="188"/>
-      <c r="AK4" s="188"/>
-      <c r="AL4" s="188"/>
-      <c r="AM4" s="188"/>
-      <c r="AN4" s="188"/>
-      <c r="AO4" s="188"/>
-      <c r="AP4" s="188"/>
-      <c r="AQ4" s="188"/>
-      <c r="AR4" s="186"/>
-      <c r="AS4" s="185"/>
-      <c r="AT4" s="188"/>
-      <c r="AU4" s="188"/>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="179"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="180"/>
-      <c r="BA4" s="179"/>
-      <c r="BB4" s="179"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="181"/>
+      <c r="Z4" s="181"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="181"/>
+      <c r="AH4" s="181"/>
+      <c r="AI4" s="181"/>
+      <c r="AJ4" s="181"/>
+      <c r="AK4" s="181"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="181"/>
+      <c r="AN4" s="181"/>
+      <c r="AO4" s="181"/>
+      <c r="AP4" s="181"/>
+      <c r="AQ4" s="181"/>
+      <c r="AR4" s="182"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="181"/>
+      <c r="AU4" s="181"/>
+      <c r="AV4" s="182"/>
+      <c r="AW4" s="190"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="189"/>
+      <c r="AZ4" s="190"/>
+      <c r="BA4" s="185"/>
+      <c r="BB4" s="185"/>
     </row>
     <row r="5" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="183"/>
       <c r="I5" s="184"/>
-      <c r="J5" s="179"/>
+      <c r="J5" s="185"/>
       <c r="K5" s="183"/>
       <c r="L5" s="184"/>
-      <c r="M5" s="179" t="s">
+      <c r="M5" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="179" t="s">
+      <c r="O5" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="179" t="s">
+      <c r="P5" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="179" t="s">
+      <c r="Q5" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="179" t="s">
+      <c r="R5" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="181" t="s">
+      <c r="S5" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="182"/>
-      <c r="U5" s="179" t="s">
+      <c r="T5" s="179"/>
+      <c r="U5" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="179" t="s">
+      <c r="V5" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="179" t="s">
+      <c r="W5" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="179" t="s">
+      <c r="X5" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="179" t="s">
+      <c r="Y5" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="179" t="s">
+      <c r="Z5" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="179" t="s">
+      <c r="AA5" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="179" t="s">
+      <c r="AB5" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="181" t="s">
+      <c r="AC5" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="179" t="s">
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="179" t="s">
+      <c r="AG5" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="179" t="s">
+      <c r="AH5" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="189" t="s">
+      <c r="AI5" s="186" t="s">
         <v>248</v>
       </c>
-      <c r="AJ5" s="179" t="s">
+      <c r="AJ5" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="179" t="s">
+      <c r="AK5" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="179" t="s">
+      <c r="AL5" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="179" t="s">
+      <c r="AM5" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="179" t="s">
+      <c r="AN5" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="181" t="s">
+      <c r="AO5" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="182"/>
-      <c r="AQ5" s="181" t="s">
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="AR5" s="182"/>
-      <c r="AS5" s="181" t="s">
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="182"/>
-      <c r="AU5" s="181" t="s">
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="177" t="s">
         <v>173</v>
       </c>
-      <c r="AV5" s="182"/>
-      <c r="AW5" s="180"/>
-      <c r="AX5" s="179"/>
-      <c r="AY5" s="178"/>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="179"/>
-      <c r="BB5" s="179"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="185"/>
+      <c r="AY5" s="189"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="185"/>
+      <c r="BB5" s="185"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
       <c r="H6" s="183"/>
       <c r="I6" s="184"/>
-      <c r="J6" s="179"/>
+      <c r="J6" s="185"/>
       <c r="K6" s="183"/>
       <c r="L6" s="184"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
       <c r="S6" s="183"/>
       <c r="T6" s="184"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
-      <c r="X6" s="179"/>
-      <c r="Y6" s="179"/>
-      <c r="Z6" s="179"/>
-      <c r="AA6" s="179"/>
-      <c r="AB6" s="179"/>
+      <c r="U6" s="185"/>
+      <c r="V6" s="185"/>
+      <c r="W6" s="185"/>
+      <c r="X6" s="185"/>
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="185"/>
       <c r="AC6" s="183"/>
       <c r="AD6" s="184"/>
-      <c r="AE6" s="180"/>
-      <c r="AF6" s="179"/>
-      <c r="AG6" s="179"/>
-      <c r="AH6" s="179"/>
-      <c r="AI6" s="190"/>
-      <c r="AJ6" s="179"/>
-      <c r="AK6" s="179"/>
-      <c r="AL6" s="179"/>
-      <c r="AM6" s="179"/>
-      <c r="AN6" s="179"/>
+      <c r="AE6" s="190"/>
+      <c r="AF6" s="185"/>
+      <c r="AG6" s="185"/>
+      <c r="AH6" s="185"/>
+      <c r="AI6" s="187"/>
+      <c r="AJ6" s="185"/>
+      <c r="AK6" s="185"/>
+      <c r="AL6" s="185"/>
+      <c r="AM6" s="185"/>
+      <c r="AN6" s="185"/>
       <c r="AO6" s="183"/>
       <c r="AP6" s="184"/>
       <c r="AQ6" s="183"/>
@@ -14071,68 +14081,68 @@
       <c r="AT6" s="184"/>
       <c r="AU6" s="183"/>
       <c r="AV6" s="184"/>
-      <c r="AW6" s="180"/>
-      <c r="AX6" s="179"/>
-      <c r="AY6" s="178"/>
-      <c r="AZ6" s="180"/>
-      <c r="BA6" s="179"/>
-      <c r="BB6" s="179"/>
+      <c r="AW6" s="190"/>
+      <c r="AX6" s="185"/>
+      <c r="AY6" s="189"/>
+      <c r="AZ6" s="190"/>
+      <c r="BA6" s="185"/>
+      <c r="BB6" s="185"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="179"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="191"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179"/>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
-      <c r="AN7" s="179"/>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="186"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="186"/>
-      <c r="AS7" s="185"/>
-      <c r="AT7" s="186"/>
-      <c r="AU7" s="185"/>
-      <c r="AV7" s="186"/>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="178"/>
-      <c r="AZ7" s="180"/>
-      <c r="BA7" s="179"/>
-      <c r="BB7" s="179"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="180"/>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="180"/>
+      <c r="AT7" s="182"/>
+      <c r="AU7" s="180"/>
+      <c r="AV7" s="182"/>
+      <c r="AW7" s="190"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="189"/>
+      <c r="AZ7" s="190"/>
+      <c r="BA7" s="185"/>
+      <c r="BB7" s="185"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="16"/>
@@ -14760,41 +14770,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AF3:AR4"/>
-    <mergeCell ref="AQ5:AR7"/>
-    <mergeCell ref="AS3:AV4"/>
-    <mergeCell ref="AS5:AT7"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AO5:AP7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="H3:I7"/>
-    <mergeCell ref="K3:L7"/>
-    <mergeCell ref="O3:T4"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="U3:AD4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AD7"/>
     <mergeCell ref="AY3:AY7"/>
     <mergeCell ref="AZ3:AZ7"/>
     <mergeCell ref="BA3:BA7"/>
@@ -14811,6 +14786,41 @@
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="K3:L7"/>
+    <mergeCell ref="O3:T4"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="U3:AD4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AD7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="AF3:AR4"/>
+    <mergeCell ref="AQ5:AR7"/>
+    <mergeCell ref="AS3:AV4"/>
+    <mergeCell ref="AS5:AT7"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AO5:AP7"/>
+    <mergeCell ref="AI5:AI7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BC1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -14836,17 +14846,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="228" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
@@ -14994,7 +15004,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -15004,19 +15014,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -15255,7 +15265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC3"/>
     </sheetView>
   </sheetViews>
@@ -15273,93 +15283,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21.75">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="192"/>
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="192"/>
       <c r="AD1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="191" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="193" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="194"/>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="G2" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="191" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="193" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="194"/>
-      <c r="K2" s="192" t="s">
+      <c r="K2" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="192" t="s">
+      <c r="L2" s="191" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="192" t="s">
+      <c r="M2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192" t="s">
+      <c r="N2" s="191"/>
+      <c r="O2" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192" t="s">
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="192" t="s">
+      <c r="U2" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
       <c r="X2" s="193" t="s">
         <v>106</v>
       </c>
@@ -15368,26 +15378,26 @@
         <v>173</v>
       </c>
       <c r="AA2" s="194"/>
-      <c r="AB2" s="192" t="s">
+      <c r="AB2" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="192" t="s">
+      <c r="AC2" s="191" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="51.75">
-      <c r="A3" s="192"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="195"/>
       <c r="E3" s="196"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
       <c r="I3" s="195"/>
       <c r="J3" s="196"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
       <c r="M3" s="18" t="s">
         <v>2</v>
       </c>
@@ -15409,7 +15419,7 @@
       <c r="S3" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="192"/>
+      <c r="T3" s="191"/>
       <c r="U3" s="18" t="s">
         <v>112</v>
       </c>
@@ -15423,8 +15433,8 @@
       <c r="Y3" s="196"/>
       <c r="Z3" s="195"/>
       <c r="AA3" s="196"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="192"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="16"/>
@@ -15676,6 +15686,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="A1:AC1"/>
@@ -15692,9 +15705,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y3"/>
-    <mergeCell ref="Z2:AA3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AD1" location="Sheet1!A1" display="Sheet1!A1"/>
@@ -15719,19 +15729,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
       <c r="M1" s="44" t="s">
         <v>203</v>
       </c>
@@ -15871,7 +15881,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -15892,78 +15902,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
       <c r="P1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
       <c r="P2" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="209" t="s">
+      <c r="C4" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="205" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="207"/>
-      <c r="G4" s="206" t="s">
+      <c r="F4" s="206"/>
+      <c r="G4" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="208"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="206" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="208"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="202" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="203"/>
+      <c r="N4" s="202"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="201"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="201"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="66" t="s">
         <v>252</v>
       </c>
@@ -15973,19 +15983,19 @@
       <c r="G5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="H5" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="207"/>
+      <c r="I5" s="206"/>
       <c r="J5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="206" t="s">
+      <c r="K5" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="207"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="205"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="204"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="7"/>
@@ -16116,14 +16126,14 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="199"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="198"/>
       <c r="H14" s="71">
         <v>100</v>
       </c>
@@ -16176,61 +16186,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="209" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="214"/>
-      <c r="T1" s="214"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
       <c r="U1" s="44" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="213" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
     </row>
     <row r="3" spans="1:21" ht="21.75">
-      <c r="A3" s="217"/>
-      <c r="B3" s="218"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
       <c r="C3" s="20" t="s">
         <v>219</v>
       </c>
@@ -16282,13 +16292,13 @@
       <c r="S3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T3" s="221" t="s">
+      <c r="T3" s="220" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="21.75">
-      <c r="A4" s="219"/>
-      <c r="B4" s="220"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
       <c r="C4" s="21">
         <v>1500800000</v>
       </c>
@@ -16340,10 +16350,10 @@
       <c r="S4" s="21">
         <v>1500800017</v>
       </c>
-      <c r="T4" s="221"/>
+      <c r="T4" s="220"/>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="222">
+      <c r="A5" s="221">
         <v>240970</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -17231,10 +17241,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="21.75">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="219" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="213"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -17256,13 +17266,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
@@ -17273,6 +17276,13 @@
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U1" location="Sheet1!A1" display="Sheet1!A1"/>
